--- a/NSDC_Web_Automation/UploadFiles/CandidateEnrollmentList.xlsx
+++ b/NSDC_Web_Automation/UploadFiles/CandidateEnrollmentList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KirtiSingh\Documents\Repository\NSDC_Web_Automation\nsdcregressiontesting\NSDC_Web_Automation\UploadFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D298A46-D9D2-4B55-BCBE-97A99689AEA8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC98533-EFD2-40E6-B1C6-580F60BC906D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" tabRatio="204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" tabRatio="204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="170">
   <si>
     <t>Common Candidate Details</t>
   </si>
@@ -100,6 +100,27 @@
     <t>20</t>
   </si>
   <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
     <t>Salutation</t>
   </si>
   <si>
@@ -127,15 +148,6 @@
     <t>GuardianName</t>
   </si>
   <si>
-    <t>AadhaarEnrollmentNumber</t>
-  </si>
-  <si>
-    <t>AadhaarNo</t>
-  </si>
-  <si>
-    <t>AlternateIdNo</t>
-  </si>
-  <si>
     <t>Category</t>
   </si>
   <si>
@@ -175,12 +187,12 @@
     <t>CurrentDistrict</t>
   </si>
   <si>
+    <t>CurrentState</t>
+  </si>
+  <si>
     <t>CurrentPinCode</t>
   </si>
   <si>
-    <t>CurrentState</t>
-  </si>
-  <si>
     <t>CurrentParliamentConstituency</t>
   </si>
   <si>
@@ -355,6 +367,27 @@
     <t>NSDCRegistrationNumber</t>
   </si>
   <si>
+    <t>CandidateID</t>
+  </si>
+  <si>
+    <t>PlacementTrackingStatus1</t>
+  </si>
+  <si>
+    <t>PlacementTrackingDate1</t>
+  </si>
+  <si>
+    <t>PlacementTrackingStatus2</t>
+  </si>
+  <si>
+    <t>PlacementTrackingDate2</t>
+  </si>
+  <si>
+    <t>PlacementTrackingStatus3</t>
+  </si>
+  <si>
+    <t>PlacementTrackingDate3</t>
+  </si>
+  <si>
     <t>Mr/Ms/Mrs/Mx</t>
   </si>
   <si>
@@ -367,9 +400,6 @@
     <t>Single/Married/Divorcee/Widow</t>
   </si>
   <si>
-    <t>12 Digit Number</t>
-  </si>
-  <si>
     <t>General/SC/ST/OBC</t>
   </si>
   <si>
@@ -409,89 +439,104 @@
     <t>Number</t>
   </si>
   <si>
-    <t>Ms</t>
-  </si>
-  <si>
-    <t>Tinu</t>
+    <t>Bangalore</t>
+  </si>
+  <si>
+    <t>Married</t>
+  </si>
+  <si>
+    <t>OBC</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Hindu</t>
+  </si>
+  <si>
+    <t>Karnataka</t>
+  </si>
+  <si>
+    <t>496227</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>bulkupload</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>xyz</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>27/11/2018</t>
+  </si>
+  <si>
+    <t>27/11/2009</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>Self Employed</t>
+  </si>
+  <si>
+    <t>Professor</t>
+  </si>
+  <si>
+    <t>Mr Harry</t>
+  </si>
+  <si>
+    <t>Mr Larry</t>
+  </si>
+  <si>
+    <t>Government</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Mr</t>
   </si>
   <si>
     <t>Male</t>
   </si>
   <si>
-    <t>27/12/1991</t>
-  </si>
-  <si>
-    <t>Divorcee</t>
-  </si>
-  <si>
-    <t>Mr G H Kumar</t>
-  </si>
-  <si>
-    <t>Mrs R Kumar</t>
-  </si>
-  <si>
-    <t>Mr P Kumar</t>
-  </si>
-  <si>
-    <t>bulkupload</t>
-  </si>
-  <si>
-    <t>Sonu</t>
-  </si>
-  <si>
     <t>27/10/1991</t>
   </si>
   <si>
-    <t>Single</t>
-  </si>
-  <si>
-    <t>Mr A K Singh</t>
-  </si>
-  <si>
-    <t>Mrs J Singh</t>
-  </si>
-  <si>
-    <t>Mr J Kumar</t>
-  </si>
-  <si>
-    <t>Monu</t>
-  </si>
-  <si>
-    <t>27/11/1991</t>
-  </si>
-  <si>
-    <t>Married</t>
-  </si>
-  <si>
-    <t>Mr B P Singh</t>
-  </si>
-  <si>
-    <t>Mrs L Singh</t>
-  </si>
-  <si>
-    <t>Mr O Kumar</t>
-  </si>
-  <si>
-    <t>Completed</t>
-  </si>
-  <si>
-    <t>Bangalore</t>
-  </si>
-  <si>
-    <t>xyz</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>abc</t>
+    <t>Mr James</t>
+  </si>
+  <si>
+    <t>Mrs Ema</t>
+  </si>
+  <si>
+    <t>Mr Paul</t>
+  </si>
+  <si>
+    <t>Graduate</t>
+  </si>
+  <si>
+    <t>CAN_023465</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -526,7 +571,15 @@
       <b/>
       <sz val="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -635,9 +688,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -680,6 +733,9 @@
     <xf numFmtId="49" fontId="1" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -689,8 +745,13 @@
     <xf numFmtId="49" fontId="4" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1030,20 +1091,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:ALU7"/>
+  <dimension ref="A1:AMG5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AY1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BK1" sqref="BK1:BK1048576"/>
+    <sheetView tabSelected="1" topLeftCell="BU1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="CE5" sqref="CE5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="62" width="11.5703125" style="1" customWidth="1"/>
-    <col min="63" max="63" width="11.5703125" style="20" customWidth="1"/>
-    <col min="64" max="1009" width="11.5703125" style="1" customWidth="1"/>
+    <col min="1" max="9" width="11" style="1" customWidth="1"/>
+    <col min="10" max="11" width="8.85546875" style="1" customWidth="1"/>
+    <col min="12" max="22" width="11" style="1" customWidth="1"/>
+    <col min="23" max="23" width="8.85546875" style="1" customWidth="1"/>
+    <col min="24" max="1021" width="11" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:85" ht="19.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:89" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1079,49 +1142,49 @@
       <c r="AE1" s="2"/>
       <c r="AF1" s="2"/>
       <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="3"/>
-      <c r="AL1" s="3"/>
-      <c r="AM1" s="4" t="s">
+      <c r="AH1" s="3"/>
+      <c r="AI1" s="3"/>
+      <c r="AJ1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="AN1" s="5"/>
-      <c r="AO1" s="5"/>
+      <c r="AK1" s="5"/>
+      <c r="AL1" s="5"/>
+      <c r="AM1" s="5"/>
+      <c r="AN1" s="6"/>
+      <c r="AO1" s="6"/>
       <c r="AP1" s="5"/>
-      <c r="AQ1" s="6"/>
-      <c r="AR1" s="6"/>
+      <c r="AQ1" s="5"/>
+      <c r="AR1" s="5"/>
       <c r="AS1" s="5"/>
       <c r="AT1" s="5"/>
       <c r="AU1" s="5"/>
       <c r="AV1" s="5"/>
-      <c r="AW1" s="5"/>
-      <c r="AX1" s="5"/>
-      <c r="AY1" s="5"/>
-      <c r="AZ1" s="7"/>
-      <c r="BA1" s="8" t="s">
+      <c r="AW1" s="7"/>
+      <c r="AX1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="BB1" s="9"/>
-      <c r="BC1" s="10" t="s">
+      <c r="AY1" s="9"/>
+      <c r="AZ1" s="10" t="s">
         <v>3</v>
       </c>
+      <c r="BA1" s="11"/>
+      <c r="BB1" s="11"/>
+      <c r="BC1" s="11"/>
       <c r="BD1" s="11"/>
       <c r="BE1" s="11"/>
-      <c r="BF1" s="11"/>
-      <c r="BG1" s="11"/>
-      <c r="BH1" s="11"/>
-      <c r="BI1" s="12" t="s">
+      <c r="BF1" s="12" t="s">
         <v>4</v>
       </c>
+      <c r="BG1" s="13"/>
+      <c r="BH1" s="13"/>
+      <c r="BI1" s="13"/>
       <c r="BJ1" s="13"/>
-      <c r="BK1" s="13"/>
-      <c r="BL1" s="13"/>
-      <c r="BM1" s="13"/>
-      <c r="BN1" s="14" t="s">
+      <c r="BK1" s="14" t="s">
         <v>5</v>
       </c>
+      <c r="BL1" s="15"/>
+      <c r="BM1" s="15"/>
+      <c r="BN1" s="15"/>
       <c r="BO1" s="15"/>
       <c r="BP1" s="15"/>
       <c r="BQ1" s="15"/>
@@ -1139,858 +1202,886 @@
       <c r="CC1" s="15"/>
       <c r="CD1" s="15"/>
       <c r="CE1" s="15"/>
-      <c r="CF1" s="15"/>
-      <c r="CG1" s="15"/>
+      <c r="CF1" s="16"/>
+      <c r="CG1" s="16"/>
+      <c r="CH1" s="16"/>
+      <c r="CI1" s="16"/>
+      <c r="CJ1" s="16"/>
+      <c r="CK1" s="16"/>
     </row>
-    <row r="2" spans="1:85" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="16">
+    <row r="2" spans="1:89" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="17">
         <v>1</v>
       </c>
-      <c r="B2" s="16">
+      <c r="B2" s="17">
         <v>2</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="17">
         <v>4</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="17">
         <v>5</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="17">
         <v>6</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="17">
         <v>7</v>
       </c>
-      <c r="G2" s="16">
+      <c r="G2" s="17">
         <v>8</v>
       </c>
-      <c r="H2" s="16">
+      <c r="H2" s="17">
         <v>9</v>
       </c>
-      <c r="I2" s="16">
+      <c r="I2" s="17">
         <v>10</v>
       </c>
-      <c r="J2" s="16">
+      <c r="J2" s="17">
+        <v>14</v>
+      </c>
+      <c r="K2" s="17">
+        <v>15</v>
+      </c>
+      <c r="L2" s="17">
+        <v>16</v>
+      </c>
+      <c r="M2" s="17">
+        <v>17</v>
+      </c>
+      <c r="N2" s="17">
+        <v>18</v>
+      </c>
+      <c r="O2" s="17">
+        <v>19</v>
+      </c>
+      <c r="P2" s="17">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="17">
+        <v>21</v>
+      </c>
+      <c r="R2" s="17">
+        <v>22</v>
+      </c>
+      <c r="S2" s="17">
+        <v>23</v>
+      </c>
+      <c r="T2" s="17">
+        <v>24</v>
+      </c>
+      <c r="U2" s="17">
+        <v>25</v>
+      </c>
+      <c r="V2" s="17">
+        <v>26</v>
+      </c>
+      <c r="W2" s="17">
+        <v>28</v>
+      </c>
+      <c r="X2" s="17">
+        <v>27</v>
+      </c>
+      <c r="Y2" s="17">
+        <v>29</v>
+      </c>
+      <c r="Z2" s="17">
+        <v>30</v>
+      </c>
+      <c r="AA2" s="17">
+        <v>31</v>
+      </c>
+      <c r="AB2" s="17">
+        <v>32</v>
+      </c>
+      <c r="AC2" s="17">
+        <v>33</v>
+      </c>
+      <c r="AD2" s="17">
+        <v>34</v>
+      </c>
+      <c r="AE2" s="17">
+        <v>35</v>
+      </c>
+      <c r="AF2" s="17">
+        <v>36</v>
+      </c>
+      <c r="AG2" s="17">
+        <v>37</v>
+      </c>
+      <c r="AH2" s="17">
+        <v>38</v>
+      </c>
+      <c r="AI2" s="17">
+        <v>39</v>
+      </c>
+      <c r="AJ2" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK2" s="5">
+        <v>2</v>
+      </c>
+      <c r="AL2" s="5">
+        <v>3</v>
+      </c>
+      <c r="AM2" s="5">
+        <v>4</v>
+      </c>
+      <c r="AN2" s="5">
+        <v>5</v>
+      </c>
+      <c r="AO2" s="5">
+        <v>6</v>
+      </c>
+      <c r="AP2" s="5">
+        <v>7</v>
+      </c>
+      <c r="AQ2" s="5">
+        <v>8</v>
+      </c>
+      <c r="AR2" s="5">
+        <v>9</v>
+      </c>
+      <c r="AS2" s="5">
+        <v>10</v>
+      </c>
+      <c r="AT2" s="5">
         <v>11</v>
       </c>
-      <c r="K2" s="16">
+      <c r="AU2" s="5">
         <v>12</v>
       </c>
-      <c r="L2" s="16">
+      <c r="AV2" s="5">
         <v>13</v>
       </c>
-      <c r="M2" s="16">
+      <c r="AW2" s="7">
         <v>14</v>
       </c>
-      <c r="N2" s="16">
+      <c r="AX2" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="AY2" s="18">
+        <v>2</v>
+      </c>
+      <c r="AZ2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="BA2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="BB2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="BC2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="BD2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="BE2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="BF2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="BG2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="BH2" s="13">
+        <v>3</v>
+      </c>
+      <c r="BI2" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="BJ2" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="BK2" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="BL2" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="BM2" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="BN2" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="BO2" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="BP2" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="BQ2" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="BR2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="BS2" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="BT2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="16">
+      <c r="BU2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="16">
+      <c r="BV2" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" s="16">
+      <c r="BW2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="R2" s="16">
+      <c r="BX2" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="S2" s="16">
+      <c r="BY2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="T2" s="16">
+      <c r="BZ2" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="U2" s="16">
+      <c r="CA2" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="V2" s="16">
+      <c r="CB2" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="W2" s="16">
+      <c r="CC2" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="X2" s="16">
+      <c r="CD2" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="Y2" s="16">
+      <c r="CE2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="Z2" s="16">
+      <c r="CF2" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="AA2" s="16">
+      <c r="CG2" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="AB2" s="16">
+      <c r="CH2" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="AC2" s="16">
+      <c r="CI2" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="AD2" s="16">
+      <c r="CJ2" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="AE2" s="16">
+      <c r="CK2" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="AF2" s="16">
+    </row>
+    <row r="3" spans="1:89" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="AG2" s="16">
+      <c r="B3" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="AH2" s="16">
+      <c r="C3" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="AI2" s="16">
+      <c r="D3" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="AJ2" s="16">
+      <c r="E3" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="AK2" s="16">
+      <c r="F3" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="AL2" s="16">
+      <c r="G3" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="AM2" s="5">
-        <v>1</v>
-      </c>
-      <c r="AN2" s="5">
-        <v>2</v>
-      </c>
-      <c r="AO2" s="5">
-        <v>3</v>
-      </c>
-      <c r="AP2" s="5">
+      <c r="H3" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="M3" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="N3" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="O3" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="P3" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q3" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="R3" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="S3" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="T3" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="U3" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="V3" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="W3" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="X3" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y3" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z3" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA3" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB3" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC3" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD3" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE3" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF3" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG3" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH3" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI3" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ3" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="AK3" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL3" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM3" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN3" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO3" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP3" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ3" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR3" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS3" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT3" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU3" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="AV3" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="AW3" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="AX3" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="AY3" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="AZ3" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA3" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB3" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="BC3" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="BD3" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="BE3" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="BF3" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="BG3" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="BH3" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="BI3" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="BJ3" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="BK3" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="BL3" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="BM3" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="BN3" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="BO3" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="BP3" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="BQ3" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="BR3" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="BS3" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="BT3" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU3" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="BV3" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="BW3" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="BX3" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="BY3" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="BZ3" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="CA3" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="CB3" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="CC3" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="CD3" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="CE3" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="CF3" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="CG3" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="CH3" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="CI3" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="CJ3" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="CK3" s="20" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:89" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="K4" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="L4" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="19"/>
+      <c r="X4" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y4" s="19"/>
+      <c r="Z4" s="19"/>
+      <c r="AA4" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB4" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC4" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="AD4" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="AE4" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF4" s="19"/>
+      <c r="AG4" s="19"/>
+      <c r="AH4" s="19"/>
+      <c r="AI4" s="19"/>
+      <c r="AJ4" s="19"/>
+      <c r="AK4" s="19"/>
+      <c r="AL4" s="19"/>
+      <c r="AM4" s="19"/>
+      <c r="AN4" s="19"/>
+      <c r="AO4" s="19"/>
+      <c r="AP4" s="19"/>
+      <c r="AQ4" s="19"/>
+      <c r="AR4" s="19"/>
+      <c r="AS4" s="19"/>
+      <c r="AT4" s="19"/>
+      <c r="AU4" s="19"/>
+      <c r="AV4" s="19"/>
+      <c r="AW4" s="19"/>
+      <c r="AX4" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="AY4" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="AZ4" s="19"/>
+      <c r="BA4" s="19"/>
+      <c r="BB4" s="19"/>
+      <c r="BC4" s="19"/>
+      <c r="BD4" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="BE4" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="BF4" s="19"/>
+      <c r="BG4" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="BH4" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="BI4" s="19"/>
+      <c r="BJ4" s="19"/>
+      <c r="BK4" s="19"/>
+      <c r="BL4" s="19"/>
+      <c r="BM4" s="19"/>
+      <c r="BN4" s="19"/>
+      <c r="BO4" s="19"/>
+      <c r="BP4" s="19"/>
+      <c r="BQ4" s="19"/>
+      <c r="BR4" s="19"/>
+      <c r="BS4" s="19"/>
+      <c r="BT4" s="19"/>
+      <c r="BU4" s="19"/>
+      <c r="BV4" s="19"/>
+      <c r="BW4" s="19"/>
+      <c r="BX4" s="19"/>
+      <c r="BY4" s="19"/>
+      <c r="BZ4" s="19"/>
+      <c r="CA4" s="19"/>
+      <c r="CB4" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="CC4" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="CD4" s="19"/>
+      <c r="CE4" s="19"/>
+      <c r="CF4" s="22"/>
+      <c r="CG4" s="22"/>
+      <c r="CH4" s="22"/>
+      <c r="CI4" s="22"/>
+      <c r="CJ4" s="22"/>
+      <c r="CK4" s="22"/>
+    </row>
+    <row r="5" spans="1:89" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="AH5" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AX5" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AY5" s="1">
+        <v>100</v>
+      </c>
+      <c r="BD5" s="1">
+        <v>100</v>
+      </c>
+      <c r="BE5" s="1">
+        <v>100</v>
+      </c>
+      <c r="BF5" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="BG5" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BH5" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="BJ5" s="1">
+        <v>5</v>
+      </c>
+      <c r="BK5" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="BL5" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BM5" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="BN5" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="BO5" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="BP5" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="BQ5" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="BR5" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="BS5" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="BT5" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="BU5" s="1">
+        <v>9368644646</v>
+      </c>
+      <c r="BV5" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="BW5" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BX5" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="BY5" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="BZ5" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="CA5" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="CB5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="CC5" s="1">
+        <v>15000</v>
+      </c>
+      <c r="CD5" s="1">
         <v>4</v>
       </c>
-      <c r="AQ2" s="5">
-        <v>5</v>
-      </c>
-      <c r="AR2" s="5">
-        <v>6</v>
-      </c>
-      <c r="AS2" s="5">
-        <v>7</v>
-      </c>
-      <c r="AT2" s="5">
-        <v>8</v>
-      </c>
-      <c r="AU2" s="5">
-        <v>9</v>
-      </c>
-      <c r="AV2" s="5">
-        <v>10</v>
-      </c>
-      <c r="AW2" s="5">
-        <v>11</v>
-      </c>
-      <c r="AX2" s="5">
-        <v>12</v>
-      </c>
-      <c r="AY2" s="5">
-        <v>13</v>
-      </c>
-      <c r="AZ2" s="7">
-        <v>14</v>
-      </c>
-      <c r="BA2" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="BB2" s="17">
-        <v>2</v>
-      </c>
-      <c r="BC2" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="BD2" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="BE2" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="BF2" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="BG2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="BH2" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="BI2" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="BJ2" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="BK2" s="13">
-        <v>3</v>
-      </c>
-      <c r="BL2" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="BM2" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="BN2" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="BO2" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="BP2" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="BQ2" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="BR2" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="BS2" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="BT2" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="BU2" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="BV2" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="BW2" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="BX2" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="BY2" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="BZ2" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="CA2" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="CB2" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="CC2" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="CD2" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="CE2" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="CF2" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="CG2" s="15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:85" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="K3" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="L3" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="M3" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="N3" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="O3" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="P3" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q3" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="R3" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="S3" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="T3" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="U3" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="V3" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="W3" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="X3" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y3" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z3" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA3" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB3" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC3" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD3" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE3" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF3" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG3" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH3" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="AI3" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="AJ3" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="AK3" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL3" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="AM3" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="AN3" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="AO3" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="AP3" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="AQ3" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="AR3" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="AS3" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="AT3" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="AU3" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="AV3" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="AW3" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="AX3" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="AY3" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="AZ3" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="BA3" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="BB3" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="BC3" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="BD3" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="BE3" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="BF3" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="BG3" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="BH3" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="BI3" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="BJ3" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="BK3" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="BL3" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="BM3" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="BN3" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="BO3" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="BP3" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="BQ3" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="BR3" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="BS3" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="BT3" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="BU3" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="BV3" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="BW3" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="BX3" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="BY3" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="BZ3" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="CA3" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="CB3" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="CC3" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="CD3" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="CE3" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="CF3" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="CG3" s="18" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="4" spans="1:85" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="K4" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="L4" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="M4" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="N4" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="O4" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="U4" s="18"/>
-      <c r="V4" s="18"/>
-      <c r="W4" s="18"/>
-      <c r="X4" s="18"/>
-      <c r="Y4" s="18"/>
-      <c r="Z4" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="AA4" s="18"/>
-      <c r="AB4" s="18"/>
-      <c r="AC4" s="18"/>
-      <c r="AD4" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="AE4" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="AF4" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="AG4" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="AH4" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="AI4" s="18"/>
-      <c r="AJ4" s="18"/>
-      <c r="AK4" s="18"/>
-      <c r="AL4" s="18"/>
-      <c r="AM4" s="18"/>
-      <c r="AN4" s="18"/>
-      <c r="AO4" s="18"/>
-      <c r="AP4" s="18"/>
-      <c r="AQ4" s="18"/>
-      <c r="AR4" s="18"/>
-      <c r="AS4" s="18"/>
-      <c r="AT4" s="18"/>
-      <c r="AU4" s="18"/>
-      <c r="AV4" s="18"/>
-      <c r="AW4" s="18"/>
-      <c r="AX4" s="18"/>
-      <c r="AY4" s="18"/>
-      <c r="AZ4" s="18"/>
-      <c r="BA4" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="BB4" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="BC4" s="18"/>
-      <c r="BD4" s="18"/>
-      <c r="BE4" s="18"/>
-      <c r="BF4" s="18"/>
-      <c r="BG4" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="BH4" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="BI4" s="18"/>
-      <c r="BJ4" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="BK4" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="BL4" s="18"/>
-      <c r="BM4" s="18"/>
-      <c r="BN4" s="18"/>
-      <c r="BO4" s="18"/>
-      <c r="BP4" s="18"/>
-      <c r="BQ4" s="18"/>
-      <c r="BR4" s="18"/>
-      <c r="BS4" s="18"/>
-      <c r="BT4" s="18"/>
-      <c r="BU4" s="18"/>
-      <c r="BV4" s="18"/>
-      <c r="BW4" s="18"/>
-      <c r="BX4" s="18"/>
-      <c r="BY4" s="18"/>
-      <c r="BZ4" s="18"/>
-      <c r="CA4" s="18"/>
-      <c r="CB4" s="18"/>
-      <c r="CC4" s="18"/>
-      <c r="CD4" s="18"/>
-      <c r="CE4" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="CF4" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="CG4" s="18"/>
-    </row>
-    <row r="5" spans="1:85" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="AK5" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BA5" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="BB5" s="1">
-        <v>99</v>
-      </c>
-      <c r="BG5" s="1">
-        <v>100</v>
-      </c>
-      <c r="BH5" s="1">
-        <v>50</v>
-      </c>
-      <c r="BI5" s="1" t="s">
+      <c r="CE5" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="CF5" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="CG5" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="BJ5" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="BK5" s="20">
-        <v>43414</v>
-      </c>
-      <c r="BL5" s="1" t="s">
+      <c r="CH5" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="BM5" s="1">
-        <v>23</v>
-      </c>
-      <c r="CE5" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="CF5" s="1">
-        <v>10000</v>
-      </c>
-      <c r="CG5" s="1">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:85" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AK6" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BA6" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="BB6" s="1">
-        <v>100</v>
-      </c>
-      <c r="BG6" s="1">
-        <v>90</v>
-      </c>
-      <c r="BH6" s="1">
-        <v>70</v>
-      </c>
-      <c r="BI6" s="1" t="s">
+      <c r="CI5" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="BJ6" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="BK6" s="20">
-        <v>43414</v>
-      </c>
-      <c r="BL6" s="1" t="s">
+      <c r="CJ5" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="BM6" s="1">
-        <v>24</v>
-      </c>
-      <c r="CE6" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="CF6" s="1">
-        <v>10000</v>
-      </c>
-      <c r="CG6" s="1">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:85" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="AK7" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BA7" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="BB7" s="1">
-        <v>90</v>
-      </c>
-      <c r="BG7" s="1">
-        <v>99</v>
-      </c>
-      <c r="BH7" s="1">
-        <v>90</v>
-      </c>
-      <c r="BI7" s="1" t="s">
+      <c r="CK5" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="BJ7" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="BK7" s="20">
-        <v>43414</v>
-      </c>
-      <c r="BL7" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="BM7" s="1">
-        <v>25</v>
-      </c>
-      <c r="CE7" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="CF7" s="1">
-        <v>10000</v>
-      </c>
-      <c r="CG7" s="1">
-        <v>15000</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
+  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/NSDC_Web_Automation/UploadFiles/CandidateEnrollmentList.xlsx
+++ b/NSDC_Web_Automation/UploadFiles/CandidateEnrollmentList.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KirtiSingh\Documents\Repository\NSDC_Web_Automation\nsdcregressiontesting\NSDC_Web_Automation\UploadFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trans\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC98533-EFD2-40E6-B1C6-580F60BC906D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CA83358-BA71-4D2D-9880-2876E64E2C20}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" tabRatio="204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="268">
   <si>
     <t>Common Candidate Details</t>
   </si>
@@ -388,28 +389,34 @@
     <t>PlacementTrackingDate3</t>
   </si>
   <si>
-    <t>Mr/Ms/Mrs/Mx</t>
-  </si>
-  <si>
-    <t>Male/Female/Transgender</t>
-  </si>
-  <si>
-    <t>DD/MM/YYYY</t>
-  </si>
-  <si>
-    <t>Single/Married/Divorcee/Widow</t>
-  </si>
-  <si>
-    <t>General/SC/ST/OBC</t>
-  </si>
-  <si>
-    <t>Yes/No</t>
-  </si>
-  <si>
-    <t>Hindu/Muslim/Christian/Atheist/Buddhist/Sikh/Jews/Other</t>
-  </si>
-  <si>
-    <t>6 Digit Number</t>
+    <t>Mr/Ms/Mrs/Mx *</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>Male/Female/Transgender *</t>
+  </si>
+  <si>
+    <t>DD/MM/YYYY*</t>
+  </si>
+  <si>
+    <t>Single/Unmarried
+Married
+Divorcee
+Widow *</t>
+  </si>
+  <si>
+    <t>General/SC/ST/OBC*</t>
+  </si>
+  <si>
+    <t>Yes/No*</t>
+  </si>
+  <si>
+    <t>Hindu/Muslim/Christian/Atheist/Buddhist/Sikh/Jews/Other*</t>
+  </si>
+  <si>
+    <t>6 Digit Number*</t>
   </si>
   <si>
     <t>10 Digit Number</t>
@@ -427,25 +434,46 @@
     <t>0-3 digit Number</t>
   </si>
   <si>
-    <t>Completed/Pending</t>
-  </si>
-  <si>
-    <t>0-100 Number</t>
-  </si>
-  <si>
-    <t>Y/N</t>
-  </si>
-  <si>
-    <t>Number</t>
-  </si>
-  <si>
-    <t>Bangalore</t>
-  </si>
-  <si>
-    <t>Married</t>
-  </si>
-  <si>
-    <t>OBC</t>
+    <t>Completed/Pending*</t>
+  </si>
+  <si>
+    <t>0-100 Number*</t>
+  </si>
+  <si>
+    <t>Y/N*</t>
+  </si>
+  <si>
+    <t>Number*</t>
+  </si>
+  <si>
+    <t>Mr</t>
+  </si>
+  <si>
+    <t>Harshit</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>01/04/1997</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>Single/Unmarried</t>
+  </si>
+  <si>
+    <t>Ganesh</t>
+  </si>
+  <si>
+    <t>Sunaina</t>
+  </si>
+  <si>
+    <t>Golu</t>
+  </si>
+  <si>
+    <t>General</t>
   </si>
   <si>
     <t>No</t>
@@ -454,89 +482,359 @@
     <t>Hindu</t>
   </si>
   <si>
-    <t>Karnataka</t>
-  </si>
-  <si>
-    <t>496227</t>
+    <t>36 Mall Road</t>
+  </si>
+  <si>
+    <t>New Delhi</t>
+  </si>
+  <si>
+    <t>110045</t>
+  </si>
+  <si>
+    <t>Shahdara</t>
   </si>
   <si>
     <t>India</t>
   </si>
   <si>
-    <t>0</t>
+    <t>8712345345</t>
+  </si>
+  <si>
+    <t>01123459889</t>
+  </si>
+  <si>
+    <t>123456@gmail.com</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Graduate</t>
   </si>
   <si>
     <t>bulkupload</t>
   </si>
   <si>
+    <t>Created by Training Partner, TP_002652</t>
+  </si>
+  <si>
+    <t>CAN_025936</t>
+  </si>
+  <si>
+    <t>mahesh</t>
+  </si>
+  <si>
+    <t>01/04/1998</t>
+  </si>
+  <si>
+    <t>37 Mall Road</t>
+  </si>
+  <si>
+    <t>110046</t>
+  </si>
+  <si>
+    <t>01123459890</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>CAN_025923</t>
+  </si>
+  <si>
+    <t>pallavi</t>
+  </si>
+  <si>
+    <t>01/04/1985</t>
+  </si>
+  <si>
+    <t>24 Mall Road</t>
+  </si>
+  <si>
+    <t>110033</t>
+  </si>
+  <si>
+    <t>01123459877</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>CAN_025925</t>
+  </si>
+  <si>
+    <t>priya</t>
+  </si>
+  <si>
+    <t>01/04/1986</t>
+  </si>
+  <si>
+    <t>25 Mall Road</t>
+  </si>
+  <si>
+    <t>110034</t>
+  </si>
+  <si>
+    <t>01123459878</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>CAN_025926</t>
+  </si>
+  <si>
+    <t>kirti</t>
+  </si>
+  <si>
+    <t>01/04/1984</t>
+  </si>
+  <si>
+    <t>23 Mall Road</t>
+  </si>
+  <si>
+    <t>110032</t>
+  </si>
+  <si>
+    <t>01123459876</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>CAN_025924</t>
+  </si>
+  <si>
+    <t>shashank</t>
+  </si>
+  <si>
+    <t>01/04/1988</t>
+  </si>
+  <si>
+    <t>27 Mall Road</t>
+  </si>
+  <si>
+    <t>110036</t>
+  </si>
+  <si>
+    <t>01123459880</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>CAN_025927</t>
+  </si>
+  <si>
+    <t>pooja</t>
+  </si>
+  <si>
+    <t>01/04/1992</t>
+  </si>
+  <si>
+    <t>31 Mall Road</t>
+  </si>
+  <si>
+    <t>110040</t>
+  </si>
+  <si>
+    <t>01123459884</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>CAN_025931</t>
+  </si>
+  <si>
+    <t>leela</t>
+  </si>
+  <si>
+    <t>01/04/1994</t>
+  </si>
+  <si>
+    <t>33 Mall Road</t>
+  </si>
+  <si>
+    <t>110042</t>
+  </si>
+  <si>
+    <t>01123459886</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>CAN_025933</t>
+  </si>
+  <si>
+    <t>pampa</t>
+  </si>
+  <si>
+    <t>01/04/1990</t>
+  </si>
+  <si>
+    <t>29 Mall Road</t>
+  </si>
+  <si>
+    <t>110038</t>
+  </si>
+  <si>
+    <t>01123459882</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>CAN_025929</t>
+  </si>
+  <si>
+    <t>sameena</t>
+  </si>
+  <si>
+    <t>01/04/1991</t>
+  </si>
+  <si>
+    <t>30 Mall Road</t>
+  </si>
+  <si>
+    <t>110039</t>
+  </si>
+  <si>
+    <t>01123459883</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>CAN_025930</t>
+  </si>
+  <si>
+    <t>roshni</t>
+  </si>
+  <si>
+    <t>01/04/1989</t>
+  </si>
+  <si>
+    <t>28 Mall Road</t>
+  </si>
+  <si>
+    <t>110037</t>
+  </si>
+  <si>
+    <t>01123459881</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>CAN_025928</t>
+  </si>
+  <si>
+    <t>preksha</t>
+  </si>
+  <si>
+    <t>01/04/1995</t>
+  </si>
+  <si>
+    <t>34 Mall Road</t>
+  </si>
+  <si>
+    <t>110043</t>
+  </si>
+  <si>
+    <t>01123459887</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>CAN_025934</t>
+  </si>
+  <si>
+    <t>kishore</t>
+  </si>
+  <si>
+    <t>01/04/1996</t>
+  </si>
+  <si>
+    <t>35 Mall Road</t>
+  </si>
+  <si>
+    <t>110044</t>
+  </si>
+  <si>
+    <t>01123459888</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>CAN_025935</t>
+  </si>
+  <si>
+    <t>prema</t>
+  </si>
+  <si>
+    <t>01/04/1993</t>
+  </si>
+  <si>
+    <t>32 Mall Road</t>
+  </si>
+  <si>
+    <t>110041</t>
+  </si>
+  <si>
+    <t>01123459885</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>CAN_025932</t>
+  </si>
+  <si>
+    <t>sheetal</t>
+  </si>
+  <si>
+    <t>CAN_025937</t>
+  </si>
+  <si>
     <t>Completed</t>
-  </si>
-  <si>
-    <t>xyz</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>27/11/2018</t>
-  </si>
-  <si>
-    <t>27/11/2009</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>Monthly</t>
-  </si>
-  <si>
-    <t>Self Employed</t>
-  </si>
-  <si>
-    <t>Professor</t>
-  </si>
-  <si>
-    <t>Mr Harry</t>
-  </si>
-  <si>
-    <t>Mr Larry</t>
-  </si>
-  <si>
-    <t>Government</t>
-  </si>
-  <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>Mr</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>27/10/1991</t>
-  </si>
-  <si>
-    <t>Mr James</t>
-  </si>
-  <si>
-    <t>Mrs Ema</t>
-  </si>
-  <si>
-    <t>Mr Paul</t>
-  </si>
-  <si>
-    <t>Graduate</t>
-  </si>
-  <si>
-    <t>CAN_023465</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -580,6 +878,28 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="9">
@@ -688,9 +1008,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -748,8 +1069,19 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1091,992 +1423,2637 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMG5"/>
+  <dimension ref="A1:AMG19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BU1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="CE5" sqref="CE5"/>
+    <sheetView tabSelected="1" topLeftCell="AK4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AY5" sqref="AY5:AY19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="9" width="11" style="1" customWidth="1"/>
-    <col min="10" max="11" width="8.85546875" style="1" customWidth="1"/>
+    <col min="10" max="11" width="8.81640625" style="1" customWidth="1"/>
     <col min="12" max="22" width="11" style="1" customWidth="1"/>
-    <col min="23" max="23" width="8.85546875" style="1" customWidth="1"/>
-    <col min="24" max="1021" width="11" style="1" customWidth="1"/>
+    <col min="23" max="23" width="8.81640625" style="1" customWidth="1"/>
+    <col min="24" max="27" width="11" style="1" customWidth="1"/>
+    <col min="28" max="28" width="11" style="2" customWidth="1"/>
+    <col min="29" max="1021" width="11" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:89" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:89" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="3"/>
-      <c r="AI1" s="3"/>
-      <c r="AJ1" s="4" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="3"/>
+      <c r="AF1" s="3"/>
+      <c r="AG1" s="3"/>
+      <c r="AH1" s="4"/>
+      <c r="AI1" s="4"/>
+      <c r="AJ1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="AK1" s="5"/>
-      <c r="AL1" s="5"/>
-      <c r="AM1" s="5"/>
-      <c r="AN1" s="6"/>
-      <c r="AO1" s="6"/>
-      <c r="AP1" s="5"/>
-      <c r="AQ1" s="5"/>
-      <c r="AR1" s="5"/>
-      <c r="AS1" s="5"/>
-      <c r="AT1" s="5"/>
-      <c r="AU1" s="5"/>
-      <c r="AV1" s="5"/>
-      <c r="AW1" s="7"/>
-      <c r="AX1" s="8" t="s">
+      <c r="AK1" s="6"/>
+      <c r="AL1" s="6"/>
+      <c r="AM1" s="6"/>
+      <c r="AN1" s="7"/>
+      <c r="AO1" s="7"/>
+      <c r="AP1" s="6"/>
+      <c r="AQ1" s="6"/>
+      <c r="AR1" s="6"/>
+      <c r="AS1" s="6"/>
+      <c r="AT1" s="6"/>
+      <c r="AU1" s="6"/>
+      <c r="AV1" s="6"/>
+      <c r="AW1" s="8"/>
+      <c r="AX1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="AY1" s="9"/>
-      <c r="AZ1" s="10" t="s">
+      <c r="AY1" s="10"/>
+      <c r="AZ1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="BA1" s="11"/>
-      <c r="BB1" s="11"/>
-      <c r="BC1" s="11"/>
-      <c r="BD1" s="11"/>
-      <c r="BE1" s="11"/>
-      <c r="BF1" s="12" t="s">
+      <c r="BA1" s="12"/>
+      <c r="BB1" s="12"/>
+      <c r="BC1" s="12"/>
+      <c r="BD1" s="12"/>
+      <c r="BE1" s="12"/>
+      <c r="BF1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="BG1" s="13"/>
-      <c r="BH1" s="13"/>
-      <c r="BI1" s="13"/>
-      <c r="BJ1" s="13"/>
-      <c r="BK1" s="14" t="s">
+      <c r="BG1" s="14"/>
+      <c r="BH1" s="14"/>
+      <c r="BI1" s="14"/>
+      <c r="BJ1" s="14"/>
+      <c r="BK1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="BL1" s="15"/>
-      <c r="BM1" s="15"/>
-      <c r="BN1" s="15"/>
-      <c r="BO1" s="15"/>
-      <c r="BP1" s="15"/>
-      <c r="BQ1" s="15"/>
-      <c r="BR1" s="15"/>
-      <c r="BS1" s="15"/>
-      <c r="BT1" s="15"/>
-      <c r="BU1" s="15"/>
-      <c r="BV1" s="15"/>
-      <c r="BW1" s="15"/>
-      <c r="BX1" s="15"/>
-      <c r="BY1" s="15"/>
-      <c r="BZ1" s="15"/>
-      <c r="CA1" s="15"/>
-      <c r="CB1" s="15"/>
-      <c r="CC1" s="15"/>
-      <c r="CD1" s="15"/>
-      <c r="CE1" s="15"/>
-      <c r="CF1" s="16"/>
-      <c r="CG1" s="16"/>
-      <c r="CH1" s="16"/>
-      <c r="CI1" s="16"/>
-      <c r="CJ1" s="16"/>
-      <c r="CK1" s="16"/>
+      <c r="BL1" s="16"/>
+      <c r="BM1" s="16"/>
+      <c r="BN1" s="16"/>
+      <c r="BO1" s="16"/>
+      <c r="BP1" s="16"/>
+      <c r="BQ1" s="16"/>
+      <c r="BR1" s="16"/>
+      <c r="BS1" s="16"/>
+      <c r="BT1" s="16"/>
+      <c r="BU1" s="16"/>
+      <c r="BV1" s="16"/>
+      <c r="BW1" s="16"/>
+      <c r="BX1" s="16"/>
+      <c r="BY1" s="16"/>
+      <c r="BZ1" s="16"/>
+      <c r="CA1" s="16"/>
+      <c r="CB1" s="16"/>
+      <c r="CC1" s="16"/>
+      <c r="CD1" s="16"/>
+      <c r="CE1" s="16"/>
+      <c r="CF1" s="17"/>
+      <c r="CG1" s="17"/>
+      <c r="CH1" s="17"/>
+      <c r="CI1" s="17"/>
+      <c r="CJ1" s="17"/>
+      <c r="CK1" s="17"/>
     </row>
-    <row r="2" spans="1:89" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="17">
+    <row r="2" spans="1:89" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="18">
         <v>1</v>
       </c>
-      <c r="B2" s="17">
+      <c r="B2" s="18">
         <v>2</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="18">
         <v>4</v>
       </c>
-      <c r="D2" s="17">
+      <c r="D2" s="18">
         <v>5</v>
       </c>
-      <c r="E2" s="17">
+      <c r="E2" s="18">
         <v>6</v>
       </c>
-      <c r="F2" s="17">
+      <c r="F2" s="18">
         <v>7</v>
       </c>
-      <c r="G2" s="17">
+      <c r="G2" s="18">
         <v>8</v>
       </c>
-      <c r="H2" s="17">
+      <c r="H2" s="18">
         <v>9</v>
       </c>
-      <c r="I2" s="17">
+      <c r="I2" s="18">
         <v>10</v>
       </c>
-      <c r="J2" s="17">
+      <c r="J2" s="18">
         <v>14</v>
       </c>
-      <c r="K2" s="17">
+      <c r="K2" s="18">
         <v>15</v>
       </c>
-      <c r="L2" s="17">
+      <c r="L2" s="18">
         <v>16</v>
       </c>
-      <c r="M2" s="17">
+      <c r="M2" s="18">
         <v>17</v>
       </c>
-      <c r="N2" s="17">
+      <c r="N2" s="18">
         <v>18</v>
       </c>
-      <c r="O2" s="17">
+      <c r="O2" s="18">
         <v>19</v>
       </c>
-      <c r="P2" s="17">
+      <c r="P2" s="18">
         <v>20</v>
       </c>
-      <c r="Q2" s="17">
+      <c r="Q2" s="18">
         <v>21</v>
       </c>
-      <c r="R2" s="17">
+      <c r="R2" s="18">
         <v>22</v>
       </c>
-      <c r="S2" s="17">
+      <c r="S2" s="18">
         <v>23</v>
       </c>
-      <c r="T2" s="17">
+      <c r="T2" s="18">
         <v>24</v>
       </c>
-      <c r="U2" s="17">
+      <c r="U2" s="18">
         <v>25</v>
       </c>
-      <c r="V2" s="17">
+      <c r="V2" s="18">
         <v>26</v>
       </c>
-      <c r="W2" s="17">
+      <c r="W2" s="18">
         <v>28</v>
       </c>
-      <c r="X2" s="17">
+      <c r="X2" s="18">
         <v>27</v>
       </c>
-      <c r="Y2" s="17">
+      <c r="Y2" s="18">
         <v>29</v>
       </c>
-      <c r="Z2" s="17">
+      <c r="Z2" s="18">
         <v>30</v>
       </c>
-      <c r="AA2" s="17">
+      <c r="AA2" s="18">
         <v>31</v>
       </c>
-      <c r="AB2" s="17">
+      <c r="AB2" s="18">
         <v>32</v>
       </c>
-      <c r="AC2" s="17">
+      <c r="AC2" s="18">
         <v>33</v>
       </c>
-      <c r="AD2" s="17">
+      <c r="AD2" s="18">
         <v>34</v>
       </c>
-      <c r="AE2" s="17">
+      <c r="AE2" s="18">
         <v>35</v>
       </c>
-      <c r="AF2" s="17">
+      <c r="AF2" s="18">
         <v>36</v>
       </c>
-      <c r="AG2" s="17">
+      <c r="AG2" s="18">
         <v>37</v>
       </c>
-      <c r="AH2" s="17">
+      <c r="AH2" s="18">
         <v>38</v>
       </c>
-      <c r="AI2" s="17">
+      <c r="AI2" s="18">
         <v>39</v>
       </c>
-      <c r="AJ2" s="5">
+      <c r="AJ2" s="6">
         <v>1</v>
       </c>
-      <c r="AK2" s="5">
+      <c r="AK2" s="6">
         <v>2</v>
       </c>
-      <c r="AL2" s="5">
+      <c r="AL2" s="6">
         <v>3</v>
       </c>
-      <c r="AM2" s="5">
+      <c r="AM2" s="6">
         <v>4</v>
       </c>
-      <c r="AN2" s="5">
+      <c r="AN2" s="6">
         <v>5</v>
       </c>
-      <c r="AO2" s="5">
+      <c r="AO2" s="6">
         <v>6</v>
       </c>
-      <c r="AP2" s="5">
+      <c r="AP2" s="6">
         <v>7</v>
       </c>
-      <c r="AQ2" s="5">
+      <c r="AQ2" s="6">
         <v>8</v>
       </c>
-      <c r="AR2" s="5">
+      <c r="AR2" s="6">
         <v>9</v>
       </c>
-      <c r="AS2" s="5">
+      <c r="AS2" s="6">
         <v>10</v>
       </c>
-      <c r="AT2" s="5">
+      <c r="AT2" s="6">
         <v>11</v>
       </c>
-      <c r="AU2" s="5">
+      <c r="AU2" s="6">
         <v>12</v>
       </c>
-      <c r="AV2" s="5">
+      <c r="AV2" s="6">
         <v>13</v>
       </c>
-      <c r="AW2" s="7">
+      <c r="AW2" s="8">
         <v>14</v>
       </c>
-      <c r="AX2" s="18" t="s">
+      <c r="AX2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="AY2" s="18">
+      <c r="AY2" s="19">
         <v>2</v>
       </c>
-      <c r="AZ2" s="11" t="s">
+      <c r="AZ2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="BA2" s="11" t="s">
+      <c r="BA2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="BB2" s="11" t="s">
+      <c r="BB2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="BC2" s="11" t="s">
+      <c r="BC2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="BD2" s="11" t="s">
+      <c r="BD2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="BE2" s="11" t="s">
+      <c r="BE2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="BF2" s="13" t="s">
+      <c r="BF2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="BG2" s="13" t="s">
+      <c r="BG2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="BH2" s="13">
+      <c r="BH2" s="14">
         <v>3</v>
       </c>
-      <c r="BI2" s="13" t="s">
+      <c r="BI2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="BJ2" s="13" t="s">
+      <c r="BJ2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="BK2" s="15" t="s">
+      <c r="BK2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="BL2" s="15" t="s">
+      <c r="BL2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="BM2" s="15" t="s">
+      <c r="BM2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="BN2" s="15" t="s">
+      <c r="BN2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="BO2" s="15" t="s">
+      <c r="BO2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="BP2" s="15" t="s">
+      <c r="BP2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="BQ2" s="15" t="s">
+      <c r="BQ2" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="BR2" s="15" t="s">
+      <c r="BR2" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="BS2" s="15" t="s">
+      <c r="BS2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="BT2" s="15" t="s">
+      <c r="BT2" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="BU2" s="15" t="s">
+      <c r="BU2" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="BV2" s="15" t="s">
+      <c r="BV2" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="BW2" s="15" t="s">
+      <c r="BW2" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="BX2" s="15" t="s">
+      <c r="BX2" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="BY2" s="15" t="s">
+      <c r="BY2" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="BZ2" s="15" t="s">
+      <c r="BZ2" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="CA2" s="15" t="s">
+      <c r="CA2" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="CB2" s="15" t="s">
+      <c r="CB2" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="CC2" s="15" t="s">
+      <c r="CC2" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="CD2" s="15" t="s">
+      <c r="CD2" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="CE2" s="15" t="s">
+      <c r="CE2" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="CF2" s="16" t="s">
+      <c r="CF2" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="CG2" s="16" t="s">
+      <c r="CG2" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="CH2" s="16" t="s">
+      <c r="CH2" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="CI2" s="16" t="s">
+      <c r="CI2" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="CJ2" s="16" t="s">
+      <c r="CJ2" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="CK2" s="16" t="s">
+      <c r="CK2" s="17" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:89" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
+    <row r="3" spans="1:89" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="J3" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="K3" s="19" t="s">
+      <c r="K3" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="L3" s="19" t="s">
+      <c r="L3" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="M3" s="19" t="s">
+      <c r="M3" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="N3" s="19" t="s">
+      <c r="N3" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="O3" s="19" t="s">
+      <c r="O3" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="P3" s="19" t="s">
+      <c r="P3" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="Q3" s="19" t="s">
+      <c r="Q3" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="R3" s="19" t="s">
+      <c r="R3" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="S3" s="19" t="s">
+      <c r="S3" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="T3" s="19" t="s">
+      <c r="T3" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="U3" s="19" t="s">
+      <c r="U3" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="V3" s="19" t="s">
+      <c r="V3" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="W3" s="19" t="s">
+      <c r="W3" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="X3" s="19" t="s">
+      <c r="X3" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="Y3" s="19" t="s">
+      <c r="Y3" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="Z3" s="19" t="s">
+      <c r="Z3" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="AA3" s="19" t="s">
+      <c r="AA3" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="AB3" s="19" t="s">
+      <c r="AB3" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="AC3" s="19" t="s">
+      <c r="AC3" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="AD3" s="19" t="s">
+      <c r="AD3" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="AE3" s="19" t="s">
+      <c r="AE3" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="AF3" s="19" t="s">
+      <c r="AF3" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="AG3" s="19" t="s">
+      <c r="AG3" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="AH3" s="19" t="s">
+      <c r="AH3" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="AI3" s="19" t="s">
+      <c r="AI3" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="AJ3" s="19" t="s">
+      <c r="AJ3" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="AK3" s="19" t="s">
+      <c r="AK3" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="AL3" s="19" t="s">
+      <c r="AL3" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="AM3" s="19" t="s">
+      <c r="AM3" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="AN3" s="19" t="s">
+      <c r="AN3" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="AO3" s="19" t="s">
+      <c r="AO3" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="AP3" s="19" t="s">
+      <c r="AP3" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="AQ3" s="19" t="s">
+      <c r="AQ3" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="AR3" s="19" t="s">
+      <c r="AR3" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="AS3" s="19" t="s">
+      <c r="AS3" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="AT3" s="19" t="s">
+      <c r="AT3" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="AU3" s="19" t="s">
+      <c r="AU3" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="AV3" s="19" t="s">
+      <c r="AV3" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="AW3" s="19" t="s">
+      <c r="AW3" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="AX3" s="19" t="s">
+      <c r="AX3" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="AY3" s="19" t="s">
+      <c r="AY3" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="AZ3" s="19" t="s">
+      <c r="AZ3" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="BA3" s="19" t="s">
+      <c r="BA3" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="BB3" s="19" t="s">
+      <c r="BB3" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="BC3" s="19" t="s">
+      <c r="BC3" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="BD3" s="19" t="s">
+      <c r="BD3" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="BE3" s="19" t="s">
+      <c r="BE3" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="BF3" s="19" t="s">
+      <c r="BF3" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="BG3" s="19" t="s">
+      <c r="BG3" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="BH3" s="19" t="s">
+      <c r="BH3" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="BI3" s="19" t="s">
+      <c r="BI3" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="BJ3" s="19" t="s">
+      <c r="BJ3" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="BK3" s="19" t="s">
+      <c r="BK3" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="BL3" s="19" t="s">
+      <c r="BL3" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="BM3" s="19" t="s">
+      <c r="BM3" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="BN3" s="19" t="s">
+      <c r="BN3" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="BO3" s="19" t="s">
+      <c r="BO3" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="BP3" s="19" t="s">
+      <c r="BP3" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="BQ3" s="19" t="s">
+      <c r="BQ3" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="BR3" s="19" t="s">
+      <c r="BR3" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="BS3" s="19" t="s">
+      <c r="BS3" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="BT3" s="19" t="s">
+      <c r="BT3" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="BU3" s="19" t="s">
+      <c r="BU3" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="BV3" s="19" t="s">
+      <c r="BV3" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="BW3" s="19" t="s">
+      <c r="BW3" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="BX3" s="19" t="s">
+      <c r="BX3" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="BY3" s="19" t="s">
+      <c r="BY3" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="BZ3" s="19" t="s">
+      <c r="BZ3" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="CA3" s="19" t="s">
+      <c r="CA3" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="CB3" s="19" t="s">
+      <c r="CB3" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="CC3" s="19" t="s">
+      <c r="CC3" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="CD3" s="19" t="s">
+      <c r="CD3" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="CE3" s="19" t="s">
+      <c r="CE3" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="CF3" s="20" t="s">
+      <c r="CF3" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="CG3" s="20" t="s">
+      <c r="CG3" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="CH3" s="20" t="s">
+      <c r="CH3" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="CI3" s="20" t="s">
+      <c r="CI3" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="CJ3" s="20" t="s">
+      <c r="CJ3" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="CK3" s="20" t="s">
+      <c r="CK3" s="21" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="4" spans="1:89" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
+    <row r="4" spans="1:89" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="D4" s="19" t="s">
+      <c r="B4" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19" t="s">
+      <c r="D4" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19" t="s">
+      <c r="E4" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="F4" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="G4" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="I4" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="J4" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="L4" s="19" t="s">
+      <c r="K4" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19" t="s">
+      <c r="L4" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="19"/>
-      <c r="W4" s="19"/>
-      <c r="X4" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="Y4" s="19"/>
-      <c r="Z4" s="19"/>
-      <c r="AA4" s="19" t="s">
+      <c r="M4" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="N4" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="O4" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="P4" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q4" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="AB4" s="19" t="s">
+      <c r="R4" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="S4" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="T4" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="U4" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="V4" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="W4" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="X4" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y4" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z4" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA4" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="AC4" s="21" t="s">
+      <c r="AB4" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="AD4" s="19" t="s">
+      <c r="AC4" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="AE4" s="19" t="s">
+      <c r="AD4" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="AF4" s="19"/>
-      <c r="AG4" s="19"/>
-      <c r="AH4" s="19"/>
-      <c r="AI4" s="19"/>
-      <c r="AJ4" s="19"/>
-      <c r="AK4" s="19"/>
-      <c r="AL4" s="19"/>
-      <c r="AM4" s="19"/>
-      <c r="AN4" s="19"/>
-      <c r="AO4" s="19"/>
-      <c r="AP4" s="19"/>
-      <c r="AQ4" s="19"/>
-      <c r="AR4" s="19"/>
-      <c r="AS4" s="19"/>
-      <c r="AT4" s="19"/>
-      <c r="AU4" s="19"/>
-      <c r="AV4" s="19"/>
-      <c r="AW4" s="19"/>
-      <c r="AX4" s="19" t="s">
+      <c r="AE4" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="AY4" s="19" t="s">
+      <c r="AF4" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="AG4" s="23"/>
+      <c r="AH4" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI4" s="20"/>
+      <c r="AJ4" s="20"/>
+      <c r="AK4" s="20"/>
+      <c r="AL4" s="20"/>
+      <c r="AM4" s="20"/>
+      <c r="AN4" s="20"/>
+      <c r="AO4" s="20"/>
+      <c r="AP4" s="20"/>
+      <c r="AQ4" s="20"/>
+      <c r="AR4" s="20"/>
+      <c r="AS4" s="20"/>
+      <c r="AT4" s="20"/>
+      <c r="AU4" s="20"/>
+      <c r="AV4" s="20"/>
+      <c r="AW4" s="20"/>
+      <c r="AX4" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="AZ4" s="19"/>
-      <c r="BA4" s="19"/>
-      <c r="BB4" s="19"/>
-      <c r="BC4" s="19"/>
-      <c r="BD4" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="BE4" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="BF4" s="19"/>
-      <c r="BG4" s="19" t="s">
+      <c r="AY4" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="BH4" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="BI4" s="19"/>
-      <c r="BJ4" s="19"/>
-      <c r="BK4" s="19"/>
-      <c r="BL4" s="19"/>
-      <c r="BM4" s="19"/>
-      <c r="BN4" s="19"/>
-      <c r="BO4" s="19"/>
-      <c r="BP4" s="19"/>
-      <c r="BQ4" s="19"/>
-      <c r="BR4" s="19"/>
-      <c r="BS4" s="19"/>
-      <c r="BT4" s="19"/>
-      <c r="BU4" s="19"/>
-      <c r="BV4" s="19"/>
-      <c r="BW4" s="19"/>
-      <c r="BX4" s="19"/>
-      <c r="BY4" s="19"/>
-      <c r="BZ4" s="19"/>
-      <c r="CA4" s="19"/>
-      <c r="CB4" s="19" t="s">
+      <c r="AZ4" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="BA4" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="BB4" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="BC4" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="BD4" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="BE4" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="BF4" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="BG4" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="CC4" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="CD4" s="19"/>
-      <c r="CE4" s="19"/>
-      <c r="CF4" s="22"/>
-      <c r="CG4" s="22"/>
-      <c r="CH4" s="22"/>
-      <c r="CI4" s="22"/>
-      <c r="CJ4" s="22"/>
-      <c r="CK4" s="22"/>
+      <c r="BH4" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="BI4" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="BJ4" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="BK4" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="BL4" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="BM4" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="BN4" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="BO4" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="BP4" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="BQ4" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="BR4" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="BS4" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="BT4" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="BU4" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="BV4" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="BW4" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="BX4" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="BY4" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="BZ4" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="CA4" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="CB4" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="CC4" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="CD4" s="20"/>
+      <c r="CE4" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="CF4" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="CG4" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="CH4" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="CI4" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="CJ4" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="CK4" s="26" t="s">
+        <v>123</v>
+      </c>
     </row>
-    <row r="5" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF5" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="AG5" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="AH5" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="AI5" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="Z5" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="AD5" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="AE5" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="AF5" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="AH5" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="AX5" s="1" t="s">
-        <v>149</v>
+        <v>267</v>
       </c>
       <c r="AY5" s="1">
         <v>100</v>
       </c>
-      <c r="BD5" s="1">
+      <c r="CE5" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="6" spans="1:89" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG6" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AH6" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AI6" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="AX6" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="AY6" s="1">
         <v>100</v>
       </c>
-      <c r="BE5" s="1">
+      <c r="CE6" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:89" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>179</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE7" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="AF7" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG7" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AH7" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AI7" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="AX7" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="AY7" s="1">
         <v>100</v>
       </c>
-      <c r="BF5" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="BG5" s="1" t="s">
+      <c r="CE7" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="8" spans="1:89" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="BH5" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="BJ5" s="1">
-        <v>5</v>
-      </c>
-      <c r="BK5" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="BL5" s="1" t="s">
+      <c r="M8" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="S8" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="BM5" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="BN5" s="1" t="s">
+      <c r="T8" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>186</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE8" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AF8" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG8" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AH8" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AI8" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="AX8" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="AY8" s="1">
+        <v>100</v>
+      </c>
+      <c r="CE8" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="9" spans="1:89" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="BO5" s="1" t="s">
+      <c r="L9" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>193</v>
+      </c>
+      <c r="AC9" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE9" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="AF9" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG9" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AH9" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AI9" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="AX9" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="AY9" s="1">
+        <v>100</v>
+      </c>
+      <c r="CE9" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="10" spans="1:89" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="BP5" s="1" t="s">
+      <c r="L10" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>200</v>
+      </c>
+      <c r="AC10" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE10" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="AF10" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG10" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AH10" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AI10" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="AX10" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="AY10" s="1">
+        <v>100</v>
+      </c>
+      <c r="CE10" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:89" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="K11" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="BQ5" s="1" t="s">
+      <c r="L11" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="N11" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="BR5" s="1" t="s">
+      <c r="O11" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z11" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA11" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>207</v>
+      </c>
+      <c r="AC11" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="BS5" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="BT5" s="1" t="s">
+      <c r="AD11" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="AE11" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="AF11" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG11" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AH11" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AI11" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="AX11" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="AY11" s="1">
+        <v>100</v>
+      </c>
+      <c r="CE11" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="12" spans="1:89" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA12" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="BU5" s="1">
-        <v>9368644646</v>
-      </c>
-      <c r="BV5" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="BW5" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="BX5" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="BY5" s="1" t="s">
+      <c r="AB12" t="s">
+        <v>215</v>
+      </c>
+      <c r="AC12" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD12" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AE12" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="AF12" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG12" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AH12" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AI12" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="AX12" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="AY12" s="1">
+        <v>100</v>
+      </c>
+      <c r="CE12" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="13" spans="1:89" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="R13" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="BZ5" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="CA5" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="CB5" s="1">
-        <v>10000</v>
-      </c>
-      <c r="CC5" s="1">
-        <v>15000</v>
-      </c>
-      <c r="CD5" s="1">
-        <v>4</v>
-      </c>
-      <c r="CE5" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="CF5" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="CG5" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="CH5" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="CI5" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="CJ5" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="CK5" s="1" t="s">
-        <v>152</v>
+      <c r="S13" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z13" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA13" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>223</v>
+      </c>
+      <c r="AC13" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE13" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="AF13" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG13" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AH13" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AI13" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="AX13" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="AY13" s="1">
+        <v>100</v>
+      </c>
+      <c r="CE13" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="14" spans="1:89" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="X14" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z14" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA14" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>230</v>
+      </c>
+      <c r="AC14" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD14" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AE14" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="AF14" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG14" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AH14" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AI14" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="AX14" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="AY14" s="1">
+        <v>100</v>
+      </c>
+      <c r="CE14" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="15" spans="1:89" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="W15" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="X15" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y15" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z15" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA15" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>238</v>
+      </c>
+      <c r="AC15" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE15" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="AF15" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG15" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AH15" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AI15" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="AX15" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="AY15" s="1">
+        <v>100</v>
+      </c>
+      <c r="CE15" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="16" spans="1:89" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="X16" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y16" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z16" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA16" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>245</v>
+      </c>
+      <c r="AC16" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD16" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="AE16" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="AF16" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG16" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AH16" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AI16" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="AX16" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="AY16" s="1">
+        <v>100</v>
+      </c>
+      <c r="CE16" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="17" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="X17" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y17" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z17" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA17" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>253</v>
+      </c>
+      <c r="AC17" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD17" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="AE17" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="AF17" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG17" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AH17" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AI17" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="AX17" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="AY17" s="1">
+        <v>100</v>
+      </c>
+      <c r="CE17" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="18" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="W18" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="X18" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y18" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z18" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA18" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>261</v>
+      </c>
+      <c r="AC18" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD18" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="AE18" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AF18" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG18" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AH18" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AI18" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="AX18" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="AY18" s="1">
+        <v>100</v>
+      </c>
+      <c r="CE18" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="19" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="W19" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="X19" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y19" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z19" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA19" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>193</v>
+      </c>
+      <c r="AC19" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE19" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="AF19" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG19" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AH19" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AI19" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="AX19" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="AY19" s="1">
+        <v>100</v>
+      </c>
+      <c r="CE19" s="1" t="s">
+        <v>266</v>
       </c>
     </row>
   </sheetData>

--- a/NSDC_Web_Automation/UploadFiles/CandidateEnrollmentList.xlsx
+++ b/NSDC_Web_Automation/UploadFiles/CandidateEnrollmentList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trans\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CA83358-BA71-4D2D-9880-2876E64E2C20}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F016A2F8-4AAC-44EF-A11E-E84AD2E7C6D7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="269">
   <si>
     <t>Common Candidate Details</t>
   </si>
@@ -449,336 +449,360 @@
     <t>Mr</t>
   </si>
   <si>
+    <t>mahesh</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>01/04/2000</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>Single/Unmarried</t>
+  </si>
+  <si>
+    <t>Ganesh</t>
+  </si>
+  <si>
+    <t>Sunaina</t>
+  </si>
+  <si>
+    <t>Golu</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Hindu</t>
+  </si>
+  <si>
+    <t>37 Mall Road</t>
+  </si>
+  <si>
+    <t>New Delhi</t>
+  </si>
+  <si>
+    <t>110046</t>
+  </si>
+  <si>
+    <t>Shahdara</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>8712345345</t>
+  </si>
+  <si>
+    <t>01123459890</t>
+  </si>
+  <si>
+    <t>123456@gmail.com</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Graduate</t>
+  </si>
+  <si>
+    <t>bulkupload</t>
+  </si>
+  <si>
+    <t>Created by Training Partner, TP_001564</t>
+  </si>
+  <si>
+    <t>CAN_021112</t>
+  </si>
+  <si>
+    <t>priya</t>
+  </si>
+  <si>
+    <t>01/04/1988</t>
+  </si>
+  <si>
+    <t>25 Mall Road</t>
+  </si>
+  <si>
+    <t>110034</t>
+  </si>
+  <si>
+    <t>01123459878</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>CAN_021125</t>
+  </si>
+  <si>
+    <t>shashank</t>
+  </si>
+  <si>
+    <t>01/04/1990</t>
+  </si>
+  <si>
+    <t>27 Mall Road</t>
+  </si>
+  <si>
+    <t>110036</t>
+  </si>
+  <si>
+    <t>01123459880</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>CAN_021115</t>
+  </si>
+  <si>
+    <t>sheetal</t>
+  </si>
+  <si>
+    <t>01/04/1989</t>
+  </si>
+  <si>
+    <t>26 Mall Road</t>
+  </si>
+  <si>
+    <t>110035</t>
+  </si>
+  <si>
+    <t>01123459879</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>CAN_021114</t>
+  </si>
+  <si>
+    <t>pampa</t>
+  </si>
+  <si>
+    <t>01/04/1992</t>
+  </si>
+  <si>
+    <t>29 Mall Road</t>
+  </si>
+  <si>
+    <t>110038</t>
+  </si>
+  <si>
+    <t>01123459882</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>CAN_021117</t>
+  </si>
+  <si>
+    <t>kirti</t>
+  </si>
+  <si>
+    <t>01/04/1986</t>
+  </si>
+  <si>
+    <t>23 Mall Road</t>
+  </si>
+  <si>
+    <t>110032</t>
+  </si>
+  <si>
+    <t>01123459876</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>CAN_021113</t>
+  </si>
+  <si>
+    <t>roshni</t>
+  </si>
+  <si>
+    <t>01/04/1991</t>
+  </si>
+  <si>
+    <t>28 Mall Road</t>
+  </si>
+  <si>
+    <t>110037</t>
+  </si>
+  <si>
+    <t>01123459881</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>CAN_021116</t>
+  </si>
+  <si>
+    <t>sameena</t>
+  </si>
+  <si>
+    <t>01/04/1993</t>
+  </si>
+  <si>
+    <t>30 Mall Road</t>
+  </si>
+  <si>
+    <t>110039</t>
+  </si>
+  <si>
+    <t>01123459883</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>CAN_021118</t>
+  </si>
+  <si>
+    <t>leela</t>
+  </si>
+  <si>
+    <t>01/04/1996</t>
+  </si>
+  <si>
+    <t>33 Mall Road</t>
+  </si>
+  <si>
+    <t>110042</t>
+  </si>
+  <si>
+    <t>01123459886</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>CAN_021121</t>
+  </si>
+  <si>
+    <t>preksha</t>
+  </si>
+  <si>
+    <t>01/04/1997</t>
+  </si>
+  <si>
+    <t>34 Mall Road</t>
+  </si>
+  <si>
+    <t>110043</t>
+  </si>
+  <si>
+    <t>01123459887</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>CAN_021122</t>
+  </si>
+  <si>
+    <t>prema</t>
+  </si>
+  <si>
+    <t>01/04/1995</t>
+  </si>
+  <si>
+    <t>32 Mall Road</t>
+  </si>
+  <si>
+    <t>110041</t>
+  </si>
+  <si>
+    <t>01123459885</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>CAN_021120</t>
+  </si>
+  <si>
     <t>Harshit</t>
   </si>
   <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>01/04/1997</t>
-  </si>
-  <si>
-    <t>Delhi</t>
-  </si>
-  <si>
-    <t>Single/Unmarried</t>
-  </si>
-  <si>
-    <t>Ganesh</t>
-  </si>
-  <si>
-    <t>Sunaina</t>
-  </si>
-  <si>
-    <t>Golu</t>
-  </si>
-  <si>
-    <t>General</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Hindu</t>
+    <t>01/04/1999</t>
   </si>
   <si>
     <t>36 Mall Road</t>
   </si>
   <si>
-    <t>New Delhi</t>
-  </si>
-  <si>
     <t>110045</t>
   </si>
   <si>
-    <t>Shahdara</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>8712345345</t>
-  </si>
-  <si>
     <t>01123459889</t>
   </si>
   <si>
-    <t>123456@gmail.com</t>
-  </si>
-  <si>
     <t>34</t>
   </si>
   <si>
     <t>114</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Graduate</t>
-  </si>
-  <si>
-    <t>bulkupload</t>
-  </si>
-  <si>
-    <t>Created by Training Partner, TP_002652</t>
-  </si>
-  <si>
-    <t>CAN_025936</t>
-  </si>
-  <si>
-    <t>mahesh</t>
+    <t>CAN_021124</t>
+  </si>
+  <si>
+    <t>pooja</t>
+  </si>
+  <si>
+    <t>01/04/1994</t>
+  </si>
+  <si>
+    <t>31 Mall Road</t>
+  </si>
+  <si>
+    <t>110040</t>
+  </si>
+  <si>
+    <t>01123459884</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>CAN_021119</t>
+  </si>
+  <si>
+    <t>kishore</t>
   </si>
   <si>
     <t>01/04/1998</t>
   </si>
   <si>
-    <t>37 Mall Road</t>
-  </si>
-  <si>
-    <t>110046</t>
-  </si>
-  <si>
-    <t>01123459890</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>CAN_025923</t>
-  </si>
-  <si>
-    <t>pallavi</t>
-  </si>
-  <si>
-    <t>01/04/1985</t>
-  </si>
-  <si>
-    <t>24 Mall Road</t>
-  </si>
-  <si>
-    <t>110033</t>
-  </si>
-  <si>
-    <t>01123459877</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>CAN_025925</t>
-  </si>
-  <si>
-    <t>priya</t>
-  </si>
-  <si>
-    <t>01/04/1986</t>
-  </si>
-  <si>
-    <t>25 Mall Road</t>
-  </si>
-  <si>
-    <t>110034</t>
-  </si>
-  <si>
-    <t>01123459878</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>CAN_025926</t>
-  </si>
-  <si>
-    <t>kirti</t>
-  </si>
-  <si>
-    <t>01/04/1984</t>
-  </si>
-  <si>
-    <t>23 Mall Road</t>
-  </si>
-  <si>
-    <t>110032</t>
-  </si>
-  <si>
-    <t>01123459876</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>CAN_025924</t>
-  </si>
-  <si>
-    <t>shashank</t>
-  </si>
-  <si>
-    <t>01/04/1988</t>
-  </si>
-  <si>
-    <t>27 Mall Road</t>
-  </si>
-  <si>
-    <t>110036</t>
-  </si>
-  <si>
-    <t>01123459880</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>CAN_025927</t>
-  </si>
-  <si>
-    <t>pooja</t>
-  </si>
-  <si>
-    <t>01/04/1992</t>
-  </si>
-  <si>
-    <t>31 Mall Road</t>
-  </si>
-  <si>
-    <t>110040</t>
-  </si>
-  <si>
-    <t>01123459884</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>CAN_025931</t>
-  </si>
-  <si>
-    <t>leela</t>
-  </si>
-  <si>
-    <t>01/04/1994</t>
-  </si>
-  <si>
-    <t>33 Mall Road</t>
-  </si>
-  <si>
-    <t>110042</t>
-  </si>
-  <si>
-    <t>01123459886</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>CAN_025933</t>
-  </si>
-  <si>
-    <t>pampa</t>
-  </si>
-  <si>
-    <t>01/04/1990</t>
-  </si>
-  <si>
-    <t>29 Mall Road</t>
-  </si>
-  <si>
-    <t>110038</t>
-  </si>
-  <si>
-    <t>01123459882</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>CAN_025929</t>
-  </si>
-  <si>
-    <t>sameena</t>
-  </si>
-  <si>
-    <t>01/04/1991</t>
-  </si>
-  <si>
-    <t>30 Mall Road</t>
-  </si>
-  <si>
-    <t>110039</t>
-  </si>
-  <si>
-    <t>01123459883</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>CAN_025930</t>
-  </si>
-  <si>
-    <t>roshni</t>
-  </si>
-  <si>
-    <t>01/04/1989</t>
-  </si>
-  <si>
-    <t>28 Mall Road</t>
-  </si>
-  <si>
-    <t>110037</t>
-  </si>
-  <si>
-    <t>01123459881</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>CAN_025928</t>
-  </si>
-  <si>
-    <t>preksha</t>
-  </si>
-  <si>
-    <t>01/04/1995</t>
-  </si>
-  <si>
-    <t>34 Mall Road</t>
-  </si>
-  <si>
-    <t>110043</t>
-  </si>
-  <si>
-    <t>01123459887</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>CAN_025934</t>
-  </si>
-  <si>
-    <t>kishore</t>
-  </si>
-  <si>
-    <t>01/04/1996</t>
-  </si>
-  <si>
     <t>35 Mall Road</t>
   </si>
   <si>
@@ -794,37 +818,16 @@
     <t>113</t>
   </si>
   <si>
-    <t>CAN_025935</t>
-  </si>
-  <si>
-    <t>prema</t>
-  </si>
-  <si>
-    <t>01/04/1993</t>
-  </si>
-  <si>
-    <t>32 Mall Road</t>
-  </si>
-  <si>
-    <t>110041</t>
-  </si>
-  <si>
-    <t>01123459885</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>CAN_025932</t>
-  </si>
-  <si>
-    <t>sheetal</t>
-  </si>
-  <si>
-    <t>CAN_025937</t>
+    <t>CAN_021123</t>
+  </si>
+  <si>
+    <t>meena</t>
+  </si>
+  <si>
+    <t>01/04/1983</t>
+  </si>
+  <si>
+    <t>CAN_021126</t>
   </si>
   <si>
     <t>Completed</t>
@@ -1425,7 +1428,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMG19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AL4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AY5" sqref="AY5:AY19"/>
     </sheetView>
   </sheetViews>
@@ -2423,7 +2426,7 @@
         <v>165</v>
       </c>
       <c r="AX5" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AY5" s="1">
         <v>100</v>
@@ -2521,10 +2524,10 @@
         <v>159</v>
       </c>
       <c r="AD6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE6" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="AE6" s="1" t="s">
-        <v>173</v>
       </c>
       <c r="AF6" s="1" t="s">
         <v>162</v>
@@ -2539,13 +2542,13 @@
         <v>165</v>
       </c>
       <c r="AX6" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AY6" s="1">
         <v>100</v>
       </c>
       <c r="CE6" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:89" x14ac:dyDescent="0.25">
@@ -2553,13 +2556,13 @@
         <v>140</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>142</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>144</v>
@@ -2586,7 +2589,7 @@
         <v>151</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>153</v>
@@ -2598,7 +2601,7 @@
         <v>144</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="R7" s="1" t="s">
         <v>155</v>
@@ -2607,7 +2610,7 @@
         <v>156</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="U7" s="1" t="s">
         <v>153</v>
@@ -2616,7 +2619,7 @@
         <v>144</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="X7" s="1" t="s">
         <v>144</v>
@@ -2631,16 +2634,16 @@
         <v>157</v>
       </c>
       <c r="AB7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AC7" s="1" t="s">
         <v>159</v>
       </c>
       <c r="AD7" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AE7" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AF7" s="1" t="s">
         <v>162</v>
@@ -2655,13 +2658,13 @@
         <v>165</v>
       </c>
       <c r="AX7" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AY7" s="1">
         <v>100</v>
       </c>
       <c r="CE7" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:89" x14ac:dyDescent="0.25">
@@ -2669,13 +2672,13 @@
         <v>140</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>142</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>144</v>
@@ -2702,7 +2705,7 @@
         <v>151</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>153</v>
@@ -2714,7 +2717,7 @@
         <v>144</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="R8" s="1" t="s">
         <v>155</v>
@@ -2723,7 +2726,7 @@
         <v>156</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="U8" s="1" t="s">
         <v>153</v>
@@ -2732,7 +2735,7 @@
         <v>144</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="X8" s="1" t="s">
         <v>144</v>
@@ -2747,16 +2750,16 @@
         <v>157</v>
       </c>
       <c r="AB8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AC8" s="1" t="s">
         <v>159</v>
       </c>
       <c r="AD8" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE8" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AF8" s="1" t="s">
         <v>162</v>
@@ -2771,13 +2774,13 @@
         <v>165</v>
       </c>
       <c r="AX8" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AY8" s="1">
         <v>100</v>
       </c>
       <c r="CE8" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:89" x14ac:dyDescent="0.25">
@@ -2785,13 +2788,13 @@
         <v>140</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>142</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>144</v>
@@ -2818,7 +2821,7 @@
         <v>151</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>153</v>
@@ -2830,7 +2833,7 @@
         <v>144</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="R9" s="1" t="s">
         <v>155</v>
@@ -2839,7 +2842,7 @@
         <v>156</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="U9" s="1" t="s">
         <v>153</v>
@@ -2848,7 +2851,7 @@
         <v>144</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="X9" s="1" t="s">
         <v>144</v>
@@ -2863,16 +2866,16 @@
         <v>157</v>
       </c>
       <c r="AB9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AC9" s="1" t="s">
         <v>159</v>
       </c>
       <c r="AD9" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="AE9" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AF9" s="1" t="s">
         <v>162</v>
@@ -2887,13 +2890,13 @@
         <v>165</v>
       </c>
       <c r="AX9" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AY9" s="1">
         <v>100</v>
       </c>
       <c r="CE9" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:89" x14ac:dyDescent="0.25">
@@ -2901,13 +2904,13 @@
         <v>140</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>142</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>144</v>
@@ -2934,7 +2937,7 @@
         <v>151</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>153</v>
@@ -2946,7 +2949,7 @@
         <v>144</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="R10" s="1" t="s">
         <v>155</v>
@@ -2955,7 +2958,7 @@
         <v>156</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="U10" s="1" t="s">
         <v>153</v>
@@ -2964,7 +2967,7 @@
         <v>144</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X10" s="1" t="s">
         <v>144</v>
@@ -2979,16 +2982,16 @@
         <v>157</v>
       </c>
       <c r="AB10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AC10" s="1" t="s">
         <v>159</v>
       </c>
       <c r="AD10" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AE10" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AF10" s="1" t="s">
         <v>162</v>
@@ -3003,13 +3006,13 @@
         <v>165</v>
       </c>
       <c r="AX10" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AY10" s="1">
         <v>100</v>
       </c>
       <c r="CE10" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:89" x14ac:dyDescent="0.25">
@@ -3017,13 +3020,13 @@
         <v>140</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>142</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>144</v>
@@ -3050,7 +3053,7 @@
         <v>151</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>153</v>
@@ -3062,7 +3065,7 @@
         <v>144</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="R11" s="1" t="s">
         <v>155</v>
@@ -3071,7 +3074,7 @@
         <v>156</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U11" s="1" t="s">
         <v>153</v>
@@ -3080,7 +3083,7 @@
         <v>144</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="X11" s="1" t="s">
         <v>144</v>
@@ -3095,16 +3098,16 @@
         <v>157</v>
       </c>
       <c r="AB11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AC11" s="1" t="s">
         <v>159</v>
       </c>
       <c r="AD11" s="1" t="s">
-        <v>208</v>
+        <v>31</v>
       </c>
       <c r="AE11" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AF11" s="1" t="s">
         <v>162</v>
@@ -3119,13 +3122,13 @@
         <v>165</v>
       </c>
       <c r="AX11" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AY11" s="1">
         <v>100</v>
       </c>
       <c r="CE11" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:89" x14ac:dyDescent="0.25">
@@ -3133,13 +3136,13 @@
         <v>140</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>142</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>144</v>
@@ -3166,7 +3169,7 @@
         <v>151</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>153</v>
@@ -3178,7 +3181,7 @@
         <v>144</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="R12" s="1" t="s">
         <v>155</v>
@@ -3187,7 +3190,7 @@
         <v>156</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="U12" s="1" t="s">
         <v>153</v>
@@ -3196,7 +3199,7 @@
         <v>144</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="X12" s="1" t="s">
         <v>144</v>
@@ -3211,16 +3214,16 @@
         <v>157</v>
       </c>
       <c r="AB12" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AC12" s="1" t="s">
         <v>159</v>
       </c>
       <c r="AD12" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AE12" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AF12" s="1" t="s">
         <v>162</v>
@@ -3235,13 +3238,13 @@
         <v>165</v>
       </c>
       <c r="AX12" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AY12" s="1">
         <v>100</v>
       </c>
       <c r="CE12" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="13" spans="1:89" x14ac:dyDescent="0.25">
@@ -3249,13 +3252,13 @@
         <v>140</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>142</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>144</v>
@@ -3282,7 +3285,7 @@
         <v>151</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>153</v>
@@ -3294,7 +3297,7 @@
         <v>144</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="R13" s="1" t="s">
         <v>155</v>
@@ -3303,7 +3306,7 @@
         <v>156</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="U13" s="1" t="s">
         <v>153</v>
@@ -3312,7 +3315,7 @@
         <v>144</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="X13" s="1" t="s">
         <v>144</v>
@@ -3327,16 +3330,16 @@
         <v>157</v>
       </c>
       <c r="AB13" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AC13" s="1" t="s">
         <v>159</v>
       </c>
       <c r="AD13" s="1" t="s">
-        <v>32</v>
+        <v>222</v>
       </c>
       <c r="AE13" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AF13" s="1" t="s">
         <v>162</v>
@@ -3351,13 +3354,13 @@
         <v>165</v>
       </c>
       <c r="AX13" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AY13" s="1">
         <v>100</v>
       </c>
       <c r="CE13" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:89" x14ac:dyDescent="0.25">
@@ -3365,13 +3368,13 @@
         <v>140</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>142</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>144</v>
@@ -3398,7 +3401,7 @@
         <v>151</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>153</v>
@@ -3410,7 +3413,7 @@
         <v>144</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="R14" s="1" t="s">
         <v>155</v>
@@ -3419,7 +3422,7 @@
         <v>156</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="U14" s="1" t="s">
         <v>153</v>
@@ -3428,7 +3431,7 @@
         <v>144</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="X14" s="1" t="s">
         <v>144</v>
@@ -3443,16 +3446,16 @@
         <v>157</v>
       </c>
       <c r="AB14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AC14" s="1" t="s">
         <v>159</v>
       </c>
       <c r="AD14" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="AE14" s="1" t="s">
         <v>231</v>
-      </c>
-      <c r="AE14" s="1" t="s">
-        <v>232</v>
       </c>
       <c r="AF14" s="1" t="s">
         <v>162</v>
@@ -3467,13 +3470,13 @@
         <v>165</v>
       </c>
       <c r="AX14" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AY14" s="1">
         <v>100</v>
       </c>
       <c r="CE14" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:89" x14ac:dyDescent="0.25">
@@ -3481,13 +3484,13 @@
         <v>140</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>142</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>144</v>
@@ -3514,7 +3517,7 @@
         <v>151</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="N15" s="1" t="s">
         <v>153</v>
@@ -3526,7 +3529,7 @@
         <v>144</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="R15" s="1" t="s">
         <v>155</v>
@@ -3535,7 +3538,7 @@
         <v>156</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="U15" s="1" t="s">
         <v>153</v>
@@ -3544,7 +3547,7 @@
         <v>144</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="X15" s="1" t="s">
         <v>144</v>
@@ -3559,13 +3562,13 @@
         <v>157</v>
       </c>
       <c r="AB15" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AC15" s="1" t="s">
         <v>159</v>
       </c>
       <c r="AD15" s="1" t="s">
-        <v>31</v>
+        <v>238</v>
       </c>
       <c r="AE15" s="1" t="s">
         <v>239</v>
@@ -3583,7 +3586,7 @@
         <v>165</v>
       </c>
       <c r="AX15" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AY15" s="1">
         <v>100</v>
@@ -3699,7 +3702,7 @@
         <v>165</v>
       </c>
       <c r="AX16" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AY16" s="1">
         <v>100</v>
@@ -3815,7 +3818,7 @@
         <v>165</v>
       </c>
       <c r="AX17" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AY17" s="1">
         <v>100</v>
@@ -3931,7 +3934,7 @@
         <v>165</v>
       </c>
       <c r="AX18" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AY18" s="1">
         <v>100</v>
@@ -3951,7 +3954,7 @@
         <v>142</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>190</v>
+        <v>266</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>144</v>
@@ -3978,7 +3981,7 @@
         <v>151</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="N19" s="1" t="s">
         <v>153</v>
@@ -3990,7 +3993,7 @@
         <v>144</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="R19" s="1" t="s">
         <v>155</v>
@@ -3999,7 +4002,7 @@
         <v>156</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="U19" s="1" t="s">
         <v>153</v>
@@ -4008,7 +4011,7 @@
         <v>144</v>
       </c>
       <c r="W19" s="1" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="X19" s="1" t="s">
         <v>144</v>
@@ -4023,7 +4026,7 @@
         <v>157</v>
       </c>
       <c r="AB19" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="AC19" s="1" t="s">
         <v>159</v>
@@ -4032,7 +4035,7 @@
         <v>26</v>
       </c>
       <c r="AE19" s="1" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="AF19" s="1" t="s">
         <v>162</v>
@@ -4047,13 +4050,13 @@
         <v>165</v>
       </c>
       <c r="AX19" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AY19" s="1">
         <v>100</v>
       </c>
       <c r="CE19" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>

--- a/NSDC_Web_Automation/UploadFiles/CandidateEnrollmentList.xlsx
+++ b/NSDC_Web_Automation/UploadFiles/CandidateEnrollmentList.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trans\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trans\OneDrive\Documents\Repository\NSDC_Web_Automation\nsdcregressiontesting\NSDC_Web_Automation\UploadFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F016A2F8-4AAC-44EF-A11E-E84AD2E7C6D7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{FFAE40E9-300A-4592-B4A6-D949705DEBB9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{4DEEB702-6E39-49F4-B6B9-825DE3C7DF59}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,11 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="268">
   <si>
     <t>Common Candidate Details</t>
   </si>
@@ -449,385 +448,382 @@
     <t>Mr</t>
   </si>
   <si>
+    <t>Harshit</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>01/04/1997</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>Single/Unmarried</t>
+  </si>
+  <si>
+    <t>Ganesh</t>
+  </si>
+  <si>
+    <t>Sunaina</t>
+  </si>
+  <si>
+    <t>Golu</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Hindu</t>
+  </si>
+  <si>
+    <t>36 Mall Road</t>
+  </si>
+  <si>
+    <t>New Delhi</t>
+  </si>
+  <si>
+    <t>110045</t>
+  </si>
+  <si>
+    <t>Shahdara</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>8712345345</t>
+  </si>
+  <si>
+    <t>01123459889</t>
+  </si>
+  <si>
+    <t>123456@gmail.com</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Graduate</t>
+  </si>
+  <si>
+    <t>bulkupload</t>
+  </si>
+  <si>
+    <t>Created by Training Partner, TP_002652</t>
+  </si>
+  <si>
+    <t>CAN_025936</t>
+  </si>
+  <si>
     <t>mahesh</t>
   </si>
   <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>01/04/2000</t>
-  </si>
-  <si>
-    <t>Delhi</t>
-  </si>
-  <si>
-    <t>Single/Unmarried</t>
-  </si>
-  <si>
-    <t>Ganesh</t>
-  </si>
-  <si>
-    <t>Sunaina</t>
-  </si>
-  <si>
-    <t>Golu</t>
-  </si>
-  <si>
-    <t>General</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Hindu</t>
+    <t>01/04/1998</t>
   </si>
   <si>
     <t>37 Mall Road</t>
   </si>
   <si>
-    <t>New Delhi</t>
-  </si>
-  <si>
     <t>110046</t>
   </si>
   <si>
-    <t>Shahdara</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>8712345345</t>
-  </si>
-  <si>
     <t>01123459890</t>
   </si>
   <si>
-    <t>123456@gmail.com</t>
-  </si>
-  <si>
     <t>35</t>
   </si>
   <si>
     <t>115</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Graduate</t>
-  </si>
-  <si>
-    <t>bulkupload</t>
-  </si>
-  <si>
-    <t>Created by Training Partner, TP_001564</t>
-  </si>
-  <si>
-    <t>CAN_021112</t>
+    <t>CAN_025923</t>
+  </si>
+  <si>
+    <t>pallavi</t>
+  </si>
+  <si>
+    <t>01/04/1985</t>
+  </si>
+  <si>
+    <t>24 Mall Road</t>
+  </si>
+  <si>
+    <t>110033</t>
+  </si>
+  <si>
+    <t>01123459877</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>CAN_025925</t>
   </si>
   <si>
     <t>priya</t>
   </si>
   <si>
+    <t>01/04/1986</t>
+  </si>
+  <si>
+    <t>25 Mall Road</t>
+  </si>
+  <si>
+    <t>110034</t>
+  </si>
+  <si>
+    <t>01123459878</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>CAN_025926</t>
+  </si>
+  <si>
+    <t>kirti</t>
+  </si>
+  <si>
+    <t>01/04/1984</t>
+  </si>
+  <si>
+    <t>23 Mall Road</t>
+  </si>
+  <si>
+    <t>110032</t>
+  </si>
+  <si>
+    <t>01123459876</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>CAN_025924</t>
+  </si>
+  <si>
+    <t>shashank</t>
+  </si>
+  <si>
     <t>01/04/1988</t>
   </si>
   <si>
-    <t>25 Mall Road</t>
-  </si>
-  <si>
-    <t>110034</t>
-  </si>
-  <si>
-    <t>01123459878</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>CAN_021125</t>
-  </si>
-  <si>
-    <t>shashank</t>
+    <t>27 Mall Road</t>
+  </si>
+  <si>
+    <t>110036</t>
+  </si>
+  <si>
+    <t>01123459880</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>CAN_025927</t>
+  </si>
+  <si>
+    <t>pooja</t>
+  </si>
+  <si>
+    <t>01/04/1992</t>
+  </si>
+  <si>
+    <t>31 Mall Road</t>
+  </si>
+  <si>
+    <t>110040</t>
+  </si>
+  <si>
+    <t>01123459884</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>CAN_025931</t>
+  </si>
+  <si>
+    <t>leela</t>
+  </si>
+  <si>
+    <t>01/04/1994</t>
+  </si>
+  <si>
+    <t>33 Mall Road</t>
+  </si>
+  <si>
+    <t>110042</t>
+  </si>
+  <si>
+    <t>01123459886</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>CAN_025933</t>
+  </si>
+  <si>
+    <t>pampa</t>
   </si>
   <si>
     <t>01/04/1990</t>
   </si>
   <si>
-    <t>27 Mall Road</t>
-  </si>
-  <si>
-    <t>110036</t>
-  </si>
-  <si>
-    <t>01123459880</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>CAN_021115</t>
+    <t>29 Mall Road</t>
+  </si>
+  <si>
+    <t>110038</t>
+  </si>
+  <si>
+    <t>01123459882</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>CAN_025929</t>
+  </si>
+  <si>
+    <t>sameena</t>
+  </si>
+  <si>
+    <t>01/04/1991</t>
+  </si>
+  <si>
+    <t>30 Mall Road</t>
+  </si>
+  <si>
+    <t>110039</t>
+  </si>
+  <si>
+    <t>01123459883</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>CAN_025930</t>
+  </si>
+  <si>
+    <t>roshni</t>
+  </si>
+  <si>
+    <t>01/04/1989</t>
+  </si>
+  <si>
+    <t>28 Mall Road</t>
+  </si>
+  <si>
+    <t>110037</t>
+  </si>
+  <si>
+    <t>01123459881</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>CAN_025928</t>
+  </si>
+  <si>
+    <t>preksha</t>
+  </si>
+  <si>
+    <t>01/04/1995</t>
+  </si>
+  <si>
+    <t>34 Mall Road</t>
+  </si>
+  <si>
+    <t>110043</t>
+  </si>
+  <si>
+    <t>01123459887</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>CAN_025934</t>
+  </si>
+  <si>
+    <t>kishore</t>
+  </si>
+  <si>
+    <t>01/04/1996</t>
+  </si>
+  <si>
+    <t>35 Mall Road</t>
+  </si>
+  <si>
+    <t>110044</t>
+  </si>
+  <si>
+    <t>01123459888</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>CAN_025935</t>
+  </si>
+  <si>
+    <t>prema</t>
+  </si>
+  <si>
+    <t>01/04/1993</t>
+  </si>
+  <si>
+    <t>32 Mall Road</t>
+  </si>
+  <si>
+    <t>110041</t>
+  </si>
+  <si>
+    <t>01123459885</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>CAN_025932</t>
   </si>
   <si>
     <t>sheetal</t>
   </si>
   <si>
-    <t>01/04/1989</t>
-  </si>
-  <si>
-    <t>26 Mall Road</t>
-  </si>
-  <si>
-    <t>110035</t>
-  </si>
-  <si>
-    <t>01123459879</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>CAN_021114</t>
-  </si>
-  <si>
-    <t>pampa</t>
-  </si>
-  <si>
-    <t>01/04/1992</t>
-  </si>
-  <si>
-    <t>29 Mall Road</t>
-  </si>
-  <si>
-    <t>110038</t>
-  </si>
-  <si>
-    <t>01123459882</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>CAN_021117</t>
-  </si>
-  <si>
-    <t>kirti</t>
-  </si>
-  <si>
-    <t>01/04/1986</t>
-  </si>
-  <si>
-    <t>23 Mall Road</t>
-  </si>
-  <si>
-    <t>110032</t>
-  </si>
-  <si>
-    <t>01123459876</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>CAN_021113</t>
-  </si>
-  <si>
-    <t>roshni</t>
-  </si>
-  <si>
-    <t>01/04/1991</t>
-  </si>
-  <si>
-    <t>28 Mall Road</t>
-  </si>
-  <si>
-    <t>110037</t>
-  </si>
-  <si>
-    <t>01123459881</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>CAN_021116</t>
-  </si>
-  <si>
-    <t>sameena</t>
-  </si>
-  <si>
-    <t>01/04/1993</t>
-  </si>
-  <si>
-    <t>30 Mall Road</t>
-  </si>
-  <si>
-    <t>110039</t>
-  </si>
-  <si>
-    <t>01123459883</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>CAN_021118</t>
-  </si>
-  <si>
-    <t>leela</t>
-  </si>
-  <si>
-    <t>01/04/1996</t>
-  </si>
-  <si>
-    <t>33 Mall Road</t>
-  </si>
-  <si>
-    <t>110042</t>
-  </si>
-  <si>
-    <t>01123459886</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>CAN_021121</t>
-  </si>
-  <si>
-    <t>preksha</t>
-  </si>
-  <si>
-    <t>01/04/1997</t>
-  </si>
-  <si>
-    <t>34 Mall Road</t>
-  </si>
-  <si>
-    <t>110043</t>
-  </si>
-  <si>
-    <t>01123459887</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>CAN_021122</t>
-  </si>
-  <si>
-    <t>prema</t>
-  </si>
-  <si>
-    <t>01/04/1995</t>
-  </si>
-  <si>
-    <t>32 Mall Road</t>
-  </si>
-  <si>
-    <t>110041</t>
-  </si>
-  <si>
-    <t>01123459885</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>CAN_021120</t>
-  </si>
-  <si>
-    <t>Harshit</t>
-  </si>
-  <si>
-    <t>01/04/1999</t>
-  </si>
-  <si>
-    <t>36 Mall Road</t>
-  </si>
-  <si>
-    <t>110045</t>
-  </si>
-  <si>
-    <t>01123459889</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
-    <t>CAN_021124</t>
-  </si>
-  <si>
-    <t>pooja</t>
-  </si>
-  <si>
-    <t>01/04/1994</t>
-  </si>
-  <si>
-    <t>31 Mall Road</t>
-  </si>
-  <si>
-    <t>110040</t>
-  </si>
-  <si>
-    <t>01123459884</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>CAN_021119</t>
-  </si>
-  <si>
-    <t>kishore</t>
-  </si>
-  <si>
-    <t>01/04/1998</t>
-  </si>
-  <si>
-    <t>35 Mall Road</t>
-  </si>
-  <si>
-    <t>110044</t>
-  </si>
-  <si>
-    <t>01123459888</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>113</t>
-  </si>
-  <si>
-    <t>CAN_021123</t>
-  </si>
-  <si>
-    <t>meena</t>
-  </si>
-  <si>
-    <t>01/04/1983</t>
-  </si>
-  <si>
-    <t>CAN_021126</t>
+    <t>CAN_025937</t>
   </si>
   <si>
     <t>Completed</t>
@@ -1426,10 +1422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMG19"/>
+  <dimension ref="A1:AMG103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AY5" sqref="AY5:AY19"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:CG103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2426,7 +2422,7 @@
         <v>165</v>
       </c>
       <c r="AX5" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AY5" s="1">
         <v>100</v>
@@ -2524,10 +2520,10 @@
         <v>159</v>
       </c>
       <c r="AD6" s="1" t="s">
-        <v>28</v>
+        <v>172</v>
       </c>
       <c r="AE6" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AF6" s="1" t="s">
         <v>162</v>
@@ -2542,13 +2538,13 @@
         <v>165</v>
       </c>
       <c r="AX6" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AY6" s="1">
         <v>100</v>
       </c>
       <c r="CE6" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:89" x14ac:dyDescent="0.25">
@@ -2556,13 +2552,13 @@
         <v>140</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>142</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>144</v>
@@ -2589,7 +2585,7 @@
         <v>151</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>153</v>
@@ -2601,7 +2597,7 @@
         <v>144</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="R7" s="1" t="s">
         <v>155</v>
@@ -2610,7 +2606,7 @@
         <v>156</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="U7" s="1" t="s">
         <v>153</v>
@@ -2619,7 +2615,7 @@
         <v>144</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="X7" s="1" t="s">
         <v>144</v>
@@ -2634,16 +2630,16 @@
         <v>157</v>
       </c>
       <c r="AB7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AC7" s="1" t="s">
         <v>159</v>
       </c>
       <c r="AD7" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AE7" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AF7" s="1" t="s">
         <v>162</v>
@@ -2658,13 +2654,13 @@
         <v>165</v>
       </c>
       <c r="AX7" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AY7" s="1">
         <v>100</v>
       </c>
       <c r="CE7" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:89" x14ac:dyDescent="0.25">
@@ -2672,13 +2668,13 @@
         <v>140</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>142</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>144</v>
@@ -2705,7 +2701,7 @@
         <v>151</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>153</v>
@@ -2717,7 +2713,7 @@
         <v>144</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="R8" s="1" t="s">
         <v>155</v>
@@ -2726,7 +2722,7 @@
         <v>156</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="U8" s="1" t="s">
         <v>153</v>
@@ -2735,7 +2731,7 @@
         <v>144</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="X8" s="1" t="s">
         <v>144</v>
@@ -2750,16 +2746,16 @@
         <v>157</v>
       </c>
       <c r="AB8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AC8" s="1" t="s">
         <v>159</v>
       </c>
       <c r="AD8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AE8" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF8" s="1" t="s">
         <v>162</v>
@@ -2774,13 +2770,13 @@
         <v>165</v>
       </c>
       <c r="AX8" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AY8" s="1">
         <v>100</v>
       </c>
       <c r="CE8" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:89" x14ac:dyDescent="0.25">
@@ -2788,13 +2784,13 @@
         <v>140</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>142</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>144</v>
@@ -2821,7 +2817,7 @@
         <v>151</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>153</v>
@@ -2833,7 +2829,7 @@
         <v>144</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="R9" s="1" t="s">
         <v>155</v>
@@ -2842,7 +2838,7 @@
         <v>156</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="U9" s="1" t="s">
         <v>153</v>
@@ -2851,7 +2847,7 @@
         <v>144</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="X9" s="1" t="s">
         <v>144</v>
@@ -2866,16 +2862,16 @@
         <v>157</v>
       </c>
       <c r="AB9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AC9" s="1" t="s">
         <v>159</v>
       </c>
       <c r="AD9" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AE9" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AF9" s="1" t="s">
         <v>162</v>
@@ -2890,13 +2886,13 @@
         <v>165</v>
       </c>
       <c r="AX9" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AY9" s="1">
         <v>100</v>
       </c>
       <c r="CE9" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:89" x14ac:dyDescent="0.25">
@@ -2904,13 +2900,13 @@
         <v>140</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>142</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>144</v>
@@ -2937,7 +2933,7 @@
         <v>151</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>153</v>
@@ -2949,7 +2945,7 @@
         <v>144</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="R10" s="1" t="s">
         <v>155</v>
@@ -2958,7 +2954,7 @@
         <v>156</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="U10" s="1" t="s">
         <v>153</v>
@@ -2967,7 +2963,7 @@
         <v>144</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="X10" s="1" t="s">
         <v>144</v>
@@ -2982,16 +2978,16 @@
         <v>157</v>
       </c>
       <c r="AB10" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AC10" s="1" t="s">
         <v>159</v>
       </c>
       <c r="AD10" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AE10" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AF10" s="1" t="s">
         <v>162</v>
@@ -3006,13 +3002,13 @@
         <v>165</v>
       </c>
       <c r="AX10" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AY10" s="1">
         <v>100</v>
       </c>
       <c r="CE10" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:89" x14ac:dyDescent="0.25">
@@ -3020,13 +3016,13 @@
         <v>140</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>142</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>144</v>
@@ -3053,7 +3049,7 @@
         <v>151</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>153</v>
@@ -3065,7 +3061,7 @@
         <v>144</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="R11" s="1" t="s">
         <v>155</v>
@@ -3074,7 +3070,7 @@
         <v>156</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="U11" s="1" t="s">
         <v>153</v>
@@ -3083,7 +3079,7 @@
         <v>144</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="X11" s="1" t="s">
         <v>144</v>
@@ -3098,16 +3094,16 @@
         <v>157</v>
       </c>
       <c r="AB11" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AC11" s="1" t="s">
         <v>159</v>
       </c>
       <c r="AD11" s="1" t="s">
-        <v>31</v>
+        <v>208</v>
       </c>
       <c r="AE11" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AF11" s="1" t="s">
         <v>162</v>
@@ -3122,13 +3118,13 @@
         <v>165</v>
       </c>
       <c r="AX11" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AY11" s="1">
         <v>100</v>
       </c>
       <c r="CE11" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:89" x14ac:dyDescent="0.25">
@@ -3136,13 +3132,13 @@
         <v>140</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>142</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>144</v>
@@ -3169,7 +3165,7 @@
         <v>151</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>153</v>
@@ -3181,7 +3177,7 @@
         <v>144</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="R12" s="1" t="s">
         <v>155</v>
@@ -3190,7 +3186,7 @@
         <v>156</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="U12" s="1" t="s">
         <v>153</v>
@@ -3199,7 +3195,7 @@
         <v>144</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="X12" s="1" t="s">
         <v>144</v>
@@ -3214,16 +3210,16 @@
         <v>157</v>
       </c>
       <c r="AB12" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="AC12" s="1" t="s">
         <v>159</v>
       </c>
       <c r="AD12" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AE12" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AF12" s="1" t="s">
         <v>162</v>
@@ -3238,13 +3234,13 @@
         <v>165</v>
       </c>
       <c r="AX12" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AY12" s="1">
         <v>100</v>
       </c>
       <c r="CE12" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:89" x14ac:dyDescent="0.25">
@@ -3252,13 +3248,13 @@
         <v>140</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>142</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>144</v>
@@ -3285,7 +3281,7 @@
         <v>151</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>153</v>
@@ -3297,7 +3293,7 @@
         <v>144</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="R13" s="1" t="s">
         <v>155</v>
@@ -3306,7 +3302,7 @@
         <v>156</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="U13" s="1" t="s">
         <v>153</v>
@@ -3315,7 +3311,7 @@
         <v>144</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="X13" s="1" t="s">
         <v>144</v>
@@ -3330,16 +3326,16 @@
         <v>157</v>
       </c>
       <c r="AB13" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AC13" s="1" t="s">
         <v>159</v>
       </c>
       <c r="AD13" s="1" t="s">
-        <v>222</v>
+        <v>32</v>
       </c>
       <c r="AE13" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AF13" s="1" t="s">
         <v>162</v>
@@ -3354,13 +3350,13 @@
         <v>165</v>
       </c>
       <c r="AX13" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AY13" s="1">
         <v>100</v>
       </c>
       <c r="CE13" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:89" x14ac:dyDescent="0.25">
@@ -3368,13 +3364,13 @@
         <v>140</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>142</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>144</v>
@@ -3401,7 +3397,7 @@
         <v>151</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>153</v>
@@ -3413,7 +3409,7 @@
         <v>144</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="R14" s="1" t="s">
         <v>155</v>
@@ -3422,7 +3418,7 @@
         <v>156</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="U14" s="1" t="s">
         <v>153</v>
@@ -3431,7 +3427,7 @@
         <v>144</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="X14" s="1" t="s">
         <v>144</v>
@@ -3446,16 +3442,16 @@
         <v>157</v>
       </c>
       <c r="AB14" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AC14" s="1" t="s">
         <v>159</v>
       </c>
       <c r="AD14" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AE14" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AF14" s="1" t="s">
         <v>162</v>
@@ -3470,13 +3466,13 @@
         <v>165</v>
       </c>
       <c r="AX14" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AY14" s="1">
         <v>100</v>
       </c>
       <c r="CE14" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:89" x14ac:dyDescent="0.25">
@@ -3484,13 +3480,13 @@
         <v>140</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>142</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>144</v>
@@ -3517,7 +3513,7 @@
         <v>151</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="N15" s="1" t="s">
         <v>153</v>
@@ -3529,7 +3525,7 @@
         <v>144</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="R15" s="1" t="s">
         <v>155</v>
@@ -3538,7 +3534,7 @@
         <v>156</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="U15" s="1" t="s">
         <v>153</v>
@@ -3547,7 +3543,7 @@
         <v>144</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="X15" s="1" t="s">
         <v>144</v>
@@ -3562,13 +3558,13 @@
         <v>157</v>
       </c>
       <c r="AB15" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AC15" s="1" t="s">
         <v>159</v>
       </c>
       <c r="AD15" s="1" t="s">
-        <v>238</v>
+        <v>31</v>
       </c>
       <c r="AE15" s="1" t="s">
         <v>239</v>
@@ -3586,7 +3582,7 @@
         <v>165</v>
       </c>
       <c r="AX15" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AY15" s="1">
         <v>100</v>
@@ -3702,7 +3698,7 @@
         <v>165</v>
       </c>
       <c r="AX16" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AY16" s="1">
         <v>100</v>
@@ -3711,7 +3707,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="17" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1021" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>140</v>
       </c>
@@ -3818,7 +3814,7 @@
         <v>165</v>
       </c>
       <c r="AX17" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AY17" s="1">
         <v>100</v>
@@ -3827,7 +3823,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="18" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1021" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>140</v>
       </c>
@@ -3934,7 +3930,7 @@
         <v>165</v>
       </c>
       <c r="AX18" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AY18" s="1">
         <v>100</v>
@@ -3943,7 +3939,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="19" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1021" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>140</v>
       </c>
@@ -3954,7 +3950,7 @@
         <v>142</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>266</v>
+        <v>190</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>144</v>
@@ -3981,7 +3977,7 @@
         <v>151</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="N19" s="1" t="s">
         <v>153</v>
@@ -3993,7 +3989,7 @@
         <v>144</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="R19" s="1" t="s">
         <v>155</v>
@@ -4002,7 +3998,7 @@
         <v>156</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="U19" s="1" t="s">
         <v>153</v>
@@ -4011,7 +4007,7 @@
         <v>144</v>
       </c>
       <c r="W19" s="1" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="X19" s="1" t="s">
         <v>144</v>
@@ -4026,7 +4022,7 @@
         <v>157</v>
       </c>
       <c r="AB19" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="AC19" s="1" t="s">
         <v>159</v>
@@ -4035,7 +4031,7 @@
         <v>26</v>
       </c>
       <c r="AE19" s="1" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="AF19" s="1" t="s">
         <v>162</v>
@@ -4050,14 +4046,7406 @@
         <v>165</v>
       </c>
       <c r="AX19" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AY19" s="1">
         <v>100</v>
       </c>
       <c r="CE19" s="1" t="s">
-        <v>267</v>
-      </c>
+        <v>266</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1021" x14ac:dyDescent="0.25">
+      <c r="AB20" s="1"/>
+      <c r="AJA20"/>
+      <c r="AJB20"/>
+      <c r="AJC20"/>
+      <c r="AJD20"/>
+      <c r="AJE20"/>
+      <c r="AJF20"/>
+      <c r="AJG20"/>
+      <c r="AJH20"/>
+      <c r="AJI20"/>
+      <c r="AJJ20"/>
+      <c r="AJK20"/>
+      <c r="AJL20"/>
+      <c r="AJM20"/>
+      <c r="AJN20"/>
+      <c r="AJO20"/>
+      <c r="AJP20"/>
+      <c r="AJQ20"/>
+      <c r="AJR20"/>
+      <c r="AJS20"/>
+      <c r="AJT20"/>
+      <c r="AJU20"/>
+      <c r="AJV20"/>
+      <c r="AJW20"/>
+      <c r="AJX20"/>
+      <c r="AJY20"/>
+      <c r="AJZ20"/>
+      <c r="AKA20"/>
+      <c r="AKB20"/>
+      <c r="AKC20"/>
+      <c r="AKD20"/>
+      <c r="AKE20"/>
+      <c r="AKF20"/>
+      <c r="AKG20"/>
+      <c r="AKH20"/>
+      <c r="AKI20"/>
+      <c r="AKJ20"/>
+      <c r="AKK20"/>
+      <c r="AKL20"/>
+      <c r="AKM20"/>
+      <c r="AKN20"/>
+      <c r="AKO20"/>
+      <c r="AKP20"/>
+      <c r="AKQ20"/>
+      <c r="AKR20"/>
+      <c r="AKS20"/>
+      <c r="AKT20"/>
+      <c r="AKU20"/>
+      <c r="AKV20"/>
+      <c r="AKW20"/>
+      <c r="AKX20"/>
+      <c r="AKY20"/>
+      <c r="AKZ20"/>
+      <c r="ALA20"/>
+      <c r="ALB20"/>
+      <c r="ALC20"/>
+      <c r="ALD20"/>
+      <c r="ALE20"/>
+      <c r="ALF20"/>
+      <c r="ALG20"/>
+      <c r="ALH20"/>
+      <c r="ALI20"/>
+      <c r="ALJ20"/>
+      <c r="ALK20"/>
+      <c r="ALL20"/>
+      <c r="ALM20"/>
+      <c r="ALN20"/>
+      <c r="ALO20"/>
+      <c r="ALP20"/>
+      <c r="ALQ20"/>
+      <c r="ALR20"/>
+      <c r="ALS20"/>
+      <c r="ALT20"/>
+      <c r="ALU20"/>
+      <c r="ALV20"/>
+      <c r="ALW20"/>
+      <c r="ALX20"/>
+      <c r="ALY20"/>
+      <c r="ALZ20"/>
+      <c r="AMA20"/>
+      <c r="AMB20"/>
+      <c r="AMC20"/>
+      <c r="AMD20"/>
+      <c r="AME20"/>
+      <c r="AMF20"/>
+      <c r="AMG20"/>
+    </row>
+    <row r="21" spans="1:1021" x14ac:dyDescent="0.25">
+      <c r="AB21" s="1"/>
+      <c r="AJA21"/>
+      <c r="AJB21"/>
+      <c r="AJC21"/>
+      <c r="AJD21"/>
+      <c r="AJE21"/>
+      <c r="AJF21"/>
+      <c r="AJG21"/>
+      <c r="AJH21"/>
+      <c r="AJI21"/>
+      <c r="AJJ21"/>
+      <c r="AJK21"/>
+      <c r="AJL21"/>
+      <c r="AJM21"/>
+      <c r="AJN21"/>
+      <c r="AJO21"/>
+      <c r="AJP21"/>
+      <c r="AJQ21"/>
+      <c r="AJR21"/>
+      <c r="AJS21"/>
+      <c r="AJT21"/>
+      <c r="AJU21"/>
+      <c r="AJV21"/>
+      <c r="AJW21"/>
+      <c r="AJX21"/>
+      <c r="AJY21"/>
+      <c r="AJZ21"/>
+      <c r="AKA21"/>
+      <c r="AKB21"/>
+      <c r="AKC21"/>
+      <c r="AKD21"/>
+      <c r="AKE21"/>
+      <c r="AKF21"/>
+      <c r="AKG21"/>
+      <c r="AKH21"/>
+      <c r="AKI21"/>
+      <c r="AKJ21"/>
+      <c r="AKK21"/>
+      <c r="AKL21"/>
+      <c r="AKM21"/>
+      <c r="AKN21"/>
+      <c r="AKO21"/>
+      <c r="AKP21"/>
+      <c r="AKQ21"/>
+      <c r="AKR21"/>
+      <c r="AKS21"/>
+      <c r="AKT21"/>
+      <c r="AKU21"/>
+      <c r="AKV21"/>
+      <c r="AKW21"/>
+      <c r="AKX21"/>
+      <c r="AKY21"/>
+      <c r="AKZ21"/>
+      <c r="ALA21"/>
+      <c r="ALB21"/>
+      <c r="ALC21"/>
+      <c r="ALD21"/>
+      <c r="ALE21"/>
+      <c r="ALF21"/>
+      <c r="ALG21"/>
+      <c r="ALH21"/>
+      <c r="ALI21"/>
+      <c r="ALJ21"/>
+      <c r="ALK21"/>
+      <c r="ALL21"/>
+      <c r="ALM21"/>
+      <c r="ALN21"/>
+      <c r="ALO21"/>
+      <c r="ALP21"/>
+      <c r="ALQ21"/>
+      <c r="ALR21"/>
+      <c r="ALS21"/>
+      <c r="ALT21"/>
+      <c r="ALU21"/>
+      <c r="ALV21"/>
+      <c r="ALW21"/>
+      <c r="ALX21"/>
+      <c r="ALY21"/>
+      <c r="ALZ21"/>
+      <c r="AMA21"/>
+      <c r="AMB21"/>
+      <c r="AMC21"/>
+      <c r="AMD21"/>
+      <c r="AME21"/>
+      <c r="AMF21"/>
+      <c r="AMG21"/>
+    </row>
+    <row r="22" spans="1:1021" x14ac:dyDescent="0.25">
+      <c r="AB22" s="1"/>
+      <c r="AJA22"/>
+      <c r="AJB22"/>
+      <c r="AJC22"/>
+      <c r="AJD22"/>
+      <c r="AJE22"/>
+      <c r="AJF22"/>
+      <c r="AJG22"/>
+      <c r="AJH22"/>
+      <c r="AJI22"/>
+      <c r="AJJ22"/>
+      <c r="AJK22"/>
+      <c r="AJL22"/>
+      <c r="AJM22"/>
+      <c r="AJN22"/>
+      <c r="AJO22"/>
+      <c r="AJP22"/>
+      <c r="AJQ22"/>
+      <c r="AJR22"/>
+      <c r="AJS22"/>
+      <c r="AJT22"/>
+      <c r="AJU22"/>
+      <c r="AJV22"/>
+      <c r="AJW22"/>
+      <c r="AJX22"/>
+      <c r="AJY22"/>
+      <c r="AJZ22"/>
+      <c r="AKA22"/>
+      <c r="AKB22"/>
+      <c r="AKC22"/>
+      <c r="AKD22"/>
+      <c r="AKE22"/>
+      <c r="AKF22"/>
+      <c r="AKG22"/>
+      <c r="AKH22"/>
+      <c r="AKI22"/>
+      <c r="AKJ22"/>
+      <c r="AKK22"/>
+      <c r="AKL22"/>
+      <c r="AKM22"/>
+      <c r="AKN22"/>
+      <c r="AKO22"/>
+      <c r="AKP22"/>
+      <c r="AKQ22"/>
+      <c r="AKR22"/>
+      <c r="AKS22"/>
+      <c r="AKT22"/>
+      <c r="AKU22"/>
+      <c r="AKV22"/>
+      <c r="AKW22"/>
+      <c r="AKX22"/>
+      <c r="AKY22"/>
+      <c r="AKZ22"/>
+      <c r="ALA22"/>
+      <c r="ALB22"/>
+      <c r="ALC22"/>
+      <c r="ALD22"/>
+      <c r="ALE22"/>
+      <c r="ALF22"/>
+      <c r="ALG22"/>
+      <c r="ALH22"/>
+      <c r="ALI22"/>
+      <c r="ALJ22"/>
+      <c r="ALK22"/>
+      <c r="ALL22"/>
+      <c r="ALM22"/>
+      <c r="ALN22"/>
+      <c r="ALO22"/>
+      <c r="ALP22"/>
+      <c r="ALQ22"/>
+      <c r="ALR22"/>
+      <c r="ALS22"/>
+      <c r="ALT22"/>
+      <c r="ALU22"/>
+      <c r="ALV22"/>
+      <c r="ALW22"/>
+      <c r="ALX22"/>
+      <c r="ALY22"/>
+      <c r="ALZ22"/>
+      <c r="AMA22"/>
+      <c r="AMB22"/>
+      <c r="AMC22"/>
+      <c r="AMD22"/>
+      <c r="AME22"/>
+      <c r="AMF22"/>
+      <c r="AMG22"/>
+    </row>
+    <row r="23" spans="1:1021" x14ac:dyDescent="0.25">
+      <c r="AB23" s="1"/>
+      <c r="AJA23"/>
+      <c r="AJB23"/>
+      <c r="AJC23"/>
+      <c r="AJD23"/>
+      <c r="AJE23"/>
+      <c r="AJF23"/>
+      <c r="AJG23"/>
+      <c r="AJH23"/>
+      <c r="AJI23"/>
+      <c r="AJJ23"/>
+      <c r="AJK23"/>
+      <c r="AJL23"/>
+      <c r="AJM23"/>
+      <c r="AJN23"/>
+      <c r="AJO23"/>
+      <c r="AJP23"/>
+      <c r="AJQ23"/>
+      <c r="AJR23"/>
+      <c r="AJS23"/>
+      <c r="AJT23"/>
+      <c r="AJU23"/>
+      <c r="AJV23"/>
+      <c r="AJW23"/>
+      <c r="AJX23"/>
+      <c r="AJY23"/>
+      <c r="AJZ23"/>
+      <c r="AKA23"/>
+      <c r="AKB23"/>
+      <c r="AKC23"/>
+      <c r="AKD23"/>
+      <c r="AKE23"/>
+      <c r="AKF23"/>
+      <c r="AKG23"/>
+      <c r="AKH23"/>
+      <c r="AKI23"/>
+      <c r="AKJ23"/>
+      <c r="AKK23"/>
+      <c r="AKL23"/>
+      <c r="AKM23"/>
+      <c r="AKN23"/>
+      <c r="AKO23"/>
+      <c r="AKP23"/>
+      <c r="AKQ23"/>
+      <c r="AKR23"/>
+      <c r="AKS23"/>
+      <c r="AKT23"/>
+      <c r="AKU23"/>
+      <c r="AKV23"/>
+      <c r="AKW23"/>
+      <c r="AKX23"/>
+      <c r="AKY23"/>
+      <c r="AKZ23"/>
+      <c r="ALA23"/>
+      <c r="ALB23"/>
+      <c r="ALC23"/>
+      <c r="ALD23"/>
+      <c r="ALE23"/>
+      <c r="ALF23"/>
+      <c r="ALG23"/>
+      <c r="ALH23"/>
+      <c r="ALI23"/>
+      <c r="ALJ23"/>
+      <c r="ALK23"/>
+      <c r="ALL23"/>
+      <c r="ALM23"/>
+      <c r="ALN23"/>
+      <c r="ALO23"/>
+      <c r="ALP23"/>
+      <c r="ALQ23"/>
+      <c r="ALR23"/>
+      <c r="ALS23"/>
+      <c r="ALT23"/>
+      <c r="ALU23"/>
+      <c r="ALV23"/>
+      <c r="ALW23"/>
+      <c r="ALX23"/>
+      <c r="ALY23"/>
+      <c r="ALZ23"/>
+      <c r="AMA23"/>
+      <c r="AMB23"/>
+      <c r="AMC23"/>
+      <c r="AMD23"/>
+      <c r="AME23"/>
+      <c r="AMF23"/>
+      <c r="AMG23"/>
+    </row>
+    <row r="24" spans="1:1021" x14ac:dyDescent="0.25">
+      <c r="AB24" s="1"/>
+      <c r="AJA24"/>
+      <c r="AJB24"/>
+      <c r="AJC24"/>
+      <c r="AJD24"/>
+      <c r="AJE24"/>
+      <c r="AJF24"/>
+      <c r="AJG24"/>
+      <c r="AJH24"/>
+      <c r="AJI24"/>
+      <c r="AJJ24"/>
+      <c r="AJK24"/>
+      <c r="AJL24"/>
+      <c r="AJM24"/>
+      <c r="AJN24"/>
+      <c r="AJO24"/>
+      <c r="AJP24"/>
+      <c r="AJQ24"/>
+      <c r="AJR24"/>
+      <c r="AJS24"/>
+      <c r="AJT24"/>
+      <c r="AJU24"/>
+      <c r="AJV24"/>
+      <c r="AJW24"/>
+      <c r="AJX24"/>
+      <c r="AJY24"/>
+      <c r="AJZ24"/>
+      <c r="AKA24"/>
+      <c r="AKB24"/>
+      <c r="AKC24"/>
+      <c r="AKD24"/>
+      <c r="AKE24"/>
+      <c r="AKF24"/>
+      <c r="AKG24"/>
+      <c r="AKH24"/>
+      <c r="AKI24"/>
+      <c r="AKJ24"/>
+      <c r="AKK24"/>
+      <c r="AKL24"/>
+      <c r="AKM24"/>
+      <c r="AKN24"/>
+      <c r="AKO24"/>
+      <c r="AKP24"/>
+      <c r="AKQ24"/>
+      <c r="AKR24"/>
+      <c r="AKS24"/>
+      <c r="AKT24"/>
+      <c r="AKU24"/>
+      <c r="AKV24"/>
+      <c r="AKW24"/>
+      <c r="AKX24"/>
+      <c r="AKY24"/>
+      <c r="AKZ24"/>
+      <c r="ALA24"/>
+      <c r="ALB24"/>
+      <c r="ALC24"/>
+      <c r="ALD24"/>
+      <c r="ALE24"/>
+      <c r="ALF24"/>
+      <c r="ALG24"/>
+      <c r="ALH24"/>
+      <c r="ALI24"/>
+      <c r="ALJ24"/>
+      <c r="ALK24"/>
+      <c r="ALL24"/>
+      <c r="ALM24"/>
+      <c r="ALN24"/>
+      <c r="ALO24"/>
+      <c r="ALP24"/>
+      <c r="ALQ24"/>
+      <c r="ALR24"/>
+      <c r="ALS24"/>
+      <c r="ALT24"/>
+      <c r="ALU24"/>
+      <c r="ALV24"/>
+      <c r="ALW24"/>
+      <c r="ALX24"/>
+      <c r="ALY24"/>
+      <c r="ALZ24"/>
+      <c r="AMA24"/>
+      <c r="AMB24"/>
+      <c r="AMC24"/>
+      <c r="AMD24"/>
+      <c r="AME24"/>
+      <c r="AMF24"/>
+      <c r="AMG24"/>
+    </row>
+    <row r="25" spans="1:1021" x14ac:dyDescent="0.25">
+      <c r="AB25" s="1"/>
+      <c r="AJA25"/>
+      <c r="AJB25"/>
+      <c r="AJC25"/>
+      <c r="AJD25"/>
+      <c r="AJE25"/>
+      <c r="AJF25"/>
+      <c r="AJG25"/>
+      <c r="AJH25"/>
+      <c r="AJI25"/>
+      <c r="AJJ25"/>
+      <c r="AJK25"/>
+      <c r="AJL25"/>
+      <c r="AJM25"/>
+      <c r="AJN25"/>
+      <c r="AJO25"/>
+      <c r="AJP25"/>
+      <c r="AJQ25"/>
+      <c r="AJR25"/>
+      <c r="AJS25"/>
+      <c r="AJT25"/>
+      <c r="AJU25"/>
+      <c r="AJV25"/>
+      <c r="AJW25"/>
+      <c r="AJX25"/>
+      <c r="AJY25"/>
+      <c r="AJZ25"/>
+      <c r="AKA25"/>
+      <c r="AKB25"/>
+      <c r="AKC25"/>
+      <c r="AKD25"/>
+      <c r="AKE25"/>
+      <c r="AKF25"/>
+      <c r="AKG25"/>
+      <c r="AKH25"/>
+      <c r="AKI25"/>
+      <c r="AKJ25"/>
+      <c r="AKK25"/>
+      <c r="AKL25"/>
+      <c r="AKM25"/>
+      <c r="AKN25"/>
+      <c r="AKO25"/>
+      <c r="AKP25"/>
+      <c r="AKQ25"/>
+      <c r="AKR25"/>
+      <c r="AKS25"/>
+      <c r="AKT25"/>
+      <c r="AKU25"/>
+      <c r="AKV25"/>
+      <c r="AKW25"/>
+      <c r="AKX25"/>
+      <c r="AKY25"/>
+      <c r="AKZ25"/>
+      <c r="ALA25"/>
+      <c r="ALB25"/>
+      <c r="ALC25"/>
+      <c r="ALD25"/>
+      <c r="ALE25"/>
+      <c r="ALF25"/>
+      <c r="ALG25"/>
+      <c r="ALH25"/>
+      <c r="ALI25"/>
+      <c r="ALJ25"/>
+      <c r="ALK25"/>
+      <c r="ALL25"/>
+      <c r="ALM25"/>
+      <c r="ALN25"/>
+      <c r="ALO25"/>
+      <c r="ALP25"/>
+      <c r="ALQ25"/>
+      <c r="ALR25"/>
+      <c r="ALS25"/>
+      <c r="ALT25"/>
+      <c r="ALU25"/>
+      <c r="ALV25"/>
+      <c r="ALW25"/>
+      <c r="ALX25"/>
+      <c r="ALY25"/>
+      <c r="ALZ25"/>
+      <c r="AMA25"/>
+      <c r="AMB25"/>
+      <c r="AMC25"/>
+      <c r="AMD25"/>
+      <c r="AME25"/>
+      <c r="AMF25"/>
+      <c r="AMG25"/>
+    </row>
+    <row r="26" spans="1:1021" x14ac:dyDescent="0.25">
+      <c r="AB26" s="1"/>
+      <c r="AJA26"/>
+      <c r="AJB26"/>
+      <c r="AJC26"/>
+      <c r="AJD26"/>
+      <c r="AJE26"/>
+      <c r="AJF26"/>
+      <c r="AJG26"/>
+      <c r="AJH26"/>
+      <c r="AJI26"/>
+      <c r="AJJ26"/>
+      <c r="AJK26"/>
+      <c r="AJL26"/>
+      <c r="AJM26"/>
+      <c r="AJN26"/>
+      <c r="AJO26"/>
+      <c r="AJP26"/>
+      <c r="AJQ26"/>
+      <c r="AJR26"/>
+      <c r="AJS26"/>
+      <c r="AJT26"/>
+      <c r="AJU26"/>
+      <c r="AJV26"/>
+      <c r="AJW26"/>
+      <c r="AJX26"/>
+      <c r="AJY26"/>
+      <c r="AJZ26"/>
+      <c r="AKA26"/>
+      <c r="AKB26"/>
+      <c r="AKC26"/>
+      <c r="AKD26"/>
+      <c r="AKE26"/>
+      <c r="AKF26"/>
+      <c r="AKG26"/>
+      <c r="AKH26"/>
+      <c r="AKI26"/>
+      <c r="AKJ26"/>
+      <c r="AKK26"/>
+      <c r="AKL26"/>
+      <c r="AKM26"/>
+      <c r="AKN26"/>
+      <c r="AKO26"/>
+      <c r="AKP26"/>
+      <c r="AKQ26"/>
+      <c r="AKR26"/>
+      <c r="AKS26"/>
+      <c r="AKT26"/>
+      <c r="AKU26"/>
+      <c r="AKV26"/>
+      <c r="AKW26"/>
+      <c r="AKX26"/>
+      <c r="AKY26"/>
+      <c r="AKZ26"/>
+      <c r="ALA26"/>
+      <c r="ALB26"/>
+      <c r="ALC26"/>
+      <c r="ALD26"/>
+      <c r="ALE26"/>
+      <c r="ALF26"/>
+      <c r="ALG26"/>
+      <c r="ALH26"/>
+      <c r="ALI26"/>
+      <c r="ALJ26"/>
+      <c r="ALK26"/>
+      <c r="ALL26"/>
+      <c r="ALM26"/>
+      <c r="ALN26"/>
+      <c r="ALO26"/>
+      <c r="ALP26"/>
+      <c r="ALQ26"/>
+      <c r="ALR26"/>
+      <c r="ALS26"/>
+      <c r="ALT26"/>
+      <c r="ALU26"/>
+      <c r="ALV26"/>
+      <c r="ALW26"/>
+      <c r="ALX26"/>
+      <c r="ALY26"/>
+      <c r="ALZ26"/>
+      <c r="AMA26"/>
+      <c r="AMB26"/>
+      <c r="AMC26"/>
+      <c r="AMD26"/>
+      <c r="AME26"/>
+      <c r="AMF26"/>
+      <c r="AMG26"/>
+    </row>
+    <row r="27" spans="1:1021" x14ac:dyDescent="0.25">
+      <c r="AB27" s="1"/>
+      <c r="AJA27"/>
+      <c r="AJB27"/>
+      <c r="AJC27"/>
+      <c r="AJD27"/>
+      <c r="AJE27"/>
+      <c r="AJF27"/>
+      <c r="AJG27"/>
+      <c r="AJH27"/>
+      <c r="AJI27"/>
+      <c r="AJJ27"/>
+      <c r="AJK27"/>
+      <c r="AJL27"/>
+      <c r="AJM27"/>
+      <c r="AJN27"/>
+      <c r="AJO27"/>
+      <c r="AJP27"/>
+      <c r="AJQ27"/>
+      <c r="AJR27"/>
+      <c r="AJS27"/>
+      <c r="AJT27"/>
+      <c r="AJU27"/>
+      <c r="AJV27"/>
+      <c r="AJW27"/>
+      <c r="AJX27"/>
+      <c r="AJY27"/>
+      <c r="AJZ27"/>
+      <c r="AKA27"/>
+      <c r="AKB27"/>
+      <c r="AKC27"/>
+      <c r="AKD27"/>
+      <c r="AKE27"/>
+      <c r="AKF27"/>
+      <c r="AKG27"/>
+      <c r="AKH27"/>
+      <c r="AKI27"/>
+      <c r="AKJ27"/>
+      <c r="AKK27"/>
+      <c r="AKL27"/>
+      <c r="AKM27"/>
+      <c r="AKN27"/>
+      <c r="AKO27"/>
+      <c r="AKP27"/>
+      <c r="AKQ27"/>
+      <c r="AKR27"/>
+      <c r="AKS27"/>
+      <c r="AKT27"/>
+      <c r="AKU27"/>
+      <c r="AKV27"/>
+      <c r="AKW27"/>
+      <c r="AKX27"/>
+      <c r="AKY27"/>
+      <c r="AKZ27"/>
+      <c r="ALA27"/>
+      <c r="ALB27"/>
+      <c r="ALC27"/>
+      <c r="ALD27"/>
+      <c r="ALE27"/>
+      <c r="ALF27"/>
+      <c r="ALG27"/>
+      <c r="ALH27"/>
+      <c r="ALI27"/>
+      <c r="ALJ27"/>
+      <c r="ALK27"/>
+      <c r="ALL27"/>
+      <c r="ALM27"/>
+      <c r="ALN27"/>
+      <c r="ALO27"/>
+      <c r="ALP27"/>
+      <c r="ALQ27"/>
+      <c r="ALR27"/>
+      <c r="ALS27"/>
+      <c r="ALT27"/>
+      <c r="ALU27"/>
+      <c r="ALV27"/>
+      <c r="ALW27"/>
+      <c r="ALX27"/>
+      <c r="ALY27"/>
+      <c r="ALZ27"/>
+      <c r="AMA27"/>
+      <c r="AMB27"/>
+      <c r="AMC27"/>
+      <c r="AMD27"/>
+      <c r="AME27"/>
+      <c r="AMF27"/>
+      <c r="AMG27"/>
+    </row>
+    <row r="28" spans="1:1021" x14ac:dyDescent="0.25">
+      <c r="AB28" s="1"/>
+      <c r="AJA28"/>
+      <c r="AJB28"/>
+      <c r="AJC28"/>
+      <c r="AJD28"/>
+      <c r="AJE28"/>
+      <c r="AJF28"/>
+      <c r="AJG28"/>
+      <c r="AJH28"/>
+      <c r="AJI28"/>
+      <c r="AJJ28"/>
+      <c r="AJK28"/>
+      <c r="AJL28"/>
+      <c r="AJM28"/>
+      <c r="AJN28"/>
+      <c r="AJO28"/>
+      <c r="AJP28"/>
+      <c r="AJQ28"/>
+      <c r="AJR28"/>
+      <c r="AJS28"/>
+      <c r="AJT28"/>
+      <c r="AJU28"/>
+      <c r="AJV28"/>
+      <c r="AJW28"/>
+      <c r="AJX28"/>
+      <c r="AJY28"/>
+      <c r="AJZ28"/>
+      <c r="AKA28"/>
+      <c r="AKB28"/>
+      <c r="AKC28"/>
+      <c r="AKD28"/>
+      <c r="AKE28"/>
+      <c r="AKF28"/>
+      <c r="AKG28"/>
+      <c r="AKH28"/>
+      <c r="AKI28"/>
+      <c r="AKJ28"/>
+      <c r="AKK28"/>
+      <c r="AKL28"/>
+      <c r="AKM28"/>
+      <c r="AKN28"/>
+      <c r="AKO28"/>
+      <c r="AKP28"/>
+      <c r="AKQ28"/>
+      <c r="AKR28"/>
+      <c r="AKS28"/>
+      <c r="AKT28"/>
+      <c r="AKU28"/>
+      <c r="AKV28"/>
+      <c r="AKW28"/>
+      <c r="AKX28"/>
+      <c r="AKY28"/>
+      <c r="AKZ28"/>
+      <c r="ALA28"/>
+      <c r="ALB28"/>
+      <c r="ALC28"/>
+      <c r="ALD28"/>
+      <c r="ALE28"/>
+      <c r="ALF28"/>
+      <c r="ALG28"/>
+      <c r="ALH28"/>
+      <c r="ALI28"/>
+      <c r="ALJ28"/>
+      <c r="ALK28"/>
+      <c r="ALL28"/>
+      <c r="ALM28"/>
+      <c r="ALN28"/>
+      <c r="ALO28"/>
+      <c r="ALP28"/>
+      <c r="ALQ28"/>
+      <c r="ALR28"/>
+      <c r="ALS28"/>
+      <c r="ALT28"/>
+      <c r="ALU28"/>
+      <c r="ALV28"/>
+      <c r="ALW28"/>
+      <c r="ALX28"/>
+      <c r="ALY28"/>
+      <c r="ALZ28"/>
+      <c r="AMA28"/>
+      <c r="AMB28"/>
+      <c r="AMC28"/>
+      <c r="AMD28"/>
+      <c r="AME28"/>
+      <c r="AMF28"/>
+      <c r="AMG28"/>
+    </row>
+    <row r="29" spans="1:1021" x14ac:dyDescent="0.25">
+      <c r="AB29" s="1"/>
+      <c r="AJA29"/>
+      <c r="AJB29"/>
+      <c r="AJC29"/>
+      <c r="AJD29"/>
+      <c r="AJE29"/>
+      <c r="AJF29"/>
+      <c r="AJG29"/>
+      <c r="AJH29"/>
+      <c r="AJI29"/>
+      <c r="AJJ29"/>
+      <c r="AJK29"/>
+      <c r="AJL29"/>
+      <c r="AJM29"/>
+      <c r="AJN29"/>
+      <c r="AJO29"/>
+      <c r="AJP29"/>
+      <c r="AJQ29"/>
+      <c r="AJR29"/>
+      <c r="AJS29"/>
+      <c r="AJT29"/>
+      <c r="AJU29"/>
+      <c r="AJV29"/>
+      <c r="AJW29"/>
+      <c r="AJX29"/>
+      <c r="AJY29"/>
+      <c r="AJZ29"/>
+      <c r="AKA29"/>
+      <c r="AKB29"/>
+      <c r="AKC29"/>
+      <c r="AKD29"/>
+      <c r="AKE29"/>
+      <c r="AKF29"/>
+      <c r="AKG29"/>
+      <c r="AKH29"/>
+      <c r="AKI29"/>
+      <c r="AKJ29"/>
+      <c r="AKK29"/>
+      <c r="AKL29"/>
+      <c r="AKM29"/>
+      <c r="AKN29"/>
+      <c r="AKO29"/>
+      <c r="AKP29"/>
+      <c r="AKQ29"/>
+      <c r="AKR29"/>
+      <c r="AKS29"/>
+      <c r="AKT29"/>
+      <c r="AKU29"/>
+      <c r="AKV29"/>
+      <c r="AKW29"/>
+      <c r="AKX29"/>
+      <c r="AKY29"/>
+      <c r="AKZ29"/>
+      <c r="ALA29"/>
+      <c r="ALB29"/>
+      <c r="ALC29"/>
+      <c r="ALD29"/>
+      <c r="ALE29"/>
+      <c r="ALF29"/>
+      <c r="ALG29"/>
+      <c r="ALH29"/>
+      <c r="ALI29"/>
+      <c r="ALJ29"/>
+      <c r="ALK29"/>
+      <c r="ALL29"/>
+      <c r="ALM29"/>
+      <c r="ALN29"/>
+      <c r="ALO29"/>
+      <c r="ALP29"/>
+      <c r="ALQ29"/>
+      <c r="ALR29"/>
+      <c r="ALS29"/>
+      <c r="ALT29"/>
+      <c r="ALU29"/>
+      <c r="ALV29"/>
+      <c r="ALW29"/>
+      <c r="ALX29"/>
+      <c r="ALY29"/>
+      <c r="ALZ29"/>
+      <c r="AMA29"/>
+      <c r="AMB29"/>
+      <c r="AMC29"/>
+      <c r="AMD29"/>
+      <c r="AME29"/>
+      <c r="AMF29"/>
+      <c r="AMG29"/>
+    </row>
+    <row r="30" spans="1:1021" x14ac:dyDescent="0.25">
+      <c r="AB30" s="1"/>
+      <c r="AJA30"/>
+      <c r="AJB30"/>
+      <c r="AJC30"/>
+      <c r="AJD30"/>
+      <c r="AJE30"/>
+      <c r="AJF30"/>
+      <c r="AJG30"/>
+      <c r="AJH30"/>
+      <c r="AJI30"/>
+      <c r="AJJ30"/>
+      <c r="AJK30"/>
+      <c r="AJL30"/>
+      <c r="AJM30"/>
+      <c r="AJN30"/>
+      <c r="AJO30"/>
+      <c r="AJP30"/>
+      <c r="AJQ30"/>
+      <c r="AJR30"/>
+      <c r="AJS30"/>
+      <c r="AJT30"/>
+      <c r="AJU30"/>
+      <c r="AJV30"/>
+      <c r="AJW30"/>
+      <c r="AJX30"/>
+      <c r="AJY30"/>
+      <c r="AJZ30"/>
+      <c r="AKA30"/>
+      <c r="AKB30"/>
+      <c r="AKC30"/>
+      <c r="AKD30"/>
+      <c r="AKE30"/>
+      <c r="AKF30"/>
+      <c r="AKG30"/>
+      <c r="AKH30"/>
+      <c r="AKI30"/>
+      <c r="AKJ30"/>
+      <c r="AKK30"/>
+      <c r="AKL30"/>
+      <c r="AKM30"/>
+      <c r="AKN30"/>
+      <c r="AKO30"/>
+      <c r="AKP30"/>
+      <c r="AKQ30"/>
+      <c r="AKR30"/>
+      <c r="AKS30"/>
+      <c r="AKT30"/>
+      <c r="AKU30"/>
+      <c r="AKV30"/>
+      <c r="AKW30"/>
+      <c r="AKX30"/>
+      <c r="AKY30"/>
+      <c r="AKZ30"/>
+      <c r="ALA30"/>
+      <c r="ALB30"/>
+      <c r="ALC30"/>
+      <c r="ALD30"/>
+      <c r="ALE30"/>
+      <c r="ALF30"/>
+      <c r="ALG30"/>
+      <c r="ALH30"/>
+      <c r="ALI30"/>
+      <c r="ALJ30"/>
+      <c r="ALK30"/>
+      <c r="ALL30"/>
+      <c r="ALM30"/>
+      <c r="ALN30"/>
+      <c r="ALO30"/>
+      <c r="ALP30"/>
+      <c r="ALQ30"/>
+      <c r="ALR30"/>
+      <c r="ALS30"/>
+      <c r="ALT30"/>
+      <c r="ALU30"/>
+      <c r="ALV30"/>
+      <c r="ALW30"/>
+      <c r="ALX30"/>
+      <c r="ALY30"/>
+      <c r="ALZ30"/>
+      <c r="AMA30"/>
+      <c r="AMB30"/>
+      <c r="AMC30"/>
+      <c r="AMD30"/>
+      <c r="AME30"/>
+      <c r="AMF30"/>
+      <c r="AMG30"/>
+    </row>
+    <row r="31" spans="1:1021" x14ac:dyDescent="0.25">
+      <c r="AB31" s="1"/>
+      <c r="AJA31"/>
+      <c r="AJB31"/>
+      <c r="AJC31"/>
+      <c r="AJD31"/>
+      <c r="AJE31"/>
+      <c r="AJF31"/>
+      <c r="AJG31"/>
+      <c r="AJH31"/>
+      <c r="AJI31"/>
+      <c r="AJJ31"/>
+      <c r="AJK31"/>
+      <c r="AJL31"/>
+      <c r="AJM31"/>
+      <c r="AJN31"/>
+      <c r="AJO31"/>
+      <c r="AJP31"/>
+      <c r="AJQ31"/>
+      <c r="AJR31"/>
+      <c r="AJS31"/>
+      <c r="AJT31"/>
+      <c r="AJU31"/>
+      <c r="AJV31"/>
+      <c r="AJW31"/>
+      <c r="AJX31"/>
+      <c r="AJY31"/>
+      <c r="AJZ31"/>
+      <c r="AKA31"/>
+      <c r="AKB31"/>
+      <c r="AKC31"/>
+      <c r="AKD31"/>
+      <c r="AKE31"/>
+      <c r="AKF31"/>
+      <c r="AKG31"/>
+      <c r="AKH31"/>
+      <c r="AKI31"/>
+      <c r="AKJ31"/>
+      <c r="AKK31"/>
+      <c r="AKL31"/>
+      <c r="AKM31"/>
+      <c r="AKN31"/>
+      <c r="AKO31"/>
+      <c r="AKP31"/>
+      <c r="AKQ31"/>
+      <c r="AKR31"/>
+      <c r="AKS31"/>
+      <c r="AKT31"/>
+      <c r="AKU31"/>
+      <c r="AKV31"/>
+      <c r="AKW31"/>
+      <c r="AKX31"/>
+      <c r="AKY31"/>
+      <c r="AKZ31"/>
+      <c r="ALA31"/>
+      <c r="ALB31"/>
+      <c r="ALC31"/>
+      <c r="ALD31"/>
+      <c r="ALE31"/>
+      <c r="ALF31"/>
+      <c r="ALG31"/>
+      <c r="ALH31"/>
+      <c r="ALI31"/>
+      <c r="ALJ31"/>
+      <c r="ALK31"/>
+      <c r="ALL31"/>
+      <c r="ALM31"/>
+      <c r="ALN31"/>
+      <c r="ALO31"/>
+      <c r="ALP31"/>
+      <c r="ALQ31"/>
+      <c r="ALR31"/>
+      <c r="ALS31"/>
+      <c r="ALT31"/>
+      <c r="ALU31"/>
+      <c r="ALV31"/>
+      <c r="ALW31"/>
+      <c r="ALX31"/>
+      <c r="ALY31"/>
+      <c r="ALZ31"/>
+      <c r="AMA31"/>
+      <c r="AMB31"/>
+      <c r="AMC31"/>
+      <c r="AMD31"/>
+      <c r="AME31"/>
+      <c r="AMF31"/>
+      <c r="AMG31"/>
+    </row>
+    <row r="32" spans="1:1021" x14ac:dyDescent="0.25">
+      <c r="AB32" s="1"/>
+      <c r="AJA32"/>
+      <c r="AJB32"/>
+      <c r="AJC32"/>
+      <c r="AJD32"/>
+      <c r="AJE32"/>
+      <c r="AJF32"/>
+      <c r="AJG32"/>
+      <c r="AJH32"/>
+      <c r="AJI32"/>
+      <c r="AJJ32"/>
+      <c r="AJK32"/>
+      <c r="AJL32"/>
+      <c r="AJM32"/>
+      <c r="AJN32"/>
+      <c r="AJO32"/>
+      <c r="AJP32"/>
+      <c r="AJQ32"/>
+      <c r="AJR32"/>
+      <c r="AJS32"/>
+      <c r="AJT32"/>
+      <c r="AJU32"/>
+      <c r="AJV32"/>
+      <c r="AJW32"/>
+      <c r="AJX32"/>
+      <c r="AJY32"/>
+      <c r="AJZ32"/>
+      <c r="AKA32"/>
+      <c r="AKB32"/>
+      <c r="AKC32"/>
+      <c r="AKD32"/>
+      <c r="AKE32"/>
+      <c r="AKF32"/>
+      <c r="AKG32"/>
+      <c r="AKH32"/>
+      <c r="AKI32"/>
+      <c r="AKJ32"/>
+      <c r="AKK32"/>
+      <c r="AKL32"/>
+      <c r="AKM32"/>
+      <c r="AKN32"/>
+      <c r="AKO32"/>
+      <c r="AKP32"/>
+      <c r="AKQ32"/>
+      <c r="AKR32"/>
+      <c r="AKS32"/>
+      <c r="AKT32"/>
+      <c r="AKU32"/>
+      <c r="AKV32"/>
+      <c r="AKW32"/>
+      <c r="AKX32"/>
+      <c r="AKY32"/>
+      <c r="AKZ32"/>
+      <c r="ALA32"/>
+      <c r="ALB32"/>
+      <c r="ALC32"/>
+      <c r="ALD32"/>
+      <c r="ALE32"/>
+      <c r="ALF32"/>
+      <c r="ALG32"/>
+      <c r="ALH32"/>
+      <c r="ALI32"/>
+      <c r="ALJ32"/>
+      <c r="ALK32"/>
+      <c r="ALL32"/>
+      <c r="ALM32"/>
+      <c r="ALN32"/>
+      <c r="ALO32"/>
+      <c r="ALP32"/>
+      <c r="ALQ32"/>
+      <c r="ALR32"/>
+      <c r="ALS32"/>
+      <c r="ALT32"/>
+      <c r="ALU32"/>
+      <c r="ALV32"/>
+      <c r="ALW32"/>
+      <c r="ALX32"/>
+      <c r="ALY32"/>
+      <c r="ALZ32"/>
+      <c r="AMA32"/>
+      <c r="AMB32"/>
+      <c r="AMC32"/>
+      <c r="AMD32"/>
+      <c r="AME32"/>
+      <c r="AMF32"/>
+      <c r="AMG32"/>
+    </row>
+    <row r="33" spans="28:1021" x14ac:dyDescent="0.25">
+      <c r="AB33" s="1"/>
+      <c r="AJA33"/>
+      <c r="AJB33"/>
+      <c r="AJC33"/>
+      <c r="AJD33"/>
+      <c r="AJE33"/>
+      <c r="AJF33"/>
+      <c r="AJG33"/>
+      <c r="AJH33"/>
+      <c r="AJI33"/>
+      <c r="AJJ33"/>
+      <c r="AJK33"/>
+      <c r="AJL33"/>
+      <c r="AJM33"/>
+      <c r="AJN33"/>
+      <c r="AJO33"/>
+      <c r="AJP33"/>
+      <c r="AJQ33"/>
+      <c r="AJR33"/>
+      <c r="AJS33"/>
+      <c r="AJT33"/>
+      <c r="AJU33"/>
+      <c r="AJV33"/>
+      <c r="AJW33"/>
+      <c r="AJX33"/>
+      <c r="AJY33"/>
+      <c r="AJZ33"/>
+      <c r="AKA33"/>
+      <c r="AKB33"/>
+      <c r="AKC33"/>
+      <c r="AKD33"/>
+      <c r="AKE33"/>
+      <c r="AKF33"/>
+      <c r="AKG33"/>
+      <c r="AKH33"/>
+      <c r="AKI33"/>
+      <c r="AKJ33"/>
+      <c r="AKK33"/>
+      <c r="AKL33"/>
+      <c r="AKM33"/>
+      <c r="AKN33"/>
+      <c r="AKO33"/>
+      <c r="AKP33"/>
+      <c r="AKQ33"/>
+      <c r="AKR33"/>
+      <c r="AKS33"/>
+      <c r="AKT33"/>
+      <c r="AKU33"/>
+      <c r="AKV33"/>
+      <c r="AKW33"/>
+      <c r="AKX33"/>
+      <c r="AKY33"/>
+      <c r="AKZ33"/>
+      <c r="ALA33"/>
+      <c r="ALB33"/>
+      <c r="ALC33"/>
+      <c r="ALD33"/>
+      <c r="ALE33"/>
+      <c r="ALF33"/>
+      <c r="ALG33"/>
+      <c r="ALH33"/>
+      <c r="ALI33"/>
+      <c r="ALJ33"/>
+      <c r="ALK33"/>
+      <c r="ALL33"/>
+      <c r="ALM33"/>
+      <c r="ALN33"/>
+      <c r="ALO33"/>
+      <c r="ALP33"/>
+      <c r="ALQ33"/>
+      <c r="ALR33"/>
+      <c r="ALS33"/>
+      <c r="ALT33"/>
+      <c r="ALU33"/>
+      <c r="ALV33"/>
+      <c r="ALW33"/>
+      <c r="ALX33"/>
+      <c r="ALY33"/>
+      <c r="ALZ33"/>
+      <c r="AMA33"/>
+      <c r="AMB33"/>
+      <c r="AMC33"/>
+      <c r="AMD33"/>
+      <c r="AME33"/>
+      <c r="AMF33"/>
+      <c r="AMG33"/>
+    </row>
+    <row r="34" spans="28:1021" x14ac:dyDescent="0.25">
+      <c r="AB34" s="1"/>
+      <c r="AJA34"/>
+      <c r="AJB34"/>
+      <c r="AJC34"/>
+      <c r="AJD34"/>
+      <c r="AJE34"/>
+      <c r="AJF34"/>
+      <c r="AJG34"/>
+      <c r="AJH34"/>
+      <c r="AJI34"/>
+      <c r="AJJ34"/>
+      <c r="AJK34"/>
+      <c r="AJL34"/>
+      <c r="AJM34"/>
+      <c r="AJN34"/>
+      <c r="AJO34"/>
+      <c r="AJP34"/>
+      <c r="AJQ34"/>
+      <c r="AJR34"/>
+      <c r="AJS34"/>
+      <c r="AJT34"/>
+      <c r="AJU34"/>
+      <c r="AJV34"/>
+      <c r="AJW34"/>
+      <c r="AJX34"/>
+      <c r="AJY34"/>
+      <c r="AJZ34"/>
+      <c r="AKA34"/>
+      <c r="AKB34"/>
+      <c r="AKC34"/>
+      <c r="AKD34"/>
+      <c r="AKE34"/>
+      <c r="AKF34"/>
+      <c r="AKG34"/>
+      <c r="AKH34"/>
+      <c r="AKI34"/>
+      <c r="AKJ34"/>
+      <c r="AKK34"/>
+      <c r="AKL34"/>
+      <c r="AKM34"/>
+      <c r="AKN34"/>
+      <c r="AKO34"/>
+      <c r="AKP34"/>
+      <c r="AKQ34"/>
+      <c r="AKR34"/>
+      <c r="AKS34"/>
+      <c r="AKT34"/>
+      <c r="AKU34"/>
+      <c r="AKV34"/>
+      <c r="AKW34"/>
+      <c r="AKX34"/>
+      <c r="AKY34"/>
+      <c r="AKZ34"/>
+      <c r="ALA34"/>
+      <c r="ALB34"/>
+      <c r="ALC34"/>
+      <c r="ALD34"/>
+      <c r="ALE34"/>
+      <c r="ALF34"/>
+      <c r="ALG34"/>
+      <c r="ALH34"/>
+      <c r="ALI34"/>
+      <c r="ALJ34"/>
+      <c r="ALK34"/>
+      <c r="ALL34"/>
+      <c r="ALM34"/>
+      <c r="ALN34"/>
+      <c r="ALO34"/>
+      <c r="ALP34"/>
+      <c r="ALQ34"/>
+      <c r="ALR34"/>
+      <c r="ALS34"/>
+      <c r="ALT34"/>
+      <c r="ALU34"/>
+      <c r="ALV34"/>
+      <c r="ALW34"/>
+      <c r="ALX34"/>
+      <c r="ALY34"/>
+      <c r="ALZ34"/>
+      <c r="AMA34"/>
+      <c r="AMB34"/>
+      <c r="AMC34"/>
+      <c r="AMD34"/>
+      <c r="AME34"/>
+      <c r="AMF34"/>
+      <c r="AMG34"/>
+    </row>
+    <row r="35" spans="28:1021" x14ac:dyDescent="0.25">
+      <c r="AB35" s="1"/>
+      <c r="AJA35"/>
+      <c r="AJB35"/>
+      <c r="AJC35"/>
+      <c r="AJD35"/>
+      <c r="AJE35"/>
+      <c r="AJF35"/>
+      <c r="AJG35"/>
+      <c r="AJH35"/>
+      <c r="AJI35"/>
+      <c r="AJJ35"/>
+      <c r="AJK35"/>
+      <c r="AJL35"/>
+      <c r="AJM35"/>
+      <c r="AJN35"/>
+      <c r="AJO35"/>
+      <c r="AJP35"/>
+      <c r="AJQ35"/>
+      <c r="AJR35"/>
+      <c r="AJS35"/>
+      <c r="AJT35"/>
+      <c r="AJU35"/>
+      <c r="AJV35"/>
+      <c r="AJW35"/>
+      <c r="AJX35"/>
+      <c r="AJY35"/>
+      <c r="AJZ35"/>
+      <c r="AKA35"/>
+      <c r="AKB35"/>
+      <c r="AKC35"/>
+      <c r="AKD35"/>
+      <c r="AKE35"/>
+      <c r="AKF35"/>
+      <c r="AKG35"/>
+      <c r="AKH35"/>
+      <c r="AKI35"/>
+      <c r="AKJ35"/>
+      <c r="AKK35"/>
+      <c r="AKL35"/>
+      <c r="AKM35"/>
+      <c r="AKN35"/>
+      <c r="AKO35"/>
+      <c r="AKP35"/>
+      <c r="AKQ35"/>
+      <c r="AKR35"/>
+      <c r="AKS35"/>
+      <c r="AKT35"/>
+      <c r="AKU35"/>
+      <c r="AKV35"/>
+      <c r="AKW35"/>
+      <c r="AKX35"/>
+      <c r="AKY35"/>
+      <c r="AKZ35"/>
+      <c r="ALA35"/>
+      <c r="ALB35"/>
+      <c r="ALC35"/>
+      <c r="ALD35"/>
+      <c r="ALE35"/>
+      <c r="ALF35"/>
+      <c r="ALG35"/>
+      <c r="ALH35"/>
+      <c r="ALI35"/>
+      <c r="ALJ35"/>
+      <c r="ALK35"/>
+      <c r="ALL35"/>
+      <c r="ALM35"/>
+      <c r="ALN35"/>
+      <c r="ALO35"/>
+      <c r="ALP35"/>
+      <c r="ALQ35"/>
+      <c r="ALR35"/>
+      <c r="ALS35"/>
+      <c r="ALT35"/>
+      <c r="ALU35"/>
+      <c r="ALV35"/>
+      <c r="ALW35"/>
+      <c r="ALX35"/>
+      <c r="ALY35"/>
+      <c r="ALZ35"/>
+      <c r="AMA35"/>
+      <c r="AMB35"/>
+      <c r="AMC35"/>
+      <c r="AMD35"/>
+      <c r="AME35"/>
+      <c r="AMF35"/>
+      <c r="AMG35"/>
+    </row>
+    <row r="36" spans="28:1021" x14ac:dyDescent="0.25">
+      <c r="AB36" s="1"/>
+      <c r="AJA36"/>
+      <c r="AJB36"/>
+      <c r="AJC36"/>
+      <c r="AJD36"/>
+      <c r="AJE36"/>
+      <c r="AJF36"/>
+      <c r="AJG36"/>
+      <c r="AJH36"/>
+      <c r="AJI36"/>
+      <c r="AJJ36"/>
+      <c r="AJK36"/>
+      <c r="AJL36"/>
+      <c r="AJM36"/>
+      <c r="AJN36"/>
+      <c r="AJO36"/>
+      <c r="AJP36"/>
+      <c r="AJQ36"/>
+      <c r="AJR36"/>
+      <c r="AJS36"/>
+      <c r="AJT36"/>
+      <c r="AJU36"/>
+      <c r="AJV36"/>
+      <c r="AJW36"/>
+      <c r="AJX36"/>
+      <c r="AJY36"/>
+      <c r="AJZ36"/>
+      <c r="AKA36"/>
+      <c r="AKB36"/>
+      <c r="AKC36"/>
+      <c r="AKD36"/>
+      <c r="AKE36"/>
+      <c r="AKF36"/>
+      <c r="AKG36"/>
+      <c r="AKH36"/>
+      <c r="AKI36"/>
+      <c r="AKJ36"/>
+      <c r="AKK36"/>
+      <c r="AKL36"/>
+      <c r="AKM36"/>
+      <c r="AKN36"/>
+      <c r="AKO36"/>
+      <c r="AKP36"/>
+      <c r="AKQ36"/>
+      <c r="AKR36"/>
+      <c r="AKS36"/>
+      <c r="AKT36"/>
+      <c r="AKU36"/>
+      <c r="AKV36"/>
+      <c r="AKW36"/>
+      <c r="AKX36"/>
+      <c r="AKY36"/>
+      <c r="AKZ36"/>
+      <c r="ALA36"/>
+      <c r="ALB36"/>
+      <c r="ALC36"/>
+      <c r="ALD36"/>
+      <c r="ALE36"/>
+      <c r="ALF36"/>
+      <c r="ALG36"/>
+      <c r="ALH36"/>
+      <c r="ALI36"/>
+      <c r="ALJ36"/>
+      <c r="ALK36"/>
+      <c r="ALL36"/>
+      <c r="ALM36"/>
+      <c r="ALN36"/>
+      <c r="ALO36"/>
+      <c r="ALP36"/>
+      <c r="ALQ36"/>
+      <c r="ALR36"/>
+      <c r="ALS36"/>
+      <c r="ALT36"/>
+      <c r="ALU36"/>
+      <c r="ALV36"/>
+      <c r="ALW36"/>
+      <c r="ALX36"/>
+      <c r="ALY36"/>
+      <c r="ALZ36"/>
+      <c r="AMA36"/>
+      <c r="AMB36"/>
+      <c r="AMC36"/>
+      <c r="AMD36"/>
+      <c r="AME36"/>
+      <c r="AMF36"/>
+      <c r="AMG36"/>
+    </row>
+    <row r="37" spans="28:1021" x14ac:dyDescent="0.25">
+      <c r="AB37" s="1"/>
+      <c r="AJA37"/>
+      <c r="AJB37"/>
+      <c r="AJC37"/>
+      <c r="AJD37"/>
+      <c r="AJE37"/>
+      <c r="AJF37"/>
+      <c r="AJG37"/>
+      <c r="AJH37"/>
+      <c r="AJI37"/>
+      <c r="AJJ37"/>
+      <c r="AJK37"/>
+      <c r="AJL37"/>
+      <c r="AJM37"/>
+      <c r="AJN37"/>
+      <c r="AJO37"/>
+      <c r="AJP37"/>
+      <c r="AJQ37"/>
+      <c r="AJR37"/>
+      <c r="AJS37"/>
+      <c r="AJT37"/>
+      <c r="AJU37"/>
+      <c r="AJV37"/>
+      <c r="AJW37"/>
+      <c r="AJX37"/>
+      <c r="AJY37"/>
+      <c r="AJZ37"/>
+      <c r="AKA37"/>
+      <c r="AKB37"/>
+      <c r="AKC37"/>
+      <c r="AKD37"/>
+      <c r="AKE37"/>
+      <c r="AKF37"/>
+      <c r="AKG37"/>
+      <c r="AKH37"/>
+      <c r="AKI37"/>
+      <c r="AKJ37"/>
+      <c r="AKK37"/>
+      <c r="AKL37"/>
+      <c r="AKM37"/>
+      <c r="AKN37"/>
+      <c r="AKO37"/>
+      <c r="AKP37"/>
+      <c r="AKQ37"/>
+      <c r="AKR37"/>
+      <c r="AKS37"/>
+      <c r="AKT37"/>
+      <c r="AKU37"/>
+      <c r="AKV37"/>
+      <c r="AKW37"/>
+      <c r="AKX37"/>
+      <c r="AKY37"/>
+      <c r="AKZ37"/>
+      <c r="ALA37"/>
+      <c r="ALB37"/>
+      <c r="ALC37"/>
+      <c r="ALD37"/>
+      <c r="ALE37"/>
+      <c r="ALF37"/>
+      <c r="ALG37"/>
+      <c r="ALH37"/>
+      <c r="ALI37"/>
+      <c r="ALJ37"/>
+      <c r="ALK37"/>
+      <c r="ALL37"/>
+      <c r="ALM37"/>
+      <c r="ALN37"/>
+      <c r="ALO37"/>
+      <c r="ALP37"/>
+      <c r="ALQ37"/>
+      <c r="ALR37"/>
+      <c r="ALS37"/>
+      <c r="ALT37"/>
+      <c r="ALU37"/>
+      <c r="ALV37"/>
+      <c r="ALW37"/>
+      <c r="ALX37"/>
+      <c r="ALY37"/>
+      <c r="ALZ37"/>
+      <c r="AMA37"/>
+      <c r="AMB37"/>
+      <c r="AMC37"/>
+      <c r="AMD37"/>
+      <c r="AME37"/>
+      <c r="AMF37"/>
+      <c r="AMG37"/>
+    </row>
+    <row r="38" spans="28:1021" x14ac:dyDescent="0.25">
+      <c r="AB38" s="1"/>
+      <c r="AJA38"/>
+      <c r="AJB38"/>
+      <c r="AJC38"/>
+      <c r="AJD38"/>
+      <c r="AJE38"/>
+      <c r="AJF38"/>
+      <c r="AJG38"/>
+      <c r="AJH38"/>
+      <c r="AJI38"/>
+      <c r="AJJ38"/>
+      <c r="AJK38"/>
+      <c r="AJL38"/>
+      <c r="AJM38"/>
+      <c r="AJN38"/>
+      <c r="AJO38"/>
+      <c r="AJP38"/>
+      <c r="AJQ38"/>
+      <c r="AJR38"/>
+      <c r="AJS38"/>
+      <c r="AJT38"/>
+      <c r="AJU38"/>
+      <c r="AJV38"/>
+      <c r="AJW38"/>
+      <c r="AJX38"/>
+      <c r="AJY38"/>
+      <c r="AJZ38"/>
+      <c r="AKA38"/>
+      <c r="AKB38"/>
+      <c r="AKC38"/>
+      <c r="AKD38"/>
+      <c r="AKE38"/>
+      <c r="AKF38"/>
+      <c r="AKG38"/>
+      <c r="AKH38"/>
+      <c r="AKI38"/>
+      <c r="AKJ38"/>
+      <c r="AKK38"/>
+      <c r="AKL38"/>
+      <c r="AKM38"/>
+      <c r="AKN38"/>
+      <c r="AKO38"/>
+      <c r="AKP38"/>
+      <c r="AKQ38"/>
+      <c r="AKR38"/>
+      <c r="AKS38"/>
+      <c r="AKT38"/>
+      <c r="AKU38"/>
+      <c r="AKV38"/>
+      <c r="AKW38"/>
+      <c r="AKX38"/>
+      <c r="AKY38"/>
+      <c r="AKZ38"/>
+      <c r="ALA38"/>
+      <c r="ALB38"/>
+      <c r="ALC38"/>
+      <c r="ALD38"/>
+      <c r="ALE38"/>
+      <c r="ALF38"/>
+      <c r="ALG38"/>
+      <c r="ALH38"/>
+      <c r="ALI38"/>
+      <c r="ALJ38"/>
+      <c r="ALK38"/>
+      <c r="ALL38"/>
+      <c r="ALM38"/>
+      <c r="ALN38"/>
+      <c r="ALO38"/>
+      <c r="ALP38"/>
+      <c r="ALQ38"/>
+      <c r="ALR38"/>
+      <c r="ALS38"/>
+      <c r="ALT38"/>
+      <c r="ALU38"/>
+      <c r="ALV38"/>
+      <c r="ALW38"/>
+      <c r="ALX38"/>
+      <c r="ALY38"/>
+      <c r="ALZ38"/>
+      <c r="AMA38"/>
+      <c r="AMB38"/>
+      <c r="AMC38"/>
+      <c r="AMD38"/>
+      <c r="AME38"/>
+      <c r="AMF38"/>
+      <c r="AMG38"/>
+    </row>
+    <row r="39" spans="28:1021" x14ac:dyDescent="0.25">
+      <c r="AB39" s="1"/>
+      <c r="AJA39"/>
+      <c r="AJB39"/>
+      <c r="AJC39"/>
+      <c r="AJD39"/>
+      <c r="AJE39"/>
+      <c r="AJF39"/>
+      <c r="AJG39"/>
+      <c r="AJH39"/>
+      <c r="AJI39"/>
+      <c r="AJJ39"/>
+      <c r="AJK39"/>
+      <c r="AJL39"/>
+      <c r="AJM39"/>
+      <c r="AJN39"/>
+      <c r="AJO39"/>
+      <c r="AJP39"/>
+      <c r="AJQ39"/>
+      <c r="AJR39"/>
+      <c r="AJS39"/>
+      <c r="AJT39"/>
+      <c r="AJU39"/>
+      <c r="AJV39"/>
+      <c r="AJW39"/>
+      <c r="AJX39"/>
+      <c r="AJY39"/>
+      <c r="AJZ39"/>
+      <c r="AKA39"/>
+      <c r="AKB39"/>
+      <c r="AKC39"/>
+      <c r="AKD39"/>
+      <c r="AKE39"/>
+      <c r="AKF39"/>
+      <c r="AKG39"/>
+      <c r="AKH39"/>
+      <c r="AKI39"/>
+      <c r="AKJ39"/>
+      <c r="AKK39"/>
+      <c r="AKL39"/>
+      <c r="AKM39"/>
+      <c r="AKN39"/>
+      <c r="AKO39"/>
+      <c r="AKP39"/>
+      <c r="AKQ39"/>
+      <c r="AKR39"/>
+      <c r="AKS39"/>
+      <c r="AKT39"/>
+      <c r="AKU39"/>
+      <c r="AKV39"/>
+      <c r="AKW39"/>
+      <c r="AKX39"/>
+      <c r="AKY39"/>
+      <c r="AKZ39"/>
+      <c r="ALA39"/>
+      <c r="ALB39"/>
+      <c r="ALC39"/>
+      <c r="ALD39"/>
+      <c r="ALE39"/>
+      <c r="ALF39"/>
+      <c r="ALG39"/>
+      <c r="ALH39"/>
+      <c r="ALI39"/>
+      <c r="ALJ39"/>
+      <c r="ALK39"/>
+      <c r="ALL39"/>
+      <c r="ALM39"/>
+      <c r="ALN39"/>
+      <c r="ALO39"/>
+      <c r="ALP39"/>
+      <c r="ALQ39"/>
+      <c r="ALR39"/>
+      <c r="ALS39"/>
+      <c r="ALT39"/>
+      <c r="ALU39"/>
+      <c r="ALV39"/>
+      <c r="ALW39"/>
+      <c r="ALX39"/>
+      <c r="ALY39"/>
+      <c r="ALZ39"/>
+      <c r="AMA39"/>
+      <c r="AMB39"/>
+      <c r="AMC39"/>
+      <c r="AMD39"/>
+      <c r="AME39"/>
+      <c r="AMF39"/>
+      <c r="AMG39"/>
+    </row>
+    <row r="40" spans="28:1021" x14ac:dyDescent="0.25">
+      <c r="AB40" s="1"/>
+      <c r="AJA40"/>
+      <c r="AJB40"/>
+      <c r="AJC40"/>
+      <c r="AJD40"/>
+      <c r="AJE40"/>
+      <c r="AJF40"/>
+      <c r="AJG40"/>
+      <c r="AJH40"/>
+      <c r="AJI40"/>
+      <c r="AJJ40"/>
+      <c r="AJK40"/>
+      <c r="AJL40"/>
+      <c r="AJM40"/>
+      <c r="AJN40"/>
+      <c r="AJO40"/>
+      <c r="AJP40"/>
+      <c r="AJQ40"/>
+      <c r="AJR40"/>
+      <c r="AJS40"/>
+      <c r="AJT40"/>
+      <c r="AJU40"/>
+      <c r="AJV40"/>
+      <c r="AJW40"/>
+      <c r="AJX40"/>
+      <c r="AJY40"/>
+      <c r="AJZ40"/>
+      <c r="AKA40"/>
+      <c r="AKB40"/>
+      <c r="AKC40"/>
+      <c r="AKD40"/>
+      <c r="AKE40"/>
+      <c r="AKF40"/>
+      <c r="AKG40"/>
+      <c r="AKH40"/>
+      <c r="AKI40"/>
+      <c r="AKJ40"/>
+      <c r="AKK40"/>
+      <c r="AKL40"/>
+      <c r="AKM40"/>
+      <c r="AKN40"/>
+      <c r="AKO40"/>
+      <c r="AKP40"/>
+      <c r="AKQ40"/>
+      <c r="AKR40"/>
+      <c r="AKS40"/>
+      <c r="AKT40"/>
+      <c r="AKU40"/>
+      <c r="AKV40"/>
+      <c r="AKW40"/>
+      <c r="AKX40"/>
+      <c r="AKY40"/>
+      <c r="AKZ40"/>
+      <c r="ALA40"/>
+      <c r="ALB40"/>
+      <c r="ALC40"/>
+      <c r="ALD40"/>
+      <c r="ALE40"/>
+      <c r="ALF40"/>
+      <c r="ALG40"/>
+      <c r="ALH40"/>
+      <c r="ALI40"/>
+      <c r="ALJ40"/>
+      <c r="ALK40"/>
+      <c r="ALL40"/>
+      <c r="ALM40"/>
+      <c r="ALN40"/>
+      <c r="ALO40"/>
+      <c r="ALP40"/>
+      <c r="ALQ40"/>
+      <c r="ALR40"/>
+      <c r="ALS40"/>
+      <c r="ALT40"/>
+      <c r="ALU40"/>
+      <c r="ALV40"/>
+      <c r="ALW40"/>
+      <c r="ALX40"/>
+      <c r="ALY40"/>
+      <c r="ALZ40"/>
+      <c r="AMA40"/>
+      <c r="AMB40"/>
+      <c r="AMC40"/>
+      <c r="AMD40"/>
+      <c r="AME40"/>
+      <c r="AMF40"/>
+      <c r="AMG40"/>
+    </row>
+    <row r="41" spans="28:1021" x14ac:dyDescent="0.25">
+      <c r="AB41" s="1"/>
+      <c r="AJA41"/>
+      <c r="AJB41"/>
+      <c r="AJC41"/>
+      <c r="AJD41"/>
+      <c r="AJE41"/>
+      <c r="AJF41"/>
+      <c r="AJG41"/>
+      <c r="AJH41"/>
+      <c r="AJI41"/>
+      <c r="AJJ41"/>
+      <c r="AJK41"/>
+      <c r="AJL41"/>
+      <c r="AJM41"/>
+      <c r="AJN41"/>
+      <c r="AJO41"/>
+      <c r="AJP41"/>
+      <c r="AJQ41"/>
+      <c r="AJR41"/>
+      <c r="AJS41"/>
+      <c r="AJT41"/>
+      <c r="AJU41"/>
+      <c r="AJV41"/>
+      <c r="AJW41"/>
+      <c r="AJX41"/>
+      <c r="AJY41"/>
+      <c r="AJZ41"/>
+      <c r="AKA41"/>
+      <c r="AKB41"/>
+      <c r="AKC41"/>
+      <c r="AKD41"/>
+      <c r="AKE41"/>
+      <c r="AKF41"/>
+      <c r="AKG41"/>
+      <c r="AKH41"/>
+      <c r="AKI41"/>
+      <c r="AKJ41"/>
+      <c r="AKK41"/>
+      <c r="AKL41"/>
+      <c r="AKM41"/>
+      <c r="AKN41"/>
+      <c r="AKO41"/>
+      <c r="AKP41"/>
+      <c r="AKQ41"/>
+      <c r="AKR41"/>
+      <c r="AKS41"/>
+      <c r="AKT41"/>
+      <c r="AKU41"/>
+      <c r="AKV41"/>
+      <c r="AKW41"/>
+      <c r="AKX41"/>
+      <c r="AKY41"/>
+      <c r="AKZ41"/>
+      <c r="ALA41"/>
+      <c r="ALB41"/>
+      <c r="ALC41"/>
+      <c r="ALD41"/>
+      <c r="ALE41"/>
+      <c r="ALF41"/>
+      <c r="ALG41"/>
+      <c r="ALH41"/>
+      <c r="ALI41"/>
+      <c r="ALJ41"/>
+      <c r="ALK41"/>
+      <c r="ALL41"/>
+      <c r="ALM41"/>
+      <c r="ALN41"/>
+      <c r="ALO41"/>
+      <c r="ALP41"/>
+      <c r="ALQ41"/>
+      <c r="ALR41"/>
+      <c r="ALS41"/>
+      <c r="ALT41"/>
+      <c r="ALU41"/>
+      <c r="ALV41"/>
+      <c r="ALW41"/>
+      <c r="ALX41"/>
+      <c r="ALY41"/>
+      <c r="ALZ41"/>
+      <c r="AMA41"/>
+      <c r="AMB41"/>
+      <c r="AMC41"/>
+      <c r="AMD41"/>
+      <c r="AME41"/>
+      <c r="AMF41"/>
+      <c r="AMG41"/>
+    </row>
+    <row r="42" spans="28:1021" x14ac:dyDescent="0.25">
+      <c r="AB42" s="1"/>
+      <c r="AJA42"/>
+      <c r="AJB42"/>
+      <c r="AJC42"/>
+      <c r="AJD42"/>
+      <c r="AJE42"/>
+      <c r="AJF42"/>
+      <c r="AJG42"/>
+      <c r="AJH42"/>
+      <c r="AJI42"/>
+      <c r="AJJ42"/>
+      <c r="AJK42"/>
+      <c r="AJL42"/>
+      <c r="AJM42"/>
+      <c r="AJN42"/>
+      <c r="AJO42"/>
+      <c r="AJP42"/>
+      <c r="AJQ42"/>
+      <c r="AJR42"/>
+      <c r="AJS42"/>
+      <c r="AJT42"/>
+      <c r="AJU42"/>
+      <c r="AJV42"/>
+      <c r="AJW42"/>
+      <c r="AJX42"/>
+      <c r="AJY42"/>
+      <c r="AJZ42"/>
+      <c r="AKA42"/>
+      <c r="AKB42"/>
+      <c r="AKC42"/>
+      <c r="AKD42"/>
+      <c r="AKE42"/>
+      <c r="AKF42"/>
+      <c r="AKG42"/>
+      <c r="AKH42"/>
+      <c r="AKI42"/>
+      <c r="AKJ42"/>
+      <c r="AKK42"/>
+      <c r="AKL42"/>
+      <c r="AKM42"/>
+      <c r="AKN42"/>
+      <c r="AKO42"/>
+      <c r="AKP42"/>
+      <c r="AKQ42"/>
+      <c r="AKR42"/>
+      <c r="AKS42"/>
+      <c r="AKT42"/>
+      <c r="AKU42"/>
+      <c r="AKV42"/>
+      <c r="AKW42"/>
+      <c r="AKX42"/>
+      <c r="AKY42"/>
+      <c r="AKZ42"/>
+      <c r="ALA42"/>
+      <c r="ALB42"/>
+      <c r="ALC42"/>
+      <c r="ALD42"/>
+      <c r="ALE42"/>
+      <c r="ALF42"/>
+      <c r="ALG42"/>
+      <c r="ALH42"/>
+      <c r="ALI42"/>
+      <c r="ALJ42"/>
+      <c r="ALK42"/>
+      <c r="ALL42"/>
+      <c r="ALM42"/>
+      <c r="ALN42"/>
+      <c r="ALO42"/>
+      <c r="ALP42"/>
+      <c r="ALQ42"/>
+      <c r="ALR42"/>
+      <c r="ALS42"/>
+      <c r="ALT42"/>
+      <c r="ALU42"/>
+      <c r="ALV42"/>
+      <c r="ALW42"/>
+      <c r="ALX42"/>
+      <c r="ALY42"/>
+      <c r="ALZ42"/>
+      <c r="AMA42"/>
+      <c r="AMB42"/>
+      <c r="AMC42"/>
+      <c r="AMD42"/>
+      <c r="AME42"/>
+      <c r="AMF42"/>
+      <c r="AMG42"/>
+    </row>
+    <row r="43" spans="28:1021" x14ac:dyDescent="0.25">
+      <c r="AB43" s="1"/>
+      <c r="AJA43"/>
+      <c r="AJB43"/>
+      <c r="AJC43"/>
+      <c r="AJD43"/>
+      <c r="AJE43"/>
+      <c r="AJF43"/>
+      <c r="AJG43"/>
+      <c r="AJH43"/>
+      <c r="AJI43"/>
+      <c r="AJJ43"/>
+      <c r="AJK43"/>
+      <c r="AJL43"/>
+      <c r="AJM43"/>
+      <c r="AJN43"/>
+      <c r="AJO43"/>
+      <c r="AJP43"/>
+      <c r="AJQ43"/>
+      <c r="AJR43"/>
+      <c r="AJS43"/>
+      <c r="AJT43"/>
+      <c r="AJU43"/>
+      <c r="AJV43"/>
+      <c r="AJW43"/>
+      <c r="AJX43"/>
+      <c r="AJY43"/>
+      <c r="AJZ43"/>
+      <c r="AKA43"/>
+      <c r="AKB43"/>
+      <c r="AKC43"/>
+      <c r="AKD43"/>
+      <c r="AKE43"/>
+      <c r="AKF43"/>
+      <c r="AKG43"/>
+      <c r="AKH43"/>
+      <c r="AKI43"/>
+      <c r="AKJ43"/>
+      <c r="AKK43"/>
+      <c r="AKL43"/>
+      <c r="AKM43"/>
+      <c r="AKN43"/>
+      <c r="AKO43"/>
+      <c r="AKP43"/>
+      <c r="AKQ43"/>
+      <c r="AKR43"/>
+      <c r="AKS43"/>
+      <c r="AKT43"/>
+      <c r="AKU43"/>
+      <c r="AKV43"/>
+      <c r="AKW43"/>
+      <c r="AKX43"/>
+      <c r="AKY43"/>
+      <c r="AKZ43"/>
+      <c r="ALA43"/>
+      <c r="ALB43"/>
+      <c r="ALC43"/>
+      <c r="ALD43"/>
+      <c r="ALE43"/>
+      <c r="ALF43"/>
+      <c r="ALG43"/>
+      <c r="ALH43"/>
+      <c r="ALI43"/>
+      <c r="ALJ43"/>
+      <c r="ALK43"/>
+      <c r="ALL43"/>
+      <c r="ALM43"/>
+      <c r="ALN43"/>
+      <c r="ALO43"/>
+      <c r="ALP43"/>
+      <c r="ALQ43"/>
+      <c r="ALR43"/>
+      <c r="ALS43"/>
+      <c r="ALT43"/>
+      <c r="ALU43"/>
+      <c r="ALV43"/>
+      <c r="ALW43"/>
+      <c r="ALX43"/>
+      <c r="ALY43"/>
+      <c r="ALZ43"/>
+      <c r="AMA43"/>
+      <c r="AMB43"/>
+      <c r="AMC43"/>
+      <c r="AMD43"/>
+      <c r="AME43"/>
+      <c r="AMF43"/>
+      <c r="AMG43"/>
+    </row>
+    <row r="44" spans="28:1021" x14ac:dyDescent="0.25">
+      <c r="AB44" s="1"/>
+      <c r="AJA44"/>
+      <c r="AJB44"/>
+      <c r="AJC44"/>
+      <c r="AJD44"/>
+      <c r="AJE44"/>
+      <c r="AJF44"/>
+      <c r="AJG44"/>
+      <c r="AJH44"/>
+      <c r="AJI44"/>
+      <c r="AJJ44"/>
+      <c r="AJK44"/>
+      <c r="AJL44"/>
+      <c r="AJM44"/>
+      <c r="AJN44"/>
+      <c r="AJO44"/>
+      <c r="AJP44"/>
+      <c r="AJQ44"/>
+      <c r="AJR44"/>
+      <c r="AJS44"/>
+      <c r="AJT44"/>
+      <c r="AJU44"/>
+      <c r="AJV44"/>
+      <c r="AJW44"/>
+      <c r="AJX44"/>
+      <c r="AJY44"/>
+      <c r="AJZ44"/>
+      <c r="AKA44"/>
+      <c r="AKB44"/>
+      <c r="AKC44"/>
+      <c r="AKD44"/>
+      <c r="AKE44"/>
+      <c r="AKF44"/>
+      <c r="AKG44"/>
+      <c r="AKH44"/>
+      <c r="AKI44"/>
+      <c r="AKJ44"/>
+      <c r="AKK44"/>
+      <c r="AKL44"/>
+      <c r="AKM44"/>
+      <c r="AKN44"/>
+      <c r="AKO44"/>
+      <c r="AKP44"/>
+      <c r="AKQ44"/>
+      <c r="AKR44"/>
+      <c r="AKS44"/>
+      <c r="AKT44"/>
+      <c r="AKU44"/>
+      <c r="AKV44"/>
+      <c r="AKW44"/>
+      <c r="AKX44"/>
+      <c r="AKY44"/>
+      <c r="AKZ44"/>
+      <c r="ALA44"/>
+      <c r="ALB44"/>
+      <c r="ALC44"/>
+      <c r="ALD44"/>
+      <c r="ALE44"/>
+      <c r="ALF44"/>
+      <c r="ALG44"/>
+      <c r="ALH44"/>
+      <c r="ALI44"/>
+      <c r="ALJ44"/>
+      <c r="ALK44"/>
+      <c r="ALL44"/>
+      <c r="ALM44"/>
+      <c r="ALN44"/>
+      <c r="ALO44"/>
+      <c r="ALP44"/>
+      <c r="ALQ44"/>
+      <c r="ALR44"/>
+      <c r="ALS44"/>
+      <c r="ALT44"/>
+      <c r="ALU44"/>
+      <c r="ALV44"/>
+      <c r="ALW44"/>
+      <c r="ALX44"/>
+      <c r="ALY44"/>
+      <c r="ALZ44"/>
+      <c r="AMA44"/>
+      <c r="AMB44"/>
+      <c r="AMC44"/>
+      <c r="AMD44"/>
+      <c r="AME44"/>
+      <c r="AMF44"/>
+      <c r="AMG44"/>
+    </row>
+    <row r="45" spans="28:1021" x14ac:dyDescent="0.25">
+      <c r="AB45" s="1"/>
+      <c r="AJA45"/>
+      <c r="AJB45"/>
+      <c r="AJC45"/>
+      <c r="AJD45"/>
+      <c r="AJE45"/>
+      <c r="AJF45"/>
+      <c r="AJG45"/>
+      <c r="AJH45"/>
+      <c r="AJI45"/>
+      <c r="AJJ45"/>
+      <c r="AJK45"/>
+      <c r="AJL45"/>
+      <c r="AJM45"/>
+      <c r="AJN45"/>
+      <c r="AJO45"/>
+      <c r="AJP45"/>
+      <c r="AJQ45"/>
+      <c r="AJR45"/>
+      <c r="AJS45"/>
+      <c r="AJT45"/>
+      <c r="AJU45"/>
+      <c r="AJV45"/>
+      <c r="AJW45"/>
+      <c r="AJX45"/>
+      <c r="AJY45"/>
+      <c r="AJZ45"/>
+      <c r="AKA45"/>
+      <c r="AKB45"/>
+      <c r="AKC45"/>
+      <c r="AKD45"/>
+      <c r="AKE45"/>
+      <c r="AKF45"/>
+      <c r="AKG45"/>
+      <c r="AKH45"/>
+      <c r="AKI45"/>
+      <c r="AKJ45"/>
+      <c r="AKK45"/>
+      <c r="AKL45"/>
+      <c r="AKM45"/>
+      <c r="AKN45"/>
+      <c r="AKO45"/>
+      <c r="AKP45"/>
+      <c r="AKQ45"/>
+      <c r="AKR45"/>
+      <c r="AKS45"/>
+      <c r="AKT45"/>
+      <c r="AKU45"/>
+      <c r="AKV45"/>
+      <c r="AKW45"/>
+      <c r="AKX45"/>
+      <c r="AKY45"/>
+      <c r="AKZ45"/>
+      <c r="ALA45"/>
+      <c r="ALB45"/>
+      <c r="ALC45"/>
+      <c r="ALD45"/>
+      <c r="ALE45"/>
+      <c r="ALF45"/>
+      <c r="ALG45"/>
+      <c r="ALH45"/>
+      <c r="ALI45"/>
+      <c r="ALJ45"/>
+      <c r="ALK45"/>
+      <c r="ALL45"/>
+      <c r="ALM45"/>
+      <c r="ALN45"/>
+      <c r="ALO45"/>
+      <c r="ALP45"/>
+      <c r="ALQ45"/>
+      <c r="ALR45"/>
+      <c r="ALS45"/>
+      <c r="ALT45"/>
+      <c r="ALU45"/>
+      <c r="ALV45"/>
+      <c r="ALW45"/>
+      <c r="ALX45"/>
+      <c r="ALY45"/>
+      <c r="ALZ45"/>
+      <c r="AMA45"/>
+      <c r="AMB45"/>
+      <c r="AMC45"/>
+      <c r="AMD45"/>
+      <c r="AME45"/>
+      <c r="AMF45"/>
+      <c r="AMG45"/>
+    </row>
+    <row r="46" spans="28:1021" x14ac:dyDescent="0.25">
+      <c r="AB46" s="1"/>
+      <c r="AJA46"/>
+      <c r="AJB46"/>
+      <c r="AJC46"/>
+      <c r="AJD46"/>
+      <c r="AJE46"/>
+      <c r="AJF46"/>
+      <c r="AJG46"/>
+      <c r="AJH46"/>
+      <c r="AJI46"/>
+      <c r="AJJ46"/>
+      <c r="AJK46"/>
+      <c r="AJL46"/>
+      <c r="AJM46"/>
+      <c r="AJN46"/>
+      <c r="AJO46"/>
+      <c r="AJP46"/>
+      <c r="AJQ46"/>
+      <c r="AJR46"/>
+      <c r="AJS46"/>
+      <c r="AJT46"/>
+      <c r="AJU46"/>
+      <c r="AJV46"/>
+      <c r="AJW46"/>
+      <c r="AJX46"/>
+      <c r="AJY46"/>
+      <c r="AJZ46"/>
+      <c r="AKA46"/>
+      <c r="AKB46"/>
+      <c r="AKC46"/>
+      <c r="AKD46"/>
+      <c r="AKE46"/>
+      <c r="AKF46"/>
+      <c r="AKG46"/>
+      <c r="AKH46"/>
+      <c r="AKI46"/>
+      <c r="AKJ46"/>
+      <c r="AKK46"/>
+      <c r="AKL46"/>
+      <c r="AKM46"/>
+      <c r="AKN46"/>
+      <c r="AKO46"/>
+      <c r="AKP46"/>
+      <c r="AKQ46"/>
+      <c r="AKR46"/>
+      <c r="AKS46"/>
+      <c r="AKT46"/>
+      <c r="AKU46"/>
+      <c r="AKV46"/>
+      <c r="AKW46"/>
+      <c r="AKX46"/>
+      <c r="AKY46"/>
+      <c r="AKZ46"/>
+      <c r="ALA46"/>
+      <c r="ALB46"/>
+      <c r="ALC46"/>
+      <c r="ALD46"/>
+      <c r="ALE46"/>
+      <c r="ALF46"/>
+      <c r="ALG46"/>
+      <c r="ALH46"/>
+      <c r="ALI46"/>
+      <c r="ALJ46"/>
+      <c r="ALK46"/>
+      <c r="ALL46"/>
+      <c r="ALM46"/>
+      <c r="ALN46"/>
+      <c r="ALO46"/>
+      <c r="ALP46"/>
+      <c r="ALQ46"/>
+      <c r="ALR46"/>
+      <c r="ALS46"/>
+      <c r="ALT46"/>
+      <c r="ALU46"/>
+      <c r="ALV46"/>
+      <c r="ALW46"/>
+      <c r="ALX46"/>
+      <c r="ALY46"/>
+      <c r="ALZ46"/>
+      <c r="AMA46"/>
+      <c r="AMB46"/>
+      <c r="AMC46"/>
+      <c r="AMD46"/>
+      <c r="AME46"/>
+      <c r="AMF46"/>
+      <c r="AMG46"/>
+    </row>
+    <row r="47" spans="28:1021" x14ac:dyDescent="0.25">
+      <c r="AB47" s="1"/>
+      <c r="AJA47"/>
+      <c r="AJB47"/>
+      <c r="AJC47"/>
+      <c r="AJD47"/>
+      <c r="AJE47"/>
+      <c r="AJF47"/>
+      <c r="AJG47"/>
+      <c r="AJH47"/>
+      <c r="AJI47"/>
+      <c r="AJJ47"/>
+      <c r="AJK47"/>
+      <c r="AJL47"/>
+      <c r="AJM47"/>
+      <c r="AJN47"/>
+      <c r="AJO47"/>
+      <c r="AJP47"/>
+      <c r="AJQ47"/>
+      <c r="AJR47"/>
+      <c r="AJS47"/>
+      <c r="AJT47"/>
+      <c r="AJU47"/>
+      <c r="AJV47"/>
+      <c r="AJW47"/>
+      <c r="AJX47"/>
+      <c r="AJY47"/>
+      <c r="AJZ47"/>
+      <c r="AKA47"/>
+      <c r="AKB47"/>
+      <c r="AKC47"/>
+      <c r="AKD47"/>
+      <c r="AKE47"/>
+      <c r="AKF47"/>
+      <c r="AKG47"/>
+      <c r="AKH47"/>
+      <c r="AKI47"/>
+      <c r="AKJ47"/>
+      <c r="AKK47"/>
+      <c r="AKL47"/>
+      <c r="AKM47"/>
+      <c r="AKN47"/>
+      <c r="AKO47"/>
+      <c r="AKP47"/>
+      <c r="AKQ47"/>
+      <c r="AKR47"/>
+      <c r="AKS47"/>
+      <c r="AKT47"/>
+      <c r="AKU47"/>
+      <c r="AKV47"/>
+      <c r="AKW47"/>
+      <c r="AKX47"/>
+      <c r="AKY47"/>
+      <c r="AKZ47"/>
+      <c r="ALA47"/>
+      <c r="ALB47"/>
+      <c r="ALC47"/>
+      <c r="ALD47"/>
+      <c r="ALE47"/>
+      <c r="ALF47"/>
+      <c r="ALG47"/>
+      <c r="ALH47"/>
+      <c r="ALI47"/>
+      <c r="ALJ47"/>
+      <c r="ALK47"/>
+      <c r="ALL47"/>
+      <c r="ALM47"/>
+      <c r="ALN47"/>
+      <c r="ALO47"/>
+      <c r="ALP47"/>
+      <c r="ALQ47"/>
+      <c r="ALR47"/>
+      <c r="ALS47"/>
+      <c r="ALT47"/>
+      <c r="ALU47"/>
+      <c r="ALV47"/>
+      <c r="ALW47"/>
+      <c r="ALX47"/>
+      <c r="ALY47"/>
+      <c r="ALZ47"/>
+      <c r="AMA47"/>
+      <c r="AMB47"/>
+      <c r="AMC47"/>
+      <c r="AMD47"/>
+      <c r="AME47"/>
+      <c r="AMF47"/>
+      <c r="AMG47"/>
+    </row>
+    <row r="48" spans="28:1021" x14ac:dyDescent="0.25">
+      <c r="AB48" s="1"/>
+      <c r="AJA48"/>
+      <c r="AJB48"/>
+      <c r="AJC48"/>
+      <c r="AJD48"/>
+      <c r="AJE48"/>
+      <c r="AJF48"/>
+      <c r="AJG48"/>
+      <c r="AJH48"/>
+      <c r="AJI48"/>
+      <c r="AJJ48"/>
+      <c r="AJK48"/>
+      <c r="AJL48"/>
+      <c r="AJM48"/>
+      <c r="AJN48"/>
+      <c r="AJO48"/>
+      <c r="AJP48"/>
+      <c r="AJQ48"/>
+      <c r="AJR48"/>
+      <c r="AJS48"/>
+      <c r="AJT48"/>
+      <c r="AJU48"/>
+      <c r="AJV48"/>
+      <c r="AJW48"/>
+      <c r="AJX48"/>
+      <c r="AJY48"/>
+      <c r="AJZ48"/>
+      <c r="AKA48"/>
+      <c r="AKB48"/>
+      <c r="AKC48"/>
+      <c r="AKD48"/>
+      <c r="AKE48"/>
+      <c r="AKF48"/>
+      <c r="AKG48"/>
+      <c r="AKH48"/>
+      <c r="AKI48"/>
+      <c r="AKJ48"/>
+      <c r="AKK48"/>
+      <c r="AKL48"/>
+      <c r="AKM48"/>
+      <c r="AKN48"/>
+      <c r="AKO48"/>
+      <c r="AKP48"/>
+      <c r="AKQ48"/>
+      <c r="AKR48"/>
+      <c r="AKS48"/>
+      <c r="AKT48"/>
+      <c r="AKU48"/>
+      <c r="AKV48"/>
+      <c r="AKW48"/>
+      <c r="AKX48"/>
+      <c r="AKY48"/>
+      <c r="AKZ48"/>
+      <c r="ALA48"/>
+      <c r="ALB48"/>
+      <c r="ALC48"/>
+      <c r="ALD48"/>
+      <c r="ALE48"/>
+      <c r="ALF48"/>
+      <c r="ALG48"/>
+      <c r="ALH48"/>
+      <c r="ALI48"/>
+      <c r="ALJ48"/>
+      <c r="ALK48"/>
+      <c r="ALL48"/>
+      <c r="ALM48"/>
+      <c r="ALN48"/>
+      <c r="ALO48"/>
+      <c r="ALP48"/>
+      <c r="ALQ48"/>
+      <c r="ALR48"/>
+      <c r="ALS48"/>
+      <c r="ALT48"/>
+      <c r="ALU48"/>
+      <c r="ALV48"/>
+      <c r="ALW48"/>
+      <c r="ALX48"/>
+      <c r="ALY48"/>
+      <c r="ALZ48"/>
+      <c r="AMA48"/>
+      <c r="AMB48"/>
+      <c r="AMC48"/>
+      <c r="AMD48"/>
+      <c r="AME48"/>
+      <c r="AMF48"/>
+      <c r="AMG48"/>
+    </row>
+    <row r="49" spans="28:1021" x14ac:dyDescent="0.25">
+      <c r="AB49" s="1"/>
+      <c r="AJA49"/>
+      <c r="AJB49"/>
+      <c r="AJC49"/>
+      <c r="AJD49"/>
+      <c r="AJE49"/>
+      <c r="AJF49"/>
+      <c r="AJG49"/>
+      <c r="AJH49"/>
+      <c r="AJI49"/>
+      <c r="AJJ49"/>
+      <c r="AJK49"/>
+      <c r="AJL49"/>
+      <c r="AJM49"/>
+      <c r="AJN49"/>
+      <c r="AJO49"/>
+      <c r="AJP49"/>
+      <c r="AJQ49"/>
+      <c r="AJR49"/>
+      <c r="AJS49"/>
+      <c r="AJT49"/>
+      <c r="AJU49"/>
+      <c r="AJV49"/>
+      <c r="AJW49"/>
+      <c r="AJX49"/>
+      <c r="AJY49"/>
+      <c r="AJZ49"/>
+      <c r="AKA49"/>
+      <c r="AKB49"/>
+      <c r="AKC49"/>
+      <c r="AKD49"/>
+      <c r="AKE49"/>
+      <c r="AKF49"/>
+      <c r="AKG49"/>
+      <c r="AKH49"/>
+      <c r="AKI49"/>
+      <c r="AKJ49"/>
+      <c r="AKK49"/>
+      <c r="AKL49"/>
+      <c r="AKM49"/>
+      <c r="AKN49"/>
+      <c r="AKO49"/>
+      <c r="AKP49"/>
+      <c r="AKQ49"/>
+      <c r="AKR49"/>
+      <c r="AKS49"/>
+      <c r="AKT49"/>
+      <c r="AKU49"/>
+      <c r="AKV49"/>
+      <c r="AKW49"/>
+      <c r="AKX49"/>
+      <c r="AKY49"/>
+      <c r="AKZ49"/>
+      <c r="ALA49"/>
+      <c r="ALB49"/>
+      <c r="ALC49"/>
+      <c r="ALD49"/>
+      <c r="ALE49"/>
+      <c r="ALF49"/>
+      <c r="ALG49"/>
+      <c r="ALH49"/>
+      <c r="ALI49"/>
+      <c r="ALJ49"/>
+      <c r="ALK49"/>
+      <c r="ALL49"/>
+      <c r="ALM49"/>
+      <c r="ALN49"/>
+      <c r="ALO49"/>
+      <c r="ALP49"/>
+      <c r="ALQ49"/>
+      <c r="ALR49"/>
+      <c r="ALS49"/>
+      <c r="ALT49"/>
+      <c r="ALU49"/>
+      <c r="ALV49"/>
+      <c r="ALW49"/>
+      <c r="ALX49"/>
+      <c r="ALY49"/>
+      <c r="ALZ49"/>
+      <c r="AMA49"/>
+      <c r="AMB49"/>
+      <c r="AMC49"/>
+      <c r="AMD49"/>
+      <c r="AME49"/>
+      <c r="AMF49"/>
+      <c r="AMG49"/>
+    </row>
+    <row r="50" spans="28:1021" x14ac:dyDescent="0.25">
+      <c r="AB50" s="1"/>
+      <c r="AJA50"/>
+      <c r="AJB50"/>
+      <c r="AJC50"/>
+      <c r="AJD50"/>
+      <c r="AJE50"/>
+      <c r="AJF50"/>
+      <c r="AJG50"/>
+      <c r="AJH50"/>
+      <c r="AJI50"/>
+      <c r="AJJ50"/>
+      <c r="AJK50"/>
+      <c r="AJL50"/>
+      <c r="AJM50"/>
+      <c r="AJN50"/>
+      <c r="AJO50"/>
+      <c r="AJP50"/>
+      <c r="AJQ50"/>
+      <c r="AJR50"/>
+      <c r="AJS50"/>
+      <c r="AJT50"/>
+      <c r="AJU50"/>
+      <c r="AJV50"/>
+      <c r="AJW50"/>
+      <c r="AJX50"/>
+      <c r="AJY50"/>
+      <c r="AJZ50"/>
+      <c r="AKA50"/>
+      <c r="AKB50"/>
+      <c r="AKC50"/>
+      <c r="AKD50"/>
+      <c r="AKE50"/>
+      <c r="AKF50"/>
+      <c r="AKG50"/>
+      <c r="AKH50"/>
+      <c r="AKI50"/>
+      <c r="AKJ50"/>
+      <c r="AKK50"/>
+      <c r="AKL50"/>
+      <c r="AKM50"/>
+      <c r="AKN50"/>
+      <c r="AKO50"/>
+      <c r="AKP50"/>
+      <c r="AKQ50"/>
+      <c r="AKR50"/>
+      <c r="AKS50"/>
+      <c r="AKT50"/>
+      <c r="AKU50"/>
+      <c r="AKV50"/>
+      <c r="AKW50"/>
+      <c r="AKX50"/>
+      <c r="AKY50"/>
+      <c r="AKZ50"/>
+      <c r="ALA50"/>
+      <c r="ALB50"/>
+      <c r="ALC50"/>
+      <c r="ALD50"/>
+      <c r="ALE50"/>
+      <c r="ALF50"/>
+      <c r="ALG50"/>
+      <c r="ALH50"/>
+      <c r="ALI50"/>
+      <c r="ALJ50"/>
+      <c r="ALK50"/>
+      <c r="ALL50"/>
+      <c r="ALM50"/>
+      <c r="ALN50"/>
+      <c r="ALO50"/>
+      <c r="ALP50"/>
+      <c r="ALQ50"/>
+      <c r="ALR50"/>
+      <c r="ALS50"/>
+      <c r="ALT50"/>
+      <c r="ALU50"/>
+      <c r="ALV50"/>
+      <c r="ALW50"/>
+      <c r="ALX50"/>
+      <c r="ALY50"/>
+      <c r="ALZ50"/>
+      <c r="AMA50"/>
+      <c r="AMB50"/>
+      <c r="AMC50"/>
+      <c r="AMD50"/>
+      <c r="AME50"/>
+      <c r="AMF50"/>
+      <c r="AMG50"/>
+    </row>
+    <row r="51" spans="28:1021" x14ac:dyDescent="0.25">
+      <c r="AB51" s="1"/>
+      <c r="AJA51"/>
+      <c r="AJB51"/>
+      <c r="AJC51"/>
+      <c r="AJD51"/>
+      <c r="AJE51"/>
+      <c r="AJF51"/>
+      <c r="AJG51"/>
+      <c r="AJH51"/>
+      <c r="AJI51"/>
+      <c r="AJJ51"/>
+      <c r="AJK51"/>
+      <c r="AJL51"/>
+      <c r="AJM51"/>
+      <c r="AJN51"/>
+      <c r="AJO51"/>
+      <c r="AJP51"/>
+      <c r="AJQ51"/>
+      <c r="AJR51"/>
+      <c r="AJS51"/>
+      <c r="AJT51"/>
+      <c r="AJU51"/>
+      <c r="AJV51"/>
+      <c r="AJW51"/>
+      <c r="AJX51"/>
+      <c r="AJY51"/>
+      <c r="AJZ51"/>
+      <c r="AKA51"/>
+      <c r="AKB51"/>
+      <c r="AKC51"/>
+      <c r="AKD51"/>
+      <c r="AKE51"/>
+      <c r="AKF51"/>
+      <c r="AKG51"/>
+      <c r="AKH51"/>
+      <c r="AKI51"/>
+      <c r="AKJ51"/>
+      <c r="AKK51"/>
+      <c r="AKL51"/>
+      <c r="AKM51"/>
+      <c r="AKN51"/>
+      <c r="AKO51"/>
+      <c r="AKP51"/>
+      <c r="AKQ51"/>
+      <c r="AKR51"/>
+      <c r="AKS51"/>
+      <c r="AKT51"/>
+      <c r="AKU51"/>
+      <c r="AKV51"/>
+      <c r="AKW51"/>
+      <c r="AKX51"/>
+      <c r="AKY51"/>
+      <c r="AKZ51"/>
+      <c r="ALA51"/>
+      <c r="ALB51"/>
+      <c r="ALC51"/>
+      <c r="ALD51"/>
+      <c r="ALE51"/>
+      <c r="ALF51"/>
+      <c r="ALG51"/>
+      <c r="ALH51"/>
+      <c r="ALI51"/>
+      <c r="ALJ51"/>
+      <c r="ALK51"/>
+      <c r="ALL51"/>
+      <c r="ALM51"/>
+      <c r="ALN51"/>
+      <c r="ALO51"/>
+      <c r="ALP51"/>
+      <c r="ALQ51"/>
+      <c r="ALR51"/>
+      <c r="ALS51"/>
+      <c r="ALT51"/>
+      <c r="ALU51"/>
+      <c r="ALV51"/>
+      <c r="ALW51"/>
+      <c r="ALX51"/>
+      <c r="ALY51"/>
+      <c r="ALZ51"/>
+      <c r="AMA51"/>
+      <c r="AMB51"/>
+      <c r="AMC51"/>
+      <c r="AMD51"/>
+      <c r="AME51"/>
+      <c r="AMF51"/>
+      <c r="AMG51"/>
+    </row>
+    <row r="52" spans="28:1021" x14ac:dyDescent="0.25">
+      <c r="AB52" s="1"/>
+      <c r="AJA52"/>
+      <c r="AJB52"/>
+      <c r="AJC52"/>
+      <c r="AJD52"/>
+      <c r="AJE52"/>
+      <c r="AJF52"/>
+      <c r="AJG52"/>
+      <c r="AJH52"/>
+      <c r="AJI52"/>
+      <c r="AJJ52"/>
+      <c r="AJK52"/>
+      <c r="AJL52"/>
+      <c r="AJM52"/>
+      <c r="AJN52"/>
+      <c r="AJO52"/>
+      <c r="AJP52"/>
+      <c r="AJQ52"/>
+      <c r="AJR52"/>
+      <c r="AJS52"/>
+      <c r="AJT52"/>
+      <c r="AJU52"/>
+      <c r="AJV52"/>
+      <c r="AJW52"/>
+      <c r="AJX52"/>
+      <c r="AJY52"/>
+      <c r="AJZ52"/>
+      <c r="AKA52"/>
+      <c r="AKB52"/>
+      <c r="AKC52"/>
+      <c r="AKD52"/>
+      <c r="AKE52"/>
+      <c r="AKF52"/>
+      <c r="AKG52"/>
+      <c r="AKH52"/>
+      <c r="AKI52"/>
+      <c r="AKJ52"/>
+      <c r="AKK52"/>
+      <c r="AKL52"/>
+      <c r="AKM52"/>
+      <c r="AKN52"/>
+      <c r="AKO52"/>
+      <c r="AKP52"/>
+      <c r="AKQ52"/>
+      <c r="AKR52"/>
+      <c r="AKS52"/>
+      <c r="AKT52"/>
+      <c r="AKU52"/>
+      <c r="AKV52"/>
+      <c r="AKW52"/>
+      <c r="AKX52"/>
+      <c r="AKY52"/>
+      <c r="AKZ52"/>
+      <c r="ALA52"/>
+      <c r="ALB52"/>
+      <c r="ALC52"/>
+      <c r="ALD52"/>
+      <c r="ALE52"/>
+      <c r="ALF52"/>
+      <c r="ALG52"/>
+      <c r="ALH52"/>
+      <c r="ALI52"/>
+      <c r="ALJ52"/>
+      <c r="ALK52"/>
+      <c r="ALL52"/>
+      <c r="ALM52"/>
+      <c r="ALN52"/>
+      <c r="ALO52"/>
+      <c r="ALP52"/>
+      <c r="ALQ52"/>
+      <c r="ALR52"/>
+      <c r="ALS52"/>
+      <c r="ALT52"/>
+      <c r="ALU52"/>
+      <c r="ALV52"/>
+      <c r="ALW52"/>
+      <c r="ALX52"/>
+      <c r="ALY52"/>
+      <c r="ALZ52"/>
+      <c r="AMA52"/>
+      <c r="AMB52"/>
+      <c r="AMC52"/>
+      <c r="AMD52"/>
+      <c r="AME52"/>
+      <c r="AMF52"/>
+      <c r="AMG52"/>
+    </row>
+    <row r="53" spans="28:1021" x14ac:dyDescent="0.25">
+      <c r="AB53" s="1"/>
+      <c r="AJA53"/>
+      <c r="AJB53"/>
+      <c r="AJC53"/>
+      <c r="AJD53"/>
+      <c r="AJE53"/>
+      <c r="AJF53"/>
+      <c r="AJG53"/>
+      <c r="AJH53"/>
+      <c r="AJI53"/>
+      <c r="AJJ53"/>
+      <c r="AJK53"/>
+      <c r="AJL53"/>
+      <c r="AJM53"/>
+      <c r="AJN53"/>
+      <c r="AJO53"/>
+      <c r="AJP53"/>
+      <c r="AJQ53"/>
+      <c r="AJR53"/>
+      <c r="AJS53"/>
+      <c r="AJT53"/>
+      <c r="AJU53"/>
+      <c r="AJV53"/>
+      <c r="AJW53"/>
+      <c r="AJX53"/>
+      <c r="AJY53"/>
+      <c r="AJZ53"/>
+      <c r="AKA53"/>
+      <c r="AKB53"/>
+      <c r="AKC53"/>
+      <c r="AKD53"/>
+      <c r="AKE53"/>
+      <c r="AKF53"/>
+      <c r="AKG53"/>
+      <c r="AKH53"/>
+      <c r="AKI53"/>
+      <c r="AKJ53"/>
+      <c r="AKK53"/>
+      <c r="AKL53"/>
+      <c r="AKM53"/>
+      <c r="AKN53"/>
+      <c r="AKO53"/>
+      <c r="AKP53"/>
+      <c r="AKQ53"/>
+      <c r="AKR53"/>
+      <c r="AKS53"/>
+      <c r="AKT53"/>
+      <c r="AKU53"/>
+      <c r="AKV53"/>
+      <c r="AKW53"/>
+      <c r="AKX53"/>
+      <c r="AKY53"/>
+      <c r="AKZ53"/>
+      <c r="ALA53"/>
+      <c r="ALB53"/>
+      <c r="ALC53"/>
+      <c r="ALD53"/>
+      <c r="ALE53"/>
+      <c r="ALF53"/>
+      <c r="ALG53"/>
+      <c r="ALH53"/>
+      <c r="ALI53"/>
+      <c r="ALJ53"/>
+      <c r="ALK53"/>
+      <c r="ALL53"/>
+      <c r="ALM53"/>
+      <c r="ALN53"/>
+      <c r="ALO53"/>
+      <c r="ALP53"/>
+      <c r="ALQ53"/>
+      <c r="ALR53"/>
+      <c r="ALS53"/>
+      <c r="ALT53"/>
+      <c r="ALU53"/>
+      <c r="ALV53"/>
+      <c r="ALW53"/>
+      <c r="ALX53"/>
+      <c r="ALY53"/>
+      <c r="ALZ53"/>
+      <c r="AMA53"/>
+      <c r="AMB53"/>
+      <c r="AMC53"/>
+      <c r="AMD53"/>
+      <c r="AME53"/>
+      <c r="AMF53"/>
+      <c r="AMG53"/>
+    </row>
+    <row r="54" spans="28:1021" x14ac:dyDescent="0.25">
+      <c r="AB54" s="1"/>
+      <c r="AJA54"/>
+      <c r="AJB54"/>
+      <c r="AJC54"/>
+      <c r="AJD54"/>
+      <c r="AJE54"/>
+      <c r="AJF54"/>
+      <c r="AJG54"/>
+      <c r="AJH54"/>
+      <c r="AJI54"/>
+      <c r="AJJ54"/>
+      <c r="AJK54"/>
+      <c r="AJL54"/>
+      <c r="AJM54"/>
+      <c r="AJN54"/>
+      <c r="AJO54"/>
+      <c r="AJP54"/>
+      <c r="AJQ54"/>
+      <c r="AJR54"/>
+      <c r="AJS54"/>
+      <c r="AJT54"/>
+      <c r="AJU54"/>
+      <c r="AJV54"/>
+      <c r="AJW54"/>
+      <c r="AJX54"/>
+      <c r="AJY54"/>
+      <c r="AJZ54"/>
+      <c r="AKA54"/>
+      <c r="AKB54"/>
+      <c r="AKC54"/>
+      <c r="AKD54"/>
+      <c r="AKE54"/>
+      <c r="AKF54"/>
+      <c r="AKG54"/>
+      <c r="AKH54"/>
+      <c r="AKI54"/>
+      <c r="AKJ54"/>
+      <c r="AKK54"/>
+      <c r="AKL54"/>
+      <c r="AKM54"/>
+      <c r="AKN54"/>
+      <c r="AKO54"/>
+      <c r="AKP54"/>
+      <c r="AKQ54"/>
+      <c r="AKR54"/>
+      <c r="AKS54"/>
+      <c r="AKT54"/>
+      <c r="AKU54"/>
+      <c r="AKV54"/>
+      <c r="AKW54"/>
+      <c r="AKX54"/>
+      <c r="AKY54"/>
+      <c r="AKZ54"/>
+      <c r="ALA54"/>
+      <c r="ALB54"/>
+      <c r="ALC54"/>
+      <c r="ALD54"/>
+      <c r="ALE54"/>
+      <c r="ALF54"/>
+      <c r="ALG54"/>
+      <c r="ALH54"/>
+      <c r="ALI54"/>
+      <c r="ALJ54"/>
+      <c r="ALK54"/>
+      <c r="ALL54"/>
+      <c r="ALM54"/>
+      <c r="ALN54"/>
+      <c r="ALO54"/>
+      <c r="ALP54"/>
+      <c r="ALQ54"/>
+      <c r="ALR54"/>
+      <c r="ALS54"/>
+      <c r="ALT54"/>
+      <c r="ALU54"/>
+      <c r="ALV54"/>
+      <c r="ALW54"/>
+      <c r="ALX54"/>
+      <c r="ALY54"/>
+      <c r="ALZ54"/>
+      <c r="AMA54"/>
+      <c r="AMB54"/>
+      <c r="AMC54"/>
+      <c r="AMD54"/>
+      <c r="AME54"/>
+      <c r="AMF54"/>
+      <c r="AMG54"/>
+    </row>
+    <row r="55" spans="28:1021" x14ac:dyDescent="0.25">
+      <c r="AB55" s="1"/>
+      <c r="AJA55"/>
+      <c r="AJB55"/>
+      <c r="AJC55"/>
+      <c r="AJD55"/>
+      <c r="AJE55"/>
+      <c r="AJF55"/>
+      <c r="AJG55"/>
+      <c r="AJH55"/>
+      <c r="AJI55"/>
+      <c r="AJJ55"/>
+      <c r="AJK55"/>
+      <c r="AJL55"/>
+      <c r="AJM55"/>
+      <c r="AJN55"/>
+      <c r="AJO55"/>
+      <c r="AJP55"/>
+      <c r="AJQ55"/>
+      <c r="AJR55"/>
+      <c r="AJS55"/>
+      <c r="AJT55"/>
+      <c r="AJU55"/>
+      <c r="AJV55"/>
+      <c r="AJW55"/>
+      <c r="AJX55"/>
+      <c r="AJY55"/>
+      <c r="AJZ55"/>
+      <c r="AKA55"/>
+      <c r="AKB55"/>
+      <c r="AKC55"/>
+      <c r="AKD55"/>
+      <c r="AKE55"/>
+      <c r="AKF55"/>
+      <c r="AKG55"/>
+      <c r="AKH55"/>
+      <c r="AKI55"/>
+      <c r="AKJ55"/>
+      <c r="AKK55"/>
+      <c r="AKL55"/>
+      <c r="AKM55"/>
+      <c r="AKN55"/>
+      <c r="AKO55"/>
+      <c r="AKP55"/>
+      <c r="AKQ55"/>
+      <c r="AKR55"/>
+      <c r="AKS55"/>
+      <c r="AKT55"/>
+      <c r="AKU55"/>
+      <c r="AKV55"/>
+      <c r="AKW55"/>
+      <c r="AKX55"/>
+      <c r="AKY55"/>
+      <c r="AKZ55"/>
+      <c r="ALA55"/>
+      <c r="ALB55"/>
+      <c r="ALC55"/>
+      <c r="ALD55"/>
+      <c r="ALE55"/>
+      <c r="ALF55"/>
+      <c r="ALG55"/>
+      <c r="ALH55"/>
+      <c r="ALI55"/>
+      <c r="ALJ55"/>
+      <c r="ALK55"/>
+      <c r="ALL55"/>
+      <c r="ALM55"/>
+      <c r="ALN55"/>
+      <c r="ALO55"/>
+      <c r="ALP55"/>
+      <c r="ALQ55"/>
+      <c r="ALR55"/>
+      <c r="ALS55"/>
+      <c r="ALT55"/>
+      <c r="ALU55"/>
+      <c r="ALV55"/>
+      <c r="ALW55"/>
+      <c r="ALX55"/>
+      <c r="ALY55"/>
+      <c r="ALZ55"/>
+      <c r="AMA55"/>
+      <c r="AMB55"/>
+      <c r="AMC55"/>
+      <c r="AMD55"/>
+      <c r="AME55"/>
+      <c r="AMF55"/>
+      <c r="AMG55"/>
+    </row>
+    <row r="56" spans="28:1021" x14ac:dyDescent="0.25">
+      <c r="AB56" s="1"/>
+      <c r="AJA56"/>
+      <c r="AJB56"/>
+      <c r="AJC56"/>
+      <c r="AJD56"/>
+      <c r="AJE56"/>
+      <c r="AJF56"/>
+      <c r="AJG56"/>
+      <c r="AJH56"/>
+      <c r="AJI56"/>
+      <c r="AJJ56"/>
+      <c r="AJK56"/>
+      <c r="AJL56"/>
+      <c r="AJM56"/>
+      <c r="AJN56"/>
+      <c r="AJO56"/>
+      <c r="AJP56"/>
+      <c r="AJQ56"/>
+      <c r="AJR56"/>
+      <c r="AJS56"/>
+      <c r="AJT56"/>
+      <c r="AJU56"/>
+      <c r="AJV56"/>
+      <c r="AJW56"/>
+      <c r="AJX56"/>
+      <c r="AJY56"/>
+      <c r="AJZ56"/>
+      <c r="AKA56"/>
+      <c r="AKB56"/>
+      <c r="AKC56"/>
+      <c r="AKD56"/>
+      <c r="AKE56"/>
+      <c r="AKF56"/>
+      <c r="AKG56"/>
+      <c r="AKH56"/>
+      <c r="AKI56"/>
+      <c r="AKJ56"/>
+      <c r="AKK56"/>
+      <c r="AKL56"/>
+      <c r="AKM56"/>
+      <c r="AKN56"/>
+      <c r="AKO56"/>
+      <c r="AKP56"/>
+      <c r="AKQ56"/>
+      <c r="AKR56"/>
+      <c r="AKS56"/>
+      <c r="AKT56"/>
+      <c r="AKU56"/>
+      <c r="AKV56"/>
+      <c r="AKW56"/>
+      <c r="AKX56"/>
+      <c r="AKY56"/>
+      <c r="AKZ56"/>
+      <c r="ALA56"/>
+      <c r="ALB56"/>
+      <c r="ALC56"/>
+      <c r="ALD56"/>
+      <c r="ALE56"/>
+      <c r="ALF56"/>
+      <c r="ALG56"/>
+      <c r="ALH56"/>
+      <c r="ALI56"/>
+      <c r="ALJ56"/>
+      <c r="ALK56"/>
+      <c r="ALL56"/>
+      <c r="ALM56"/>
+      <c r="ALN56"/>
+      <c r="ALO56"/>
+      <c r="ALP56"/>
+      <c r="ALQ56"/>
+      <c r="ALR56"/>
+      <c r="ALS56"/>
+      <c r="ALT56"/>
+      <c r="ALU56"/>
+      <c r="ALV56"/>
+      <c r="ALW56"/>
+      <c r="ALX56"/>
+      <c r="ALY56"/>
+      <c r="ALZ56"/>
+      <c r="AMA56"/>
+      <c r="AMB56"/>
+      <c r="AMC56"/>
+      <c r="AMD56"/>
+      <c r="AME56"/>
+      <c r="AMF56"/>
+      <c r="AMG56"/>
+    </row>
+    <row r="57" spans="28:1021" x14ac:dyDescent="0.25">
+      <c r="AB57" s="1"/>
+      <c r="AJA57"/>
+      <c r="AJB57"/>
+      <c r="AJC57"/>
+      <c r="AJD57"/>
+      <c r="AJE57"/>
+      <c r="AJF57"/>
+      <c r="AJG57"/>
+      <c r="AJH57"/>
+      <c r="AJI57"/>
+      <c r="AJJ57"/>
+      <c r="AJK57"/>
+      <c r="AJL57"/>
+      <c r="AJM57"/>
+      <c r="AJN57"/>
+      <c r="AJO57"/>
+      <c r="AJP57"/>
+      <c r="AJQ57"/>
+      <c r="AJR57"/>
+      <c r="AJS57"/>
+      <c r="AJT57"/>
+      <c r="AJU57"/>
+      <c r="AJV57"/>
+      <c r="AJW57"/>
+      <c r="AJX57"/>
+      <c r="AJY57"/>
+      <c r="AJZ57"/>
+      <c r="AKA57"/>
+      <c r="AKB57"/>
+      <c r="AKC57"/>
+      <c r="AKD57"/>
+      <c r="AKE57"/>
+      <c r="AKF57"/>
+      <c r="AKG57"/>
+      <c r="AKH57"/>
+      <c r="AKI57"/>
+      <c r="AKJ57"/>
+      <c r="AKK57"/>
+      <c r="AKL57"/>
+      <c r="AKM57"/>
+      <c r="AKN57"/>
+      <c r="AKO57"/>
+      <c r="AKP57"/>
+      <c r="AKQ57"/>
+      <c r="AKR57"/>
+      <c r="AKS57"/>
+      <c r="AKT57"/>
+      <c r="AKU57"/>
+      <c r="AKV57"/>
+      <c r="AKW57"/>
+      <c r="AKX57"/>
+      <c r="AKY57"/>
+      <c r="AKZ57"/>
+      <c r="ALA57"/>
+      <c r="ALB57"/>
+      <c r="ALC57"/>
+      <c r="ALD57"/>
+      <c r="ALE57"/>
+      <c r="ALF57"/>
+      <c r="ALG57"/>
+      <c r="ALH57"/>
+      <c r="ALI57"/>
+      <c r="ALJ57"/>
+      <c r="ALK57"/>
+      <c r="ALL57"/>
+      <c r="ALM57"/>
+      <c r="ALN57"/>
+      <c r="ALO57"/>
+      <c r="ALP57"/>
+      <c r="ALQ57"/>
+      <c r="ALR57"/>
+      <c r="ALS57"/>
+      <c r="ALT57"/>
+      <c r="ALU57"/>
+      <c r="ALV57"/>
+      <c r="ALW57"/>
+      <c r="ALX57"/>
+      <c r="ALY57"/>
+      <c r="ALZ57"/>
+      <c r="AMA57"/>
+      <c r="AMB57"/>
+      <c r="AMC57"/>
+      <c r="AMD57"/>
+      <c r="AME57"/>
+      <c r="AMF57"/>
+      <c r="AMG57"/>
+    </row>
+    <row r="58" spans="28:1021" x14ac:dyDescent="0.25">
+      <c r="AB58" s="1"/>
+      <c r="AJA58"/>
+      <c r="AJB58"/>
+      <c r="AJC58"/>
+      <c r="AJD58"/>
+      <c r="AJE58"/>
+      <c r="AJF58"/>
+      <c r="AJG58"/>
+      <c r="AJH58"/>
+      <c r="AJI58"/>
+      <c r="AJJ58"/>
+      <c r="AJK58"/>
+      <c r="AJL58"/>
+      <c r="AJM58"/>
+      <c r="AJN58"/>
+      <c r="AJO58"/>
+      <c r="AJP58"/>
+      <c r="AJQ58"/>
+      <c r="AJR58"/>
+      <c r="AJS58"/>
+      <c r="AJT58"/>
+      <c r="AJU58"/>
+      <c r="AJV58"/>
+      <c r="AJW58"/>
+      <c r="AJX58"/>
+      <c r="AJY58"/>
+      <c r="AJZ58"/>
+      <c r="AKA58"/>
+      <c r="AKB58"/>
+      <c r="AKC58"/>
+      <c r="AKD58"/>
+      <c r="AKE58"/>
+      <c r="AKF58"/>
+      <c r="AKG58"/>
+      <c r="AKH58"/>
+      <c r="AKI58"/>
+      <c r="AKJ58"/>
+      <c r="AKK58"/>
+      <c r="AKL58"/>
+      <c r="AKM58"/>
+      <c r="AKN58"/>
+      <c r="AKO58"/>
+      <c r="AKP58"/>
+      <c r="AKQ58"/>
+      <c r="AKR58"/>
+      <c r="AKS58"/>
+      <c r="AKT58"/>
+      <c r="AKU58"/>
+      <c r="AKV58"/>
+      <c r="AKW58"/>
+      <c r="AKX58"/>
+      <c r="AKY58"/>
+      <c r="AKZ58"/>
+      <c r="ALA58"/>
+      <c r="ALB58"/>
+      <c r="ALC58"/>
+      <c r="ALD58"/>
+      <c r="ALE58"/>
+      <c r="ALF58"/>
+      <c r="ALG58"/>
+      <c r="ALH58"/>
+      <c r="ALI58"/>
+      <c r="ALJ58"/>
+      <c r="ALK58"/>
+      <c r="ALL58"/>
+      <c r="ALM58"/>
+      <c r="ALN58"/>
+      <c r="ALO58"/>
+      <c r="ALP58"/>
+      <c r="ALQ58"/>
+      <c r="ALR58"/>
+      <c r="ALS58"/>
+      <c r="ALT58"/>
+      <c r="ALU58"/>
+      <c r="ALV58"/>
+      <c r="ALW58"/>
+      <c r="ALX58"/>
+      <c r="ALY58"/>
+      <c r="ALZ58"/>
+      <c r="AMA58"/>
+      <c r="AMB58"/>
+      <c r="AMC58"/>
+      <c r="AMD58"/>
+      <c r="AME58"/>
+      <c r="AMF58"/>
+      <c r="AMG58"/>
+    </row>
+    <row r="59" spans="28:1021" x14ac:dyDescent="0.25">
+      <c r="AB59" s="1"/>
+      <c r="AJA59"/>
+      <c r="AJB59"/>
+      <c r="AJC59"/>
+      <c r="AJD59"/>
+      <c r="AJE59"/>
+      <c r="AJF59"/>
+      <c r="AJG59"/>
+      <c r="AJH59"/>
+      <c r="AJI59"/>
+      <c r="AJJ59"/>
+      <c r="AJK59"/>
+      <c r="AJL59"/>
+      <c r="AJM59"/>
+      <c r="AJN59"/>
+      <c r="AJO59"/>
+      <c r="AJP59"/>
+      <c r="AJQ59"/>
+      <c r="AJR59"/>
+      <c r="AJS59"/>
+      <c r="AJT59"/>
+      <c r="AJU59"/>
+      <c r="AJV59"/>
+      <c r="AJW59"/>
+      <c r="AJX59"/>
+      <c r="AJY59"/>
+      <c r="AJZ59"/>
+      <c r="AKA59"/>
+      <c r="AKB59"/>
+      <c r="AKC59"/>
+      <c r="AKD59"/>
+      <c r="AKE59"/>
+      <c r="AKF59"/>
+      <c r="AKG59"/>
+      <c r="AKH59"/>
+      <c r="AKI59"/>
+      <c r="AKJ59"/>
+      <c r="AKK59"/>
+      <c r="AKL59"/>
+      <c r="AKM59"/>
+      <c r="AKN59"/>
+      <c r="AKO59"/>
+      <c r="AKP59"/>
+      <c r="AKQ59"/>
+      <c r="AKR59"/>
+      <c r="AKS59"/>
+      <c r="AKT59"/>
+      <c r="AKU59"/>
+      <c r="AKV59"/>
+      <c r="AKW59"/>
+      <c r="AKX59"/>
+      <c r="AKY59"/>
+      <c r="AKZ59"/>
+      <c r="ALA59"/>
+      <c r="ALB59"/>
+      <c r="ALC59"/>
+      <c r="ALD59"/>
+      <c r="ALE59"/>
+      <c r="ALF59"/>
+      <c r="ALG59"/>
+      <c r="ALH59"/>
+      <c r="ALI59"/>
+      <c r="ALJ59"/>
+      <c r="ALK59"/>
+      <c r="ALL59"/>
+      <c r="ALM59"/>
+      <c r="ALN59"/>
+      <c r="ALO59"/>
+      <c r="ALP59"/>
+      <c r="ALQ59"/>
+      <c r="ALR59"/>
+      <c r="ALS59"/>
+      <c r="ALT59"/>
+      <c r="ALU59"/>
+      <c r="ALV59"/>
+      <c r="ALW59"/>
+      <c r="ALX59"/>
+      <c r="ALY59"/>
+      <c r="ALZ59"/>
+      <c r="AMA59"/>
+      <c r="AMB59"/>
+      <c r="AMC59"/>
+      <c r="AMD59"/>
+      <c r="AME59"/>
+      <c r="AMF59"/>
+      <c r="AMG59"/>
+    </row>
+    <row r="60" spans="28:1021" x14ac:dyDescent="0.25">
+      <c r="AB60" s="1"/>
+      <c r="AJA60"/>
+      <c r="AJB60"/>
+      <c r="AJC60"/>
+      <c r="AJD60"/>
+      <c r="AJE60"/>
+      <c r="AJF60"/>
+      <c r="AJG60"/>
+      <c r="AJH60"/>
+      <c r="AJI60"/>
+      <c r="AJJ60"/>
+      <c r="AJK60"/>
+      <c r="AJL60"/>
+      <c r="AJM60"/>
+      <c r="AJN60"/>
+      <c r="AJO60"/>
+      <c r="AJP60"/>
+      <c r="AJQ60"/>
+      <c r="AJR60"/>
+      <c r="AJS60"/>
+      <c r="AJT60"/>
+      <c r="AJU60"/>
+      <c r="AJV60"/>
+      <c r="AJW60"/>
+      <c r="AJX60"/>
+      <c r="AJY60"/>
+      <c r="AJZ60"/>
+      <c r="AKA60"/>
+      <c r="AKB60"/>
+      <c r="AKC60"/>
+      <c r="AKD60"/>
+      <c r="AKE60"/>
+      <c r="AKF60"/>
+      <c r="AKG60"/>
+      <c r="AKH60"/>
+      <c r="AKI60"/>
+      <c r="AKJ60"/>
+      <c r="AKK60"/>
+      <c r="AKL60"/>
+      <c r="AKM60"/>
+      <c r="AKN60"/>
+      <c r="AKO60"/>
+      <c r="AKP60"/>
+      <c r="AKQ60"/>
+      <c r="AKR60"/>
+      <c r="AKS60"/>
+      <c r="AKT60"/>
+      <c r="AKU60"/>
+      <c r="AKV60"/>
+      <c r="AKW60"/>
+      <c r="AKX60"/>
+      <c r="AKY60"/>
+      <c r="AKZ60"/>
+      <c r="ALA60"/>
+      <c r="ALB60"/>
+      <c r="ALC60"/>
+      <c r="ALD60"/>
+      <c r="ALE60"/>
+      <c r="ALF60"/>
+      <c r="ALG60"/>
+      <c r="ALH60"/>
+      <c r="ALI60"/>
+      <c r="ALJ60"/>
+      <c r="ALK60"/>
+      <c r="ALL60"/>
+      <c r="ALM60"/>
+      <c r="ALN60"/>
+      <c r="ALO60"/>
+      <c r="ALP60"/>
+      <c r="ALQ60"/>
+      <c r="ALR60"/>
+      <c r="ALS60"/>
+      <c r="ALT60"/>
+      <c r="ALU60"/>
+      <c r="ALV60"/>
+      <c r="ALW60"/>
+      <c r="ALX60"/>
+      <c r="ALY60"/>
+      <c r="ALZ60"/>
+      <c r="AMA60"/>
+      <c r="AMB60"/>
+      <c r="AMC60"/>
+      <c r="AMD60"/>
+      <c r="AME60"/>
+      <c r="AMF60"/>
+      <c r="AMG60"/>
+    </row>
+    <row r="61" spans="28:1021" x14ac:dyDescent="0.25">
+      <c r="AB61" s="1"/>
+      <c r="AJA61"/>
+      <c r="AJB61"/>
+      <c r="AJC61"/>
+      <c r="AJD61"/>
+      <c r="AJE61"/>
+      <c r="AJF61"/>
+      <c r="AJG61"/>
+      <c r="AJH61"/>
+      <c r="AJI61"/>
+      <c r="AJJ61"/>
+      <c r="AJK61"/>
+      <c r="AJL61"/>
+      <c r="AJM61"/>
+      <c r="AJN61"/>
+      <c r="AJO61"/>
+      <c r="AJP61"/>
+      <c r="AJQ61"/>
+      <c r="AJR61"/>
+      <c r="AJS61"/>
+      <c r="AJT61"/>
+      <c r="AJU61"/>
+      <c r="AJV61"/>
+      <c r="AJW61"/>
+      <c r="AJX61"/>
+      <c r="AJY61"/>
+      <c r="AJZ61"/>
+      <c r="AKA61"/>
+      <c r="AKB61"/>
+      <c r="AKC61"/>
+      <c r="AKD61"/>
+      <c r="AKE61"/>
+      <c r="AKF61"/>
+      <c r="AKG61"/>
+      <c r="AKH61"/>
+      <c r="AKI61"/>
+      <c r="AKJ61"/>
+      <c r="AKK61"/>
+      <c r="AKL61"/>
+      <c r="AKM61"/>
+      <c r="AKN61"/>
+      <c r="AKO61"/>
+      <c r="AKP61"/>
+      <c r="AKQ61"/>
+      <c r="AKR61"/>
+      <c r="AKS61"/>
+      <c r="AKT61"/>
+      <c r="AKU61"/>
+      <c r="AKV61"/>
+      <c r="AKW61"/>
+      <c r="AKX61"/>
+      <c r="AKY61"/>
+      <c r="AKZ61"/>
+      <c r="ALA61"/>
+      <c r="ALB61"/>
+      <c r="ALC61"/>
+      <c r="ALD61"/>
+      <c r="ALE61"/>
+      <c r="ALF61"/>
+      <c r="ALG61"/>
+      <c r="ALH61"/>
+      <c r="ALI61"/>
+      <c r="ALJ61"/>
+      <c r="ALK61"/>
+      <c r="ALL61"/>
+      <c r="ALM61"/>
+      <c r="ALN61"/>
+      <c r="ALO61"/>
+      <c r="ALP61"/>
+      <c r="ALQ61"/>
+      <c r="ALR61"/>
+      <c r="ALS61"/>
+      <c r="ALT61"/>
+      <c r="ALU61"/>
+      <c r="ALV61"/>
+      <c r="ALW61"/>
+      <c r="ALX61"/>
+      <c r="ALY61"/>
+      <c r="ALZ61"/>
+      <c r="AMA61"/>
+      <c r="AMB61"/>
+      <c r="AMC61"/>
+      <c r="AMD61"/>
+      <c r="AME61"/>
+      <c r="AMF61"/>
+      <c r="AMG61"/>
+    </row>
+    <row r="62" spans="28:1021" x14ac:dyDescent="0.25">
+      <c r="AB62" s="1"/>
+      <c r="AJA62"/>
+      <c r="AJB62"/>
+      <c r="AJC62"/>
+      <c r="AJD62"/>
+      <c r="AJE62"/>
+      <c r="AJF62"/>
+      <c r="AJG62"/>
+      <c r="AJH62"/>
+      <c r="AJI62"/>
+      <c r="AJJ62"/>
+      <c r="AJK62"/>
+      <c r="AJL62"/>
+      <c r="AJM62"/>
+      <c r="AJN62"/>
+      <c r="AJO62"/>
+      <c r="AJP62"/>
+      <c r="AJQ62"/>
+      <c r="AJR62"/>
+      <c r="AJS62"/>
+      <c r="AJT62"/>
+      <c r="AJU62"/>
+      <c r="AJV62"/>
+      <c r="AJW62"/>
+      <c r="AJX62"/>
+      <c r="AJY62"/>
+      <c r="AJZ62"/>
+      <c r="AKA62"/>
+      <c r="AKB62"/>
+      <c r="AKC62"/>
+      <c r="AKD62"/>
+      <c r="AKE62"/>
+      <c r="AKF62"/>
+      <c r="AKG62"/>
+      <c r="AKH62"/>
+      <c r="AKI62"/>
+      <c r="AKJ62"/>
+      <c r="AKK62"/>
+      <c r="AKL62"/>
+      <c r="AKM62"/>
+      <c r="AKN62"/>
+      <c r="AKO62"/>
+      <c r="AKP62"/>
+      <c r="AKQ62"/>
+      <c r="AKR62"/>
+      <c r="AKS62"/>
+      <c r="AKT62"/>
+      <c r="AKU62"/>
+      <c r="AKV62"/>
+      <c r="AKW62"/>
+      <c r="AKX62"/>
+      <c r="AKY62"/>
+      <c r="AKZ62"/>
+      <c r="ALA62"/>
+      <c r="ALB62"/>
+      <c r="ALC62"/>
+      <c r="ALD62"/>
+      <c r="ALE62"/>
+      <c r="ALF62"/>
+      <c r="ALG62"/>
+      <c r="ALH62"/>
+      <c r="ALI62"/>
+      <c r="ALJ62"/>
+      <c r="ALK62"/>
+      <c r="ALL62"/>
+      <c r="ALM62"/>
+      <c r="ALN62"/>
+      <c r="ALO62"/>
+      <c r="ALP62"/>
+      <c r="ALQ62"/>
+      <c r="ALR62"/>
+      <c r="ALS62"/>
+      <c r="ALT62"/>
+      <c r="ALU62"/>
+      <c r="ALV62"/>
+      <c r="ALW62"/>
+      <c r="ALX62"/>
+      <c r="ALY62"/>
+      <c r="ALZ62"/>
+      <c r="AMA62"/>
+      <c r="AMB62"/>
+      <c r="AMC62"/>
+      <c r="AMD62"/>
+      <c r="AME62"/>
+      <c r="AMF62"/>
+      <c r="AMG62"/>
+    </row>
+    <row r="63" spans="28:1021" x14ac:dyDescent="0.25">
+      <c r="AB63" s="1"/>
+      <c r="AJA63"/>
+      <c r="AJB63"/>
+      <c r="AJC63"/>
+      <c r="AJD63"/>
+      <c r="AJE63"/>
+      <c r="AJF63"/>
+      <c r="AJG63"/>
+      <c r="AJH63"/>
+      <c r="AJI63"/>
+      <c r="AJJ63"/>
+      <c r="AJK63"/>
+      <c r="AJL63"/>
+      <c r="AJM63"/>
+      <c r="AJN63"/>
+      <c r="AJO63"/>
+      <c r="AJP63"/>
+      <c r="AJQ63"/>
+      <c r="AJR63"/>
+      <c r="AJS63"/>
+      <c r="AJT63"/>
+      <c r="AJU63"/>
+      <c r="AJV63"/>
+      <c r="AJW63"/>
+      <c r="AJX63"/>
+      <c r="AJY63"/>
+      <c r="AJZ63"/>
+      <c r="AKA63"/>
+      <c r="AKB63"/>
+      <c r="AKC63"/>
+      <c r="AKD63"/>
+      <c r="AKE63"/>
+      <c r="AKF63"/>
+      <c r="AKG63"/>
+      <c r="AKH63"/>
+      <c r="AKI63"/>
+      <c r="AKJ63"/>
+      <c r="AKK63"/>
+      <c r="AKL63"/>
+      <c r="AKM63"/>
+      <c r="AKN63"/>
+      <c r="AKO63"/>
+      <c r="AKP63"/>
+      <c r="AKQ63"/>
+      <c r="AKR63"/>
+      <c r="AKS63"/>
+      <c r="AKT63"/>
+      <c r="AKU63"/>
+      <c r="AKV63"/>
+      <c r="AKW63"/>
+      <c r="AKX63"/>
+      <c r="AKY63"/>
+      <c r="AKZ63"/>
+      <c r="ALA63"/>
+      <c r="ALB63"/>
+      <c r="ALC63"/>
+      <c r="ALD63"/>
+      <c r="ALE63"/>
+      <c r="ALF63"/>
+      <c r="ALG63"/>
+      <c r="ALH63"/>
+      <c r="ALI63"/>
+      <c r="ALJ63"/>
+      <c r="ALK63"/>
+      <c r="ALL63"/>
+      <c r="ALM63"/>
+      <c r="ALN63"/>
+      <c r="ALO63"/>
+      <c r="ALP63"/>
+      <c r="ALQ63"/>
+      <c r="ALR63"/>
+      <c r="ALS63"/>
+      <c r="ALT63"/>
+      <c r="ALU63"/>
+      <c r="ALV63"/>
+      <c r="ALW63"/>
+      <c r="ALX63"/>
+      <c r="ALY63"/>
+      <c r="ALZ63"/>
+      <c r="AMA63"/>
+      <c r="AMB63"/>
+      <c r="AMC63"/>
+      <c r="AMD63"/>
+      <c r="AME63"/>
+      <c r="AMF63"/>
+      <c r="AMG63"/>
+    </row>
+    <row r="64" spans="28:1021" x14ac:dyDescent="0.25">
+      <c r="AB64" s="1"/>
+      <c r="AJA64"/>
+      <c r="AJB64"/>
+      <c r="AJC64"/>
+      <c r="AJD64"/>
+      <c r="AJE64"/>
+      <c r="AJF64"/>
+      <c r="AJG64"/>
+      <c r="AJH64"/>
+      <c r="AJI64"/>
+      <c r="AJJ64"/>
+      <c r="AJK64"/>
+      <c r="AJL64"/>
+      <c r="AJM64"/>
+      <c r="AJN64"/>
+      <c r="AJO64"/>
+      <c r="AJP64"/>
+      <c r="AJQ64"/>
+      <c r="AJR64"/>
+      <c r="AJS64"/>
+      <c r="AJT64"/>
+      <c r="AJU64"/>
+      <c r="AJV64"/>
+      <c r="AJW64"/>
+      <c r="AJX64"/>
+      <c r="AJY64"/>
+      <c r="AJZ64"/>
+      <c r="AKA64"/>
+      <c r="AKB64"/>
+      <c r="AKC64"/>
+      <c r="AKD64"/>
+      <c r="AKE64"/>
+      <c r="AKF64"/>
+      <c r="AKG64"/>
+      <c r="AKH64"/>
+      <c r="AKI64"/>
+      <c r="AKJ64"/>
+      <c r="AKK64"/>
+      <c r="AKL64"/>
+      <c r="AKM64"/>
+      <c r="AKN64"/>
+      <c r="AKO64"/>
+      <c r="AKP64"/>
+      <c r="AKQ64"/>
+      <c r="AKR64"/>
+      <c r="AKS64"/>
+      <c r="AKT64"/>
+      <c r="AKU64"/>
+      <c r="AKV64"/>
+      <c r="AKW64"/>
+      <c r="AKX64"/>
+      <c r="AKY64"/>
+      <c r="AKZ64"/>
+      <c r="ALA64"/>
+      <c r="ALB64"/>
+      <c r="ALC64"/>
+      <c r="ALD64"/>
+      <c r="ALE64"/>
+      <c r="ALF64"/>
+      <c r="ALG64"/>
+      <c r="ALH64"/>
+      <c r="ALI64"/>
+      <c r="ALJ64"/>
+      <c r="ALK64"/>
+      <c r="ALL64"/>
+      <c r="ALM64"/>
+      <c r="ALN64"/>
+      <c r="ALO64"/>
+      <c r="ALP64"/>
+      <c r="ALQ64"/>
+      <c r="ALR64"/>
+      <c r="ALS64"/>
+      <c r="ALT64"/>
+      <c r="ALU64"/>
+      <c r="ALV64"/>
+      <c r="ALW64"/>
+      <c r="ALX64"/>
+      <c r="ALY64"/>
+      <c r="ALZ64"/>
+      <c r="AMA64"/>
+      <c r="AMB64"/>
+      <c r="AMC64"/>
+      <c r="AMD64"/>
+      <c r="AME64"/>
+      <c r="AMF64"/>
+      <c r="AMG64"/>
+    </row>
+    <row r="65" spans="28:1021" x14ac:dyDescent="0.25">
+      <c r="AB65" s="1"/>
+      <c r="AJA65"/>
+      <c r="AJB65"/>
+      <c r="AJC65"/>
+      <c r="AJD65"/>
+      <c r="AJE65"/>
+      <c r="AJF65"/>
+      <c r="AJG65"/>
+      <c r="AJH65"/>
+      <c r="AJI65"/>
+      <c r="AJJ65"/>
+      <c r="AJK65"/>
+      <c r="AJL65"/>
+      <c r="AJM65"/>
+      <c r="AJN65"/>
+      <c r="AJO65"/>
+      <c r="AJP65"/>
+      <c r="AJQ65"/>
+      <c r="AJR65"/>
+      <c r="AJS65"/>
+      <c r="AJT65"/>
+      <c r="AJU65"/>
+      <c r="AJV65"/>
+      <c r="AJW65"/>
+      <c r="AJX65"/>
+      <c r="AJY65"/>
+      <c r="AJZ65"/>
+      <c r="AKA65"/>
+      <c r="AKB65"/>
+      <c r="AKC65"/>
+      <c r="AKD65"/>
+      <c r="AKE65"/>
+      <c r="AKF65"/>
+      <c r="AKG65"/>
+      <c r="AKH65"/>
+      <c r="AKI65"/>
+      <c r="AKJ65"/>
+      <c r="AKK65"/>
+      <c r="AKL65"/>
+      <c r="AKM65"/>
+      <c r="AKN65"/>
+      <c r="AKO65"/>
+      <c r="AKP65"/>
+      <c r="AKQ65"/>
+      <c r="AKR65"/>
+      <c r="AKS65"/>
+      <c r="AKT65"/>
+      <c r="AKU65"/>
+      <c r="AKV65"/>
+      <c r="AKW65"/>
+      <c r="AKX65"/>
+      <c r="AKY65"/>
+      <c r="AKZ65"/>
+      <c r="ALA65"/>
+      <c r="ALB65"/>
+      <c r="ALC65"/>
+      <c r="ALD65"/>
+      <c r="ALE65"/>
+      <c r="ALF65"/>
+      <c r="ALG65"/>
+      <c r="ALH65"/>
+      <c r="ALI65"/>
+      <c r="ALJ65"/>
+      <c r="ALK65"/>
+      <c r="ALL65"/>
+      <c r="ALM65"/>
+      <c r="ALN65"/>
+      <c r="ALO65"/>
+      <c r="ALP65"/>
+      <c r="ALQ65"/>
+      <c r="ALR65"/>
+      <c r="ALS65"/>
+      <c r="ALT65"/>
+      <c r="ALU65"/>
+      <c r="ALV65"/>
+      <c r="ALW65"/>
+      <c r="ALX65"/>
+      <c r="ALY65"/>
+      <c r="ALZ65"/>
+      <c r="AMA65"/>
+      <c r="AMB65"/>
+      <c r="AMC65"/>
+      <c r="AMD65"/>
+      <c r="AME65"/>
+      <c r="AMF65"/>
+      <c r="AMG65"/>
+    </row>
+    <row r="66" spans="28:1021" x14ac:dyDescent="0.25">
+      <c r="AB66" s="1"/>
+      <c r="AJA66"/>
+      <c r="AJB66"/>
+      <c r="AJC66"/>
+      <c r="AJD66"/>
+      <c r="AJE66"/>
+      <c r="AJF66"/>
+      <c r="AJG66"/>
+      <c r="AJH66"/>
+      <c r="AJI66"/>
+      <c r="AJJ66"/>
+      <c r="AJK66"/>
+      <c r="AJL66"/>
+      <c r="AJM66"/>
+      <c r="AJN66"/>
+      <c r="AJO66"/>
+      <c r="AJP66"/>
+      <c r="AJQ66"/>
+      <c r="AJR66"/>
+      <c r="AJS66"/>
+      <c r="AJT66"/>
+      <c r="AJU66"/>
+      <c r="AJV66"/>
+      <c r="AJW66"/>
+      <c r="AJX66"/>
+      <c r="AJY66"/>
+      <c r="AJZ66"/>
+      <c r="AKA66"/>
+      <c r="AKB66"/>
+      <c r="AKC66"/>
+      <c r="AKD66"/>
+      <c r="AKE66"/>
+      <c r="AKF66"/>
+      <c r="AKG66"/>
+      <c r="AKH66"/>
+      <c r="AKI66"/>
+      <c r="AKJ66"/>
+      <c r="AKK66"/>
+      <c r="AKL66"/>
+      <c r="AKM66"/>
+      <c r="AKN66"/>
+      <c r="AKO66"/>
+      <c r="AKP66"/>
+      <c r="AKQ66"/>
+      <c r="AKR66"/>
+      <c r="AKS66"/>
+      <c r="AKT66"/>
+      <c r="AKU66"/>
+      <c r="AKV66"/>
+      <c r="AKW66"/>
+      <c r="AKX66"/>
+      <c r="AKY66"/>
+      <c r="AKZ66"/>
+      <c r="ALA66"/>
+      <c r="ALB66"/>
+      <c r="ALC66"/>
+      <c r="ALD66"/>
+      <c r="ALE66"/>
+      <c r="ALF66"/>
+      <c r="ALG66"/>
+      <c r="ALH66"/>
+      <c r="ALI66"/>
+      <c r="ALJ66"/>
+      <c r="ALK66"/>
+      <c r="ALL66"/>
+      <c r="ALM66"/>
+      <c r="ALN66"/>
+      <c r="ALO66"/>
+      <c r="ALP66"/>
+      <c r="ALQ66"/>
+      <c r="ALR66"/>
+      <c r="ALS66"/>
+      <c r="ALT66"/>
+      <c r="ALU66"/>
+      <c r="ALV66"/>
+      <c r="ALW66"/>
+      <c r="ALX66"/>
+      <c r="ALY66"/>
+      <c r="ALZ66"/>
+      <c r="AMA66"/>
+      <c r="AMB66"/>
+      <c r="AMC66"/>
+      <c r="AMD66"/>
+      <c r="AME66"/>
+      <c r="AMF66"/>
+      <c r="AMG66"/>
+    </row>
+    <row r="67" spans="28:1021" x14ac:dyDescent="0.25">
+      <c r="AB67" s="1"/>
+      <c r="AJA67"/>
+      <c r="AJB67"/>
+      <c r="AJC67"/>
+      <c r="AJD67"/>
+      <c r="AJE67"/>
+      <c r="AJF67"/>
+      <c r="AJG67"/>
+      <c r="AJH67"/>
+      <c r="AJI67"/>
+      <c r="AJJ67"/>
+      <c r="AJK67"/>
+      <c r="AJL67"/>
+      <c r="AJM67"/>
+      <c r="AJN67"/>
+      <c r="AJO67"/>
+      <c r="AJP67"/>
+      <c r="AJQ67"/>
+      <c r="AJR67"/>
+      <c r="AJS67"/>
+      <c r="AJT67"/>
+      <c r="AJU67"/>
+      <c r="AJV67"/>
+      <c r="AJW67"/>
+      <c r="AJX67"/>
+      <c r="AJY67"/>
+      <c r="AJZ67"/>
+      <c r="AKA67"/>
+      <c r="AKB67"/>
+      <c r="AKC67"/>
+      <c r="AKD67"/>
+      <c r="AKE67"/>
+      <c r="AKF67"/>
+      <c r="AKG67"/>
+      <c r="AKH67"/>
+      <c r="AKI67"/>
+      <c r="AKJ67"/>
+      <c r="AKK67"/>
+      <c r="AKL67"/>
+      <c r="AKM67"/>
+      <c r="AKN67"/>
+      <c r="AKO67"/>
+      <c r="AKP67"/>
+      <c r="AKQ67"/>
+      <c r="AKR67"/>
+      <c r="AKS67"/>
+      <c r="AKT67"/>
+      <c r="AKU67"/>
+      <c r="AKV67"/>
+      <c r="AKW67"/>
+      <c r="AKX67"/>
+      <c r="AKY67"/>
+      <c r="AKZ67"/>
+      <c r="ALA67"/>
+      <c r="ALB67"/>
+      <c r="ALC67"/>
+      <c r="ALD67"/>
+      <c r="ALE67"/>
+      <c r="ALF67"/>
+      <c r="ALG67"/>
+      <c r="ALH67"/>
+      <c r="ALI67"/>
+      <c r="ALJ67"/>
+      <c r="ALK67"/>
+      <c r="ALL67"/>
+      <c r="ALM67"/>
+      <c r="ALN67"/>
+      <c r="ALO67"/>
+      <c r="ALP67"/>
+      <c r="ALQ67"/>
+      <c r="ALR67"/>
+      <c r="ALS67"/>
+      <c r="ALT67"/>
+      <c r="ALU67"/>
+      <c r="ALV67"/>
+      <c r="ALW67"/>
+      <c r="ALX67"/>
+      <c r="ALY67"/>
+      <c r="ALZ67"/>
+      <c r="AMA67"/>
+      <c r="AMB67"/>
+      <c r="AMC67"/>
+      <c r="AMD67"/>
+      <c r="AME67"/>
+      <c r="AMF67"/>
+      <c r="AMG67"/>
+    </row>
+    <row r="68" spans="28:1021" x14ac:dyDescent="0.25">
+      <c r="AB68" s="1"/>
+      <c r="AJA68"/>
+      <c r="AJB68"/>
+      <c r="AJC68"/>
+      <c r="AJD68"/>
+      <c r="AJE68"/>
+      <c r="AJF68"/>
+      <c r="AJG68"/>
+      <c r="AJH68"/>
+      <c r="AJI68"/>
+      <c r="AJJ68"/>
+      <c r="AJK68"/>
+      <c r="AJL68"/>
+      <c r="AJM68"/>
+      <c r="AJN68"/>
+      <c r="AJO68"/>
+      <c r="AJP68"/>
+      <c r="AJQ68"/>
+      <c r="AJR68"/>
+      <c r="AJS68"/>
+      <c r="AJT68"/>
+      <c r="AJU68"/>
+      <c r="AJV68"/>
+      <c r="AJW68"/>
+      <c r="AJX68"/>
+      <c r="AJY68"/>
+      <c r="AJZ68"/>
+      <c r="AKA68"/>
+      <c r="AKB68"/>
+      <c r="AKC68"/>
+      <c r="AKD68"/>
+      <c r="AKE68"/>
+      <c r="AKF68"/>
+      <c r="AKG68"/>
+      <c r="AKH68"/>
+      <c r="AKI68"/>
+      <c r="AKJ68"/>
+      <c r="AKK68"/>
+      <c r="AKL68"/>
+      <c r="AKM68"/>
+      <c r="AKN68"/>
+      <c r="AKO68"/>
+      <c r="AKP68"/>
+      <c r="AKQ68"/>
+      <c r="AKR68"/>
+      <c r="AKS68"/>
+      <c r="AKT68"/>
+      <c r="AKU68"/>
+      <c r="AKV68"/>
+      <c r="AKW68"/>
+      <c r="AKX68"/>
+      <c r="AKY68"/>
+      <c r="AKZ68"/>
+      <c r="ALA68"/>
+      <c r="ALB68"/>
+      <c r="ALC68"/>
+      <c r="ALD68"/>
+      <c r="ALE68"/>
+      <c r="ALF68"/>
+      <c r="ALG68"/>
+      <c r="ALH68"/>
+      <c r="ALI68"/>
+      <c r="ALJ68"/>
+      <c r="ALK68"/>
+      <c r="ALL68"/>
+      <c r="ALM68"/>
+      <c r="ALN68"/>
+      <c r="ALO68"/>
+      <c r="ALP68"/>
+      <c r="ALQ68"/>
+      <c r="ALR68"/>
+      <c r="ALS68"/>
+      <c r="ALT68"/>
+      <c r="ALU68"/>
+      <c r="ALV68"/>
+      <c r="ALW68"/>
+      <c r="ALX68"/>
+      <c r="ALY68"/>
+      <c r="ALZ68"/>
+      <c r="AMA68"/>
+      <c r="AMB68"/>
+      <c r="AMC68"/>
+      <c r="AMD68"/>
+      <c r="AME68"/>
+      <c r="AMF68"/>
+      <c r="AMG68"/>
+    </row>
+    <row r="69" spans="28:1021" x14ac:dyDescent="0.25">
+      <c r="AB69" s="1"/>
+      <c r="AJA69"/>
+      <c r="AJB69"/>
+      <c r="AJC69"/>
+      <c r="AJD69"/>
+      <c r="AJE69"/>
+      <c r="AJF69"/>
+      <c r="AJG69"/>
+      <c r="AJH69"/>
+      <c r="AJI69"/>
+      <c r="AJJ69"/>
+      <c r="AJK69"/>
+      <c r="AJL69"/>
+      <c r="AJM69"/>
+      <c r="AJN69"/>
+      <c r="AJO69"/>
+      <c r="AJP69"/>
+      <c r="AJQ69"/>
+      <c r="AJR69"/>
+      <c r="AJS69"/>
+      <c r="AJT69"/>
+      <c r="AJU69"/>
+      <c r="AJV69"/>
+      <c r="AJW69"/>
+      <c r="AJX69"/>
+      <c r="AJY69"/>
+      <c r="AJZ69"/>
+      <c r="AKA69"/>
+      <c r="AKB69"/>
+      <c r="AKC69"/>
+      <c r="AKD69"/>
+      <c r="AKE69"/>
+      <c r="AKF69"/>
+      <c r="AKG69"/>
+      <c r="AKH69"/>
+      <c r="AKI69"/>
+      <c r="AKJ69"/>
+      <c r="AKK69"/>
+      <c r="AKL69"/>
+      <c r="AKM69"/>
+      <c r="AKN69"/>
+      <c r="AKO69"/>
+      <c r="AKP69"/>
+      <c r="AKQ69"/>
+      <c r="AKR69"/>
+      <c r="AKS69"/>
+      <c r="AKT69"/>
+      <c r="AKU69"/>
+      <c r="AKV69"/>
+      <c r="AKW69"/>
+      <c r="AKX69"/>
+      <c r="AKY69"/>
+      <c r="AKZ69"/>
+      <c r="ALA69"/>
+      <c r="ALB69"/>
+      <c r="ALC69"/>
+      <c r="ALD69"/>
+      <c r="ALE69"/>
+      <c r="ALF69"/>
+      <c r="ALG69"/>
+      <c r="ALH69"/>
+      <c r="ALI69"/>
+      <c r="ALJ69"/>
+      <c r="ALK69"/>
+      <c r="ALL69"/>
+      <c r="ALM69"/>
+      <c r="ALN69"/>
+      <c r="ALO69"/>
+      <c r="ALP69"/>
+      <c r="ALQ69"/>
+      <c r="ALR69"/>
+      <c r="ALS69"/>
+      <c r="ALT69"/>
+      <c r="ALU69"/>
+      <c r="ALV69"/>
+      <c r="ALW69"/>
+      <c r="ALX69"/>
+      <c r="ALY69"/>
+      <c r="ALZ69"/>
+      <c r="AMA69"/>
+      <c r="AMB69"/>
+      <c r="AMC69"/>
+      <c r="AMD69"/>
+      <c r="AME69"/>
+      <c r="AMF69"/>
+      <c r="AMG69"/>
+    </row>
+    <row r="70" spans="28:1021" x14ac:dyDescent="0.25">
+      <c r="AB70" s="1"/>
+      <c r="AJA70"/>
+      <c r="AJB70"/>
+      <c r="AJC70"/>
+      <c r="AJD70"/>
+      <c r="AJE70"/>
+      <c r="AJF70"/>
+      <c r="AJG70"/>
+      <c r="AJH70"/>
+      <c r="AJI70"/>
+      <c r="AJJ70"/>
+      <c r="AJK70"/>
+      <c r="AJL70"/>
+      <c r="AJM70"/>
+      <c r="AJN70"/>
+      <c r="AJO70"/>
+      <c r="AJP70"/>
+      <c r="AJQ70"/>
+      <c r="AJR70"/>
+      <c r="AJS70"/>
+      <c r="AJT70"/>
+      <c r="AJU70"/>
+      <c r="AJV70"/>
+      <c r="AJW70"/>
+      <c r="AJX70"/>
+      <c r="AJY70"/>
+      <c r="AJZ70"/>
+      <c r="AKA70"/>
+      <c r="AKB70"/>
+      <c r="AKC70"/>
+      <c r="AKD70"/>
+      <c r="AKE70"/>
+      <c r="AKF70"/>
+      <c r="AKG70"/>
+      <c r="AKH70"/>
+      <c r="AKI70"/>
+      <c r="AKJ70"/>
+      <c r="AKK70"/>
+      <c r="AKL70"/>
+      <c r="AKM70"/>
+      <c r="AKN70"/>
+      <c r="AKO70"/>
+      <c r="AKP70"/>
+      <c r="AKQ70"/>
+      <c r="AKR70"/>
+      <c r="AKS70"/>
+      <c r="AKT70"/>
+      <c r="AKU70"/>
+      <c r="AKV70"/>
+      <c r="AKW70"/>
+      <c r="AKX70"/>
+      <c r="AKY70"/>
+      <c r="AKZ70"/>
+      <c r="ALA70"/>
+      <c r="ALB70"/>
+      <c r="ALC70"/>
+      <c r="ALD70"/>
+      <c r="ALE70"/>
+      <c r="ALF70"/>
+      <c r="ALG70"/>
+      <c r="ALH70"/>
+      <c r="ALI70"/>
+      <c r="ALJ70"/>
+      <c r="ALK70"/>
+      <c r="ALL70"/>
+      <c r="ALM70"/>
+      <c r="ALN70"/>
+      <c r="ALO70"/>
+      <c r="ALP70"/>
+      <c r="ALQ70"/>
+      <c r="ALR70"/>
+      <c r="ALS70"/>
+      <c r="ALT70"/>
+      <c r="ALU70"/>
+      <c r="ALV70"/>
+      <c r="ALW70"/>
+      <c r="ALX70"/>
+      <c r="ALY70"/>
+      <c r="ALZ70"/>
+      <c r="AMA70"/>
+      <c r="AMB70"/>
+      <c r="AMC70"/>
+      <c r="AMD70"/>
+      <c r="AME70"/>
+      <c r="AMF70"/>
+      <c r="AMG70"/>
+    </row>
+    <row r="71" spans="28:1021" x14ac:dyDescent="0.25">
+      <c r="AB71" s="1"/>
+      <c r="AJA71"/>
+      <c r="AJB71"/>
+      <c r="AJC71"/>
+      <c r="AJD71"/>
+      <c r="AJE71"/>
+      <c r="AJF71"/>
+      <c r="AJG71"/>
+      <c r="AJH71"/>
+      <c r="AJI71"/>
+      <c r="AJJ71"/>
+      <c r="AJK71"/>
+      <c r="AJL71"/>
+      <c r="AJM71"/>
+      <c r="AJN71"/>
+      <c r="AJO71"/>
+      <c r="AJP71"/>
+      <c r="AJQ71"/>
+      <c r="AJR71"/>
+      <c r="AJS71"/>
+      <c r="AJT71"/>
+      <c r="AJU71"/>
+      <c r="AJV71"/>
+      <c r="AJW71"/>
+      <c r="AJX71"/>
+      <c r="AJY71"/>
+      <c r="AJZ71"/>
+      <c r="AKA71"/>
+      <c r="AKB71"/>
+      <c r="AKC71"/>
+      <c r="AKD71"/>
+      <c r="AKE71"/>
+      <c r="AKF71"/>
+      <c r="AKG71"/>
+      <c r="AKH71"/>
+      <c r="AKI71"/>
+      <c r="AKJ71"/>
+      <c r="AKK71"/>
+      <c r="AKL71"/>
+      <c r="AKM71"/>
+      <c r="AKN71"/>
+      <c r="AKO71"/>
+      <c r="AKP71"/>
+      <c r="AKQ71"/>
+      <c r="AKR71"/>
+      <c r="AKS71"/>
+      <c r="AKT71"/>
+      <c r="AKU71"/>
+      <c r="AKV71"/>
+      <c r="AKW71"/>
+      <c r="AKX71"/>
+      <c r="AKY71"/>
+      <c r="AKZ71"/>
+      <c r="ALA71"/>
+      <c r="ALB71"/>
+      <c r="ALC71"/>
+      <c r="ALD71"/>
+      <c r="ALE71"/>
+      <c r="ALF71"/>
+      <c r="ALG71"/>
+      <c r="ALH71"/>
+      <c r="ALI71"/>
+      <c r="ALJ71"/>
+      <c r="ALK71"/>
+      <c r="ALL71"/>
+      <c r="ALM71"/>
+      <c r="ALN71"/>
+      <c r="ALO71"/>
+      <c r="ALP71"/>
+      <c r="ALQ71"/>
+      <c r="ALR71"/>
+      <c r="ALS71"/>
+      <c r="ALT71"/>
+      <c r="ALU71"/>
+      <c r="ALV71"/>
+      <c r="ALW71"/>
+      <c r="ALX71"/>
+      <c r="ALY71"/>
+      <c r="ALZ71"/>
+      <c r="AMA71"/>
+      <c r="AMB71"/>
+      <c r="AMC71"/>
+      <c r="AMD71"/>
+      <c r="AME71"/>
+      <c r="AMF71"/>
+      <c r="AMG71"/>
+    </row>
+    <row r="72" spans="28:1021" x14ac:dyDescent="0.25">
+      <c r="AB72" s="1"/>
+      <c r="AJA72"/>
+      <c r="AJB72"/>
+      <c r="AJC72"/>
+      <c r="AJD72"/>
+      <c r="AJE72"/>
+      <c r="AJF72"/>
+      <c r="AJG72"/>
+      <c r="AJH72"/>
+      <c r="AJI72"/>
+      <c r="AJJ72"/>
+      <c r="AJK72"/>
+      <c r="AJL72"/>
+      <c r="AJM72"/>
+      <c r="AJN72"/>
+      <c r="AJO72"/>
+      <c r="AJP72"/>
+      <c r="AJQ72"/>
+      <c r="AJR72"/>
+      <c r="AJS72"/>
+      <c r="AJT72"/>
+      <c r="AJU72"/>
+      <c r="AJV72"/>
+      <c r="AJW72"/>
+      <c r="AJX72"/>
+      <c r="AJY72"/>
+      <c r="AJZ72"/>
+      <c r="AKA72"/>
+      <c r="AKB72"/>
+      <c r="AKC72"/>
+      <c r="AKD72"/>
+      <c r="AKE72"/>
+      <c r="AKF72"/>
+      <c r="AKG72"/>
+      <c r="AKH72"/>
+      <c r="AKI72"/>
+      <c r="AKJ72"/>
+      <c r="AKK72"/>
+      <c r="AKL72"/>
+      <c r="AKM72"/>
+      <c r="AKN72"/>
+      <c r="AKO72"/>
+      <c r="AKP72"/>
+      <c r="AKQ72"/>
+      <c r="AKR72"/>
+      <c r="AKS72"/>
+      <c r="AKT72"/>
+      <c r="AKU72"/>
+      <c r="AKV72"/>
+      <c r="AKW72"/>
+      <c r="AKX72"/>
+      <c r="AKY72"/>
+      <c r="AKZ72"/>
+      <c r="ALA72"/>
+      <c r="ALB72"/>
+      <c r="ALC72"/>
+      <c r="ALD72"/>
+      <c r="ALE72"/>
+      <c r="ALF72"/>
+      <c r="ALG72"/>
+      <c r="ALH72"/>
+      <c r="ALI72"/>
+      <c r="ALJ72"/>
+      <c r="ALK72"/>
+      <c r="ALL72"/>
+      <c r="ALM72"/>
+      <c r="ALN72"/>
+      <c r="ALO72"/>
+      <c r="ALP72"/>
+      <c r="ALQ72"/>
+      <c r="ALR72"/>
+      <c r="ALS72"/>
+      <c r="ALT72"/>
+      <c r="ALU72"/>
+      <c r="ALV72"/>
+      <c r="ALW72"/>
+      <c r="ALX72"/>
+      <c r="ALY72"/>
+      <c r="ALZ72"/>
+      <c r="AMA72"/>
+      <c r="AMB72"/>
+      <c r="AMC72"/>
+      <c r="AMD72"/>
+      <c r="AME72"/>
+      <c r="AMF72"/>
+      <c r="AMG72"/>
+    </row>
+    <row r="73" spans="28:1021" x14ac:dyDescent="0.25">
+      <c r="AB73" s="1"/>
+      <c r="AJA73"/>
+      <c r="AJB73"/>
+      <c r="AJC73"/>
+      <c r="AJD73"/>
+      <c r="AJE73"/>
+      <c r="AJF73"/>
+      <c r="AJG73"/>
+      <c r="AJH73"/>
+      <c r="AJI73"/>
+      <c r="AJJ73"/>
+      <c r="AJK73"/>
+      <c r="AJL73"/>
+      <c r="AJM73"/>
+      <c r="AJN73"/>
+      <c r="AJO73"/>
+      <c r="AJP73"/>
+      <c r="AJQ73"/>
+      <c r="AJR73"/>
+      <c r="AJS73"/>
+      <c r="AJT73"/>
+      <c r="AJU73"/>
+      <c r="AJV73"/>
+      <c r="AJW73"/>
+      <c r="AJX73"/>
+      <c r="AJY73"/>
+      <c r="AJZ73"/>
+      <c r="AKA73"/>
+      <c r="AKB73"/>
+      <c r="AKC73"/>
+      <c r="AKD73"/>
+      <c r="AKE73"/>
+      <c r="AKF73"/>
+      <c r="AKG73"/>
+      <c r="AKH73"/>
+      <c r="AKI73"/>
+      <c r="AKJ73"/>
+      <c r="AKK73"/>
+      <c r="AKL73"/>
+      <c r="AKM73"/>
+      <c r="AKN73"/>
+      <c r="AKO73"/>
+      <c r="AKP73"/>
+      <c r="AKQ73"/>
+      <c r="AKR73"/>
+      <c r="AKS73"/>
+      <c r="AKT73"/>
+      <c r="AKU73"/>
+      <c r="AKV73"/>
+      <c r="AKW73"/>
+      <c r="AKX73"/>
+      <c r="AKY73"/>
+      <c r="AKZ73"/>
+      <c r="ALA73"/>
+      <c r="ALB73"/>
+      <c r="ALC73"/>
+      <c r="ALD73"/>
+      <c r="ALE73"/>
+      <c r="ALF73"/>
+      <c r="ALG73"/>
+      <c r="ALH73"/>
+      <c r="ALI73"/>
+      <c r="ALJ73"/>
+      <c r="ALK73"/>
+      <c r="ALL73"/>
+      <c r="ALM73"/>
+      <c r="ALN73"/>
+      <c r="ALO73"/>
+      <c r="ALP73"/>
+      <c r="ALQ73"/>
+      <c r="ALR73"/>
+      <c r="ALS73"/>
+      <c r="ALT73"/>
+      <c r="ALU73"/>
+      <c r="ALV73"/>
+      <c r="ALW73"/>
+      <c r="ALX73"/>
+      <c r="ALY73"/>
+      <c r="ALZ73"/>
+      <c r="AMA73"/>
+      <c r="AMB73"/>
+      <c r="AMC73"/>
+      <c r="AMD73"/>
+      <c r="AME73"/>
+      <c r="AMF73"/>
+      <c r="AMG73"/>
+    </row>
+    <row r="74" spans="28:1021" x14ac:dyDescent="0.25">
+      <c r="AB74" s="1"/>
+      <c r="AJA74"/>
+      <c r="AJB74"/>
+      <c r="AJC74"/>
+      <c r="AJD74"/>
+      <c r="AJE74"/>
+      <c r="AJF74"/>
+      <c r="AJG74"/>
+      <c r="AJH74"/>
+      <c r="AJI74"/>
+      <c r="AJJ74"/>
+      <c r="AJK74"/>
+      <c r="AJL74"/>
+      <c r="AJM74"/>
+      <c r="AJN74"/>
+      <c r="AJO74"/>
+      <c r="AJP74"/>
+      <c r="AJQ74"/>
+      <c r="AJR74"/>
+      <c r="AJS74"/>
+      <c r="AJT74"/>
+      <c r="AJU74"/>
+      <c r="AJV74"/>
+      <c r="AJW74"/>
+      <c r="AJX74"/>
+      <c r="AJY74"/>
+      <c r="AJZ74"/>
+      <c r="AKA74"/>
+      <c r="AKB74"/>
+      <c r="AKC74"/>
+      <c r="AKD74"/>
+      <c r="AKE74"/>
+      <c r="AKF74"/>
+      <c r="AKG74"/>
+      <c r="AKH74"/>
+      <c r="AKI74"/>
+      <c r="AKJ74"/>
+      <c r="AKK74"/>
+      <c r="AKL74"/>
+      <c r="AKM74"/>
+      <c r="AKN74"/>
+      <c r="AKO74"/>
+      <c r="AKP74"/>
+      <c r="AKQ74"/>
+      <c r="AKR74"/>
+      <c r="AKS74"/>
+      <c r="AKT74"/>
+      <c r="AKU74"/>
+      <c r="AKV74"/>
+      <c r="AKW74"/>
+      <c r="AKX74"/>
+      <c r="AKY74"/>
+      <c r="AKZ74"/>
+      <c r="ALA74"/>
+      <c r="ALB74"/>
+      <c r="ALC74"/>
+      <c r="ALD74"/>
+      <c r="ALE74"/>
+      <c r="ALF74"/>
+      <c r="ALG74"/>
+      <c r="ALH74"/>
+      <c r="ALI74"/>
+      <c r="ALJ74"/>
+      <c r="ALK74"/>
+      <c r="ALL74"/>
+      <c r="ALM74"/>
+      <c r="ALN74"/>
+      <c r="ALO74"/>
+      <c r="ALP74"/>
+      <c r="ALQ74"/>
+      <c r="ALR74"/>
+      <c r="ALS74"/>
+      <c r="ALT74"/>
+      <c r="ALU74"/>
+      <c r="ALV74"/>
+      <c r="ALW74"/>
+      <c r="ALX74"/>
+      <c r="ALY74"/>
+      <c r="ALZ74"/>
+      <c r="AMA74"/>
+      <c r="AMB74"/>
+      <c r="AMC74"/>
+      <c r="AMD74"/>
+      <c r="AME74"/>
+      <c r="AMF74"/>
+      <c r="AMG74"/>
+    </row>
+    <row r="75" spans="28:1021" x14ac:dyDescent="0.25">
+      <c r="AB75" s="1"/>
+      <c r="AJA75"/>
+      <c r="AJB75"/>
+      <c r="AJC75"/>
+      <c r="AJD75"/>
+      <c r="AJE75"/>
+      <c r="AJF75"/>
+      <c r="AJG75"/>
+      <c r="AJH75"/>
+      <c r="AJI75"/>
+      <c r="AJJ75"/>
+      <c r="AJK75"/>
+      <c r="AJL75"/>
+      <c r="AJM75"/>
+      <c r="AJN75"/>
+      <c r="AJO75"/>
+      <c r="AJP75"/>
+      <c r="AJQ75"/>
+      <c r="AJR75"/>
+      <c r="AJS75"/>
+      <c r="AJT75"/>
+      <c r="AJU75"/>
+      <c r="AJV75"/>
+      <c r="AJW75"/>
+      <c r="AJX75"/>
+      <c r="AJY75"/>
+      <c r="AJZ75"/>
+      <c r="AKA75"/>
+      <c r="AKB75"/>
+      <c r="AKC75"/>
+      <c r="AKD75"/>
+      <c r="AKE75"/>
+      <c r="AKF75"/>
+      <c r="AKG75"/>
+      <c r="AKH75"/>
+      <c r="AKI75"/>
+      <c r="AKJ75"/>
+      <c r="AKK75"/>
+      <c r="AKL75"/>
+      <c r="AKM75"/>
+      <c r="AKN75"/>
+      <c r="AKO75"/>
+      <c r="AKP75"/>
+      <c r="AKQ75"/>
+      <c r="AKR75"/>
+      <c r="AKS75"/>
+      <c r="AKT75"/>
+      <c r="AKU75"/>
+      <c r="AKV75"/>
+      <c r="AKW75"/>
+      <c r="AKX75"/>
+      <c r="AKY75"/>
+      <c r="AKZ75"/>
+      <c r="ALA75"/>
+      <c r="ALB75"/>
+      <c r="ALC75"/>
+      <c r="ALD75"/>
+      <c r="ALE75"/>
+      <c r="ALF75"/>
+      <c r="ALG75"/>
+      <c r="ALH75"/>
+      <c r="ALI75"/>
+      <c r="ALJ75"/>
+      <c r="ALK75"/>
+      <c r="ALL75"/>
+      <c r="ALM75"/>
+      <c r="ALN75"/>
+      <c r="ALO75"/>
+      <c r="ALP75"/>
+      <c r="ALQ75"/>
+      <c r="ALR75"/>
+      <c r="ALS75"/>
+      <c r="ALT75"/>
+      <c r="ALU75"/>
+      <c r="ALV75"/>
+      <c r="ALW75"/>
+      <c r="ALX75"/>
+      <c r="ALY75"/>
+      <c r="ALZ75"/>
+      <c r="AMA75"/>
+      <c r="AMB75"/>
+      <c r="AMC75"/>
+      <c r="AMD75"/>
+      <c r="AME75"/>
+      <c r="AMF75"/>
+      <c r="AMG75"/>
+    </row>
+    <row r="76" spans="28:1021" x14ac:dyDescent="0.25">
+      <c r="AB76" s="1"/>
+      <c r="AJA76"/>
+      <c r="AJB76"/>
+      <c r="AJC76"/>
+      <c r="AJD76"/>
+      <c r="AJE76"/>
+      <c r="AJF76"/>
+      <c r="AJG76"/>
+      <c r="AJH76"/>
+      <c r="AJI76"/>
+      <c r="AJJ76"/>
+      <c r="AJK76"/>
+      <c r="AJL76"/>
+      <c r="AJM76"/>
+      <c r="AJN76"/>
+      <c r="AJO76"/>
+      <c r="AJP76"/>
+      <c r="AJQ76"/>
+      <c r="AJR76"/>
+      <c r="AJS76"/>
+      <c r="AJT76"/>
+      <c r="AJU76"/>
+      <c r="AJV76"/>
+      <c r="AJW76"/>
+      <c r="AJX76"/>
+      <c r="AJY76"/>
+      <c r="AJZ76"/>
+      <c r="AKA76"/>
+      <c r="AKB76"/>
+      <c r="AKC76"/>
+      <c r="AKD76"/>
+      <c r="AKE76"/>
+      <c r="AKF76"/>
+      <c r="AKG76"/>
+      <c r="AKH76"/>
+      <c r="AKI76"/>
+      <c r="AKJ76"/>
+      <c r="AKK76"/>
+      <c r="AKL76"/>
+      <c r="AKM76"/>
+      <c r="AKN76"/>
+      <c r="AKO76"/>
+      <c r="AKP76"/>
+      <c r="AKQ76"/>
+      <c r="AKR76"/>
+      <c r="AKS76"/>
+      <c r="AKT76"/>
+      <c r="AKU76"/>
+      <c r="AKV76"/>
+      <c r="AKW76"/>
+      <c r="AKX76"/>
+      <c r="AKY76"/>
+      <c r="AKZ76"/>
+      <c r="ALA76"/>
+      <c r="ALB76"/>
+      <c r="ALC76"/>
+      <c r="ALD76"/>
+      <c r="ALE76"/>
+      <c r="ALF76"/>
+      <c r="ALG76"/>
+      <c r="ALH76"/>
+      <c r="ALI76"/>
+      <c r="ALJ76"/>
+      <c r="ALK76"/>
+      <c r="ALL76"/>
+      <c r="ALM76"/>
+      <c r="ALN76"/>
+      <c r="ALO76"/>
+      <c r="ALP76"/>
+      <c r="ALQ76"/>
+      <c r="ALR76"/>
+      <c r="ALS76"/>
+      <c r="ALT76"/>
+      <c r="ALU76"/>
+      <c r="ALV76"/>
+      <c r="ALW76"/>
+      <c r="ALX76"/>
+      <c r="ALY76"/>
+      <c r="ALZ76"/>
+      <c r="AMA76"/>
+      <c r="AMB76"/>
+      <c r="AMC76"/>
+      <c r="AMD76"/>
+      <c r="AME76"/>
+      <c r="AMF76"/>
+      <c r="AMG76"/>
+    </row>
+    <row r="77" spans="28:1021" x14ac:dyDescent="0.25">
+      <c r="AB77" s="1"/>
+      <c r="AJA77"/>
+      <c r="AJB77"/>
+      <c r="AJC77"/>
+      <c r="AJD77"/>
+      <c r="AJE77"/>
+      <c r="AJF77"/>
+      <c r="AJG77"/>
+      <c r="AJH77"/>
+      <c r="AJI77"/>
+      <c r="AJJ77"/>
+      <c r="AJK77"/>
+      <c r="AJL77"/>
+      <c r="AJM77"/>
+      <c r="AJN77"/>
+      <c r="AJO77"/>
+      <c r="AJP77"/>
+      <c r="AJQ77"/>
+      <c r="AJR77"/>
+      <c r="AJS77"/>
+      <c r="AJT77"/>
+      <c r="AJU77"/>
+      <c r="AJV77"/>
+      <c r="AJW77"/>
+      <c r="AJX77"/>
+      <c r="AJY77"/>
+      <c r="AJZ77"/>
+      <c r="AKA77"/>
+      <c r="AKB77"/>
+      <c r="AKC77"/>
+      <c r="AKD77"/>
+      <c r="AKE77"/>
+      <c r="AKF77"/>
+      <c r="AKG77"/>
+      <c r="AKH77"/>
+      <c r="AKI77"/>
+      <c r="AKJ77"/>
+      <c r="AKK77"/>
+      <c r="AKL77"/>
+      <c r="AKM77"/>
+      <c r="AKN77"/>
+      <c r="AKO77"/>
+      <c r="AKP77"/>
+      <c r="AKQ77"/>
+      <c r="AKR77"/>
+      <c r="AKS77"/>
+      <c r="AKT77"/>
+      <c r="AKU77"/>
+      <c r="AKV77"/>
+      <c r="AKW77"/>
+      <c r="AKX77"/>
+      <c r="AKY77"/>
+      <c r="AKZ77"/>
+      <c r="ALA77"/>
+      <c r="ALB77"/>
+      <c r="ALC77"/>
+      <c r="ALD77"/>
+      <c r="ALE77"/>
+      <c r="ALF77"/>
+      <c r="ALG77"/>
+      <c r="ALH77"/>
+      <c r="ALI77"/>
+      <c r="ALJ77"/>
+      <c r="ALK77"/>
+      <c r="ALL77"/>
+      <c r="ALM77"/>
+      <c r="ALN77"/>
+      <c r="ALO77"/>
+      <c r="ALP77"/>
+      <c r="ALQ77"/>
+      <c r="ALR77"/>
+      <c r="ALS77"/>
+      <c r="ALT77"/>
+      <c r="ALU77"/>
+      <c r="ALV77"/>
+      <c r="ALW77"/>
+      <c r="ALX77"/>
+      <c r="ALY77"/>
+      <c r="ALZ77"/>
+      <c r="AMA77"/>
+      <c r="AMB77"/>
+      <c r="AMC77"/>
+      <c r="AMD77"/>
+      <c r="AME77"/>
+      <c r="AMF77"/>
+      <c r="AMG77"/>
+    </row>
+    <row r="78" spans="28:1021" x14ac:dyDescent="0.25">
+      <c r="AB78" s="1"/>
+      <c r="AJA78"/>
+      <c r="AJB78"/>
+      <c r="AJC78"/>
+      <c r="AJD78"/>
+      <c r="AJE78"/>
+      <c r="AJF78"/>
+      <c r="AJG78"/>
+      <c r="AJH78"/>
+      <c r="AJI78"/>
+      <c r="AJJ78"/>
+      <c r="AJK78"/>
+      <c r="AJL78"/>
+      <c r="AJM78"/>
+      <c r="AJN78"/>
+      <c r="AJO78"/>
+      <c r="AJP78"/>
+      <c r="AJQ78"/>
+      <c r="AJR78"/>
+      <c r="AJS78"/>
+      <c r="AJT78"/>
+      <c r="AJU78"/>
+      <c r="AJV78"/>
+      <c r="AJW78"/>
+      <c r="AJX78"/>
+      <c r="AJY78"/>
+      <c r="AJZ78"/>
+      <c r="AKA78"/>
+      <c r="AKB78"/>
+      <c r="AKC78"/>
+      <c r="AKD78"/>
+      <c r="AKE78"/>
+      <c r="AKF78"/>
+      <c r="AKG78"/>
+      <c r="AKH78"/>
+      <c r="AKI78"/>
+      <c r="AKJ78"/>
+      <c r="AKK78"/>
+      <c r="AKL78"/>
+      <c r="AKM78"/>
+      <c r="AKN78"/>
+      <c r="AKO78"/>
+      <c r="AKP78"/>
+      <c r="AKQ78"/>
+      <c r="AKR78"/>
+      <c r="AKS78"/>
+      <c r="AKT78"/>
+      <c r="AKU78"/>
+      <c r="AKV78"/>
+      <c r="AKW78"/>
+      <c r="AKX78"/>
+      <c r="AKY78"/>
+      <c r="AKZ78"/>
+      <c r="ALA78"/>
+      <c r="ALB78"/>
+      <c r="ALC78"/>
+      <c r="ALD78"/>
+      <c r="ALE78"/>
+      <c r="ALF78"/>
+      <c r="ALG78"/>
+      <c r="ALH78"/>
+      <c r="ALI78"/>
+      <c r="ALJ78"/>
+      <c r="ALK78"/>
+      <c r="ALL78"/>
+      <c r="ALM78"/>
+      <c r="ALN78"/>
+      <c r="ALO78"/>
+      <c r="ALP78"/>
+      <c r="ALQ78"/>
+      <c r="ALR78"/>
+      <c r="ALS78"/>
+      <c r="ALT78"/>
+      <c r="ALU78"/>
+      <c r="ALV78"/>
+      <c r="ALW78"/>
+      <c r="ALX78"/>
+      <c r="ALY78"/>
+      <c r="ALZ78"/>
+      <c r="AMA78"/>
+      <c r="AMB78"/>
+      <c r="AMC78"/>
+      <c r="AMD78"/>
+      <c r="AME78"/>
+      <c r="AMF78"/>
+      <c r="AMG78"/>
+    </row>
+    <row r="79" spans="28:1021" x14ac:dyDescent="0.25">
+      <c r="AB79" s="1"/>
+      <c r="AJA79"/>
+      <c r="AJB79"/>
+      <c r="AJC79"/>
+      <c r="AJD79"/>
+      <c r="AJE79"/>
+      <c r="AJF79"/>
+      <c r="AJG79"/>
+      <c r="AJH79"/>
+      <c r="AJI79"/>
+      <c r="AJJ79"/>
+      <c r="AJK79"/>
+      <c r="AJL79"/>
+      <c r="AJM79"/>
+      <c r="AJN79"/>
+      <c r="AJO79"/>
+      <c r="AJP79"/>
+      <c r="AJQ79"/>
+      <c r="AJR79"/>
+      <c r="AJS79"/>
+      <c r="AJT79"/>
+      <c r="AJU79"/>
+      <c r="AJV79"/>
+      <c r="AJW79"/>
+      <c r="AJX79"/>
+      <c r="AJY79"/>
+      <c r="AJZ79"/>
+      <c r="AKA79"/>
+      <c r="AKB79"/>
+      <c r="AKC79"/>
+      <c r="AKD79"/>
+      <c r="AKE79"/>
+      <c r="AKF79"/>
+      <c r="AKG79"/>
+      <c r="AKH79"/>
+      <c r="AKI79"/>
+      <c r="AKJ79"/>
+      <c r="AKK79"/>
+      <c r="AKL79"/>
+      <c r="AKM79"/>
+      <c r="AKN79"/>
+      <c r="AKO79"/>
+      <c r="AKP79"/>
+      <c r="AKQ79"/>
+      <c r="AKR79"/>
+      <c r="AKS79"/>
+      <c r="AKT79"/>
+      <c r="AKU79"/>
+      <c r="AKV79"/>
+      <c r="AKW79"/>
+      <c r="AKX79"/>
+      <c r="AKY79"/>
+      <c r="AKZ79"/>
+      <c r="ALA79"/>
+      <c r="ALB79"/>
+      <c r="ALC79"/>
+      <c r="ALD79"/>
+      <c r="ALE79"/>
+      <c r="ALF79"/>
+      <c r="ALG79"/>
+      <c r="ALH79"/>
+      <c r="ALI79"/>
+      <c r="ALJ79"/>
+      <c r="ALK79"/>
+      <c r="ALL79"/>
+      <c r="ALM79"/>
+      <c r="ALN79"/>
+      <c r="ALO79"/>
+      <c r="ALP79"/>
+      <c r="ALQ79"/>
+      <c r="ALR79"/>
+      <c r="ALS79"/>
+      <c r="ALT79"/>
+      <c r="ALU79"/>
+      <c r="ALV79"/>
+      <c r="ALW79"/>
+      <c r="ALX79"/>
+      <c r="ALY79"/>
+      <c r="ALZ79"/>
+      <c r="AMA79"/>
+      <c r="AMB79"/>
+      <c r="AMC79"/>
+      <c r="AMD79"/>
+      <c r="AME79"/>
+      <c r="AMF79"/>
+      <c r="AMG79"/>
+    </row>
+    <row r="80" spans="28:1021" x14ac:dyDescent="0.25">
+      <c r="AB80" s="1"/>
+      <c r="AJA80"/>
+      <c r="AJB80"/>
+      <c r="AJC80"/>
+      <c r="AJD80"/>
+      <c r="AJE80"/>
+      <c r="AJF80"/>
+      <c r="AJG80"/>
+      <c r="AJH80"/>
+      <c r="AJI80"/>
+      <c r="AJJ80"/>
+      <c r="AJK80"/>
+      <c r="AJL80"/>
+      <c r="AJM80"/>
+      <c r="AJN80"/>
+      <c r="AJO80"/>
+      <c r="AJP80"/>
+      <c r="AJQ80"/>
+      <c r="AJR80"/>
+      <c r="AJS80"/>
+      <c r="AJT80"/>
+      <c r="AJU80"/>
+      <c r="AJV80"/>
+      <c r="AJW80"/>
+      <c r="AJX80"/>
+      <c r="AJY80"/>
+      <c r="AJZ80"/>
+      <c r="AKA80"/>
+      <c r="AKB80"/>
+      <c r="AKC80"/>
+      <c r="AKD80"/>
+      <c r="AKE80"/>
+      <c r="AKF80"/>
+      <c r="AKG80"/>
+      <c r="AKH80"/>
+      <c r="AKI80"/>
+      <c r="AKJ80"/>
+      <c r="AKK80"/>
+      <c r="AKL80"/>
+      <c r="AKM80"/>
+      <c r="AKN80"/>
+      <c r="AKO80"/>
+      <c r="AKP80"/>
+      <c r="AKQ80"/>
+      <c r="AKR80"/>
+      <c r="AKS80"/>
+      <c r="AKT80"/>
+      <c r="AKU80"/>
+      <c r="AKV80"/>
+      <c r="AKW80"/>
+      <c r="AKX80"/>
+      <c r="AKY80"/>
+      <c r="AKZ80"/>
+      <c r="ALA80"/>
+      <c r="ALB80"/>
+      <c r="ALC80"/>
+      <c r="ALD80"/>
+      <c r="ALE80"/>
+      <c r="ALF80"/>
+      <c r="ALG80"/>
+      <c r="ALH80"/>
+      <c r="ALI80"/>
+      <c r="ALJ80"/>
+      <c r="ALK80"/>
+      <c r="ALL80"/>
+      <c r="ALM80"/>
+      <c r="ALN80"/>
+      <c r="ALO80"/>
+      <c r="ALP80"/>
+      <c r="ALQ80"/>
+      <c r="ALR80"/>
+      <c r="ALS80"/>
+      <c r="ALT80"/>
+      <c r="ALU80"/>
+      <c r="ALV80"/>
+      <c r="ALW80"/>
+      <c r="ALX80"/>
+      <c r="ALY80"/>
+      <c r="ALZ80"/>
+      <c r="AMA80"/>
+      <c r="AMB80"/>
+      <c r="AMC80"/>
+      <c r="AMD80"/>
+      <c r="AME80"/>
+      <c r="AMF80"/>
+      <c r="AMG80"/>
+    </row>
+    <row r="81" spans="28:1021" x14ac:dyDescent="0.25">
+      <c r="AB81" s="1"/>
+      <c r="AJA81"/>
+      <c r="AJB81"/>
+      <c r="AJC81"/>
+      <c r="AJD81"/>
+      <c r="AJE81"/>
+      <c r="AJF81"/>
+      <c r="AJG81"/>
+      <c r="AJH81"/>
+      <c r="AJI81"/>
+      <c r="AJJ81"/>
+      <c r="AJK81"/>
+      <c r="AJL81"/>
+      <c r="AJM81"/>
+      <c r="AJN81"/>
+      <c r="AJO81"/>
+      <c r="AJP81"/>
+      <c r="AJQ81"/>
+      <c r="AJR81"/>
+      <c r="AJS81"/>
+      <c r="AJT81"/>
+      <c r="AJU81"/>
+      <c r="AJV81"/>
+      <c r="AJW81"/>
+      <c r="AJX81"/>
+      <c r="AJY81"/>
+      <c r="AJZ81"/>
+      <c r="AKA81"/>
+      <c r="AKB81"/>
+      <c r="AKC81"/>
+      <c r="AKD81"/>
+      <c r="AKE81"/>
+      <c r="AKF81"/>
+      <c r="AKG81"/>
+      <c r="AKH81"/>
+      <c r="AKI81"/>
+      <c r="AKJ81"/>
+      <c r="AKK81"/>
+      <c r="AKL81"/>
+      <c r="AKM81"/>
+      <c r="AKN81"/>
+      <c r="AKO81"/>
+      <c r="AKP81"/>
+      <c r="AKQ81"/>
+      <c r="AKR81"/>
+      <c r="AKS81"/>
+      <c r="AKT81"/>
+      <c r="AKU81"/>
+      <c r="AKV81"/>
+      <c r="AKW81"/>
+      <c r="AKX81"/>
+      <c r="AKY81"/>
+      <c r="AKZ81"/>
+      <c r="ALA81"/>
+      <c r="ALB81"/>
+      <c r="ALC81"/>
+      <c r="ALD81"/>
+      <c r="ALE81"/>
+      <c r="ALF81"/>
+      <c r="ALG81"/>
+      <c r="ALH81"/>
+      <c r="ALI81"/>
+      <c r="ALJ81"/>
+      <c r="ALK81"/>
+      <c r="ALL81"/>
+      <c r="ALM81"/>
+      <c r="ALN81"/>
+      <c r="ALO81"/>
+      <c r="ALP81"/>
+      <c r="ALQ81"/>
+      <c r="ALR81"/>
+      <c r="ALS81"/>
+      <c r="ALT81"/>
+      <c r="ALU81"/>
+      <c r="ALV81"/>
+      <c r="ALW81"/>
+      <c r="ALX81"/>
+      <c r="ALY81"/>
+      <c r="ALZ81"/>
+      <c r="AMA81"/>
+      <c r="AMB81"/>
+      <c r="AMC81"/>
+      <c r="AMD81"/>
+      <c r="AME81"/>
+      <c r="AMF81"/>
+      <c r="AMG81"/>
+    </row>
+    <row r="82" spans="28:1021" x14ac:dyDescent="0.25">
+      <c r="AB82" s="1"/>
+      <c r="AJA82"/>
+      <c r="AJB82"/>
+      <c r="AJC82"/>
+      <c r="AJD82"/>
+      <c r="AJE82"/>
+      <c r="AJF82"/>
+      <c r="AJG82"/>
+      <c r="AJH82"/>
+      <c r="AJI82"/>
+      <c r="AJJ82"/>
+      <c r="AJK82"/>
+      <c r="AJL82"/>
+      <c r="AJM82"/>
+      <c r="AJN82"/>
+      <c r="AJO82"/>
+      <c r="AJP82"/>
+      <c r="AJQ82"/>
+      <c r="AJR82"/>
+      <c r="AJS82"/>
+      <c r="AJT82"/>
+      <c r="AJU82"/>
+      <c r="AJV82"/>
+      <c r="AJW82"/>
+      <c r="AJX82"/>
+      <c r="AJY82"/>
+      <c r="AJZ82"/>
+      <c r="AKA82"/>
+      <c r="AKB82"/>
+      <c r="AKC82"/>
+      <c r="AKD82"/>
+      <c r="AKE82"/>
+      <c r="AKF82"/>
+      <c r="AKG82"/>
+      <c r="AKH82"/>
+      <c r="AKI82"/>
+      <c r="AKJ82"/>
+      <c r="AKK82"/>
+      <c r="AKL82"/>
+      <c r="AKM82"/>
+      <c r="AKN82"/>
+      <c r="AKO82"/>
+      <c r="AKP82"/>
+      <c r="AKQ82"/>
+      <c r="AKR82"/>
+      <c r="AKS82"/>
+      <c r="AKT82"/>
+      <c r="AKU82"/>
+      <c r="AKV82"/>
+      <c r="AKW82"/>
+      <c r="AKX82"/>
+      <c r="AKY82"/>
+      <c r="AKZ82"/>
+      <c r="ALA82"/>
+      <c r="ALB82"/>
+      <c r="ALC82"/>
+      <c r="ALD82"/>
+      <c r="ALE82"/>
+      <c r="ALF82"/>
+      <c r="ALG82"/>
+      <c r="ALH82"/>
+      <c r="ALI82"/>
+      <c r="ALJ82"/>
+      <c r="ALK82"/>
+      <c r="ALL82"/>
+      <c r="ALM82"/>
+      <c r="ALN82"/>
+      <c r="ALO82"/>
+      <c r="ALP82"/>
+      <c r="ALQ82"/>
+      <c r="ALR82"/>
+      <c r="ALS82"/>
+      <c r="ALT82"/>
+      <c r="ALU82"/>
+      <c r="ALV82"/>
+      <c r="ALW82"/>
+      <c r="ALX82"/>
+      <c r="ALY82"/>
+      <c r="ALZ82"/>
+      <c r="AMA82"/>
+      <c r="AMB82"/>
+      <c r="AMC82"/>
+      <c r="AMD82"/>
+      <c r="AME82"/>
+      <c r="AMF82"/>
+      <c r="AMG82"/>
+    </row>
+    <row r="83" spans="28:1021" x14ac:dyDescent="0.25">
+      <c r="AB83" s="1"/>
+      <c r="AJA83"/>
+      <c r="AJB83"/>
+      <c r="AJC83"/>
+      <c r="AJD83"/>
+      <c r="AJE83"/>
+      <c r="AJF83"/>
+      <c r="AJG83"/>
+      <c r="AJH83"/>
+      <c r="AJI83"/>
+      <c r="AJJ83"/>
+      <c r="AJK83"/>
+      <c r="AJL83"/>
+      <c r="AJM83"/>
+      <c r="AJN83"/>
+      <c r="AJO83"/>
+      <c r="AJP83"/>
+      <c r="AJQ83"/>
+      <c r="AJR83"/>
+      <c r="AJS83"/>
+      <c r="AJT83"/>
+      <c r="AJU83"/>
+      <c r="AJV83"/>
+      <c r="AJW83"/>
+      <c r="AJX83"/>
+      <c r="AJY83"/>
+      <c r="AJZ83"/>
+      <c r="AKA83"/>
+      <c r="AKB83"/>
+      <c r="AKC83"/>
+      <c r="AKD83"/>
+      <c r="AKE83"/>
+      <c r="AKF83"/>
+      <c r="AKG83"/>
+      <c r="AKH83"/>
+      <c r="AKI83"/>
+      <c r="AKJ83"/>
+      <c r="AKK83"/>
+      <c r="AKL83"/>
+      <c r="AKM83"/>
+      <c r="AKN83"/>
+      <c r="AKO83"/>
+      <c r="AKP83"/>
+      <c r="AKQ83"/>
+      <c r="AKR83"/>
+      <c r="AKS83"/>
+      <c r="AKT83"/>
+      <c r="AKU83"/>
+      <c r="AKV83"/>
+      <c r="AKW83"/>
+      <c r="AKX83"/>
+      <c r="AKY83"/>
+      <c r="AKZ83"/>
+      <c r="ALA83"/>
+      <c r="ALB83"/>
+      <c r="ALC83"/>
+      <c r="ALD83"/>
+      <c r="ALE83"/>
+      <c r="ALF83"/>
+      <c r="ALG83"/>
+      <c r="ALH83"/>
+      <c r="ALI83"/>
+      <c r="ALJ83"/>
+      <c r="ALK83"/>
+      <c r="ALL83"/>
+      <c r="ALM83"/>
+      <c r="ALN83"/>
+      <c r="ALO83"/>
+      <c r="ALP83"/>
+      <c r="ALQ83"/>
+      <c r="ALR83"/>
+      <c r="ALS83"/>
+      <c r="ALT83"/>
+      <c r="ALU83"/>
+      <c r="ALV83"/>
+      <c r="ALW83"/>
+      <c r="ALX83"/>
+      <c r="ALY83"/>
+      <c r="ALZ83"/>
+      <c r="AMA83"/>
+      <c r="AMB83"/>
+      <c r="AMC83"/>
+      <c r="AMD83"/>
+      <c r="AME83"/>
+      <c r="AMF83"/>
+      <c r="AMG83"/>
+    </row>
+    <row r="84" spans="28:1021" x14ac:dyDescent="0.25">
+      <c r="AB84" s="1"/>
+      <c r="AJA84"/>
+      <c r="AJB84"/>
+      <c r="AJC84"/>
+      <c r="AJD84"/>
+      <c r="AJE84"/>
+      <c r="AJF84"/>
+      <c r="AJG84"/>
+      <c r="AJH84"/>
+      <c r="AJI84"/>
+      <c r="AJJ84"/>
+      <c r="AJK84"/>
+      <c r="AJL84"/>
+      <c r="AJM84"/>
+      <c r="AJN84"/>
+      <c r="AJO84"/>
+      <c r="AJP84"/>
+      <c r="AJQ84"/>
+      <c r="AJR84"/>
+      <c r="AJS84"/>
+      <c r="AJT84"/>
+      <c r="AJU84"/>
+      <c r="AJV84"/>
+      <c r="AJW84"/>
+      <c r="AJX84"/>
+      <c r="AJY84"/>
+      <c r="AJZ84"/>
+      <c r="AKA84"/>
+      <c r="AKB84"/>
+      <c r="AKC84"/>
+      <c r="AKD84"/>
+      <c r="AKE84"/>
+      <c r="AKF84"/>
+      <c r="AKG84"/>
+      <c r="AKH84"/>
+      <c r="AKI84"/>
+      <c r="AKJ84"/>
+      <c r="AKK84"/>
+      <c r="AKL84"/>
+      <c r="AKM84"/>
+      <c r="AKN84"/>
+      <c r="AKO84"/>
+      <c r="AKP84"/>
+      <c r="AKQ84"/>
+      <c r="AKR84"/>
+      <c r="AKS84"/>
+      <c r="AKT84"/>
+      <c r="AKU84"/>
+      <c r="AKV84"/>
+      <c r="AKW84"/>
+      <c r="AKX84"/>
+      <c r="AKY84"/>
+      <c r="AKZ84"/>
+      <c r="ALA84"/>
+      <c r="ALB84"/>
+      <c r="ALC84"/>
+      <c r="ALD84"/>
+      <c r="ALE84"/>
+      <c r="ALF84"/>
+      <c r="ALG84"/>
+      <c r="ALH84"/>
+      <c r="ALI84"/>
+      <c r="ALJ84"/>
+      <c r="ALK84"/>
+      <c r="ALL84"/>
+      <c r="ALM84"/>
+      <c r="ALN84"/>
+      <c r="ALO84"/>
+      <c r="ALP84"/>
+      <c r="ALQ84"/>
+      <c r="ALR84"/>
+      <c r="ALS84"/>
+      <c r="ALT84"/>
+      <c r="ALU84"/>
+      <c r="ALV84"/>
+      <c r="ALW84"/>
+      <c r="ALX84"/>
+      <c r="ALY84"/>
+      <c r="ALZ84"/>
+      <c r="AMA84"/>
+      <c r="AMB84"/>
+      <c r="AMC84"/>
+      <c r="AMD84"/>
+      <c r="AME84"/>
+      <c r="AMF84"/>
+      <c r="AMG84"/>
+    </row>
+    <row r="85" spans="28:1021" x14ac:dyDescent="0.25">
+      <c r="AB85" s="1"/>
+      <c r="AJA85"/>
+      <c r="AJB85"/>
+      <c r="AJC85"/>
+      <c r="AJD85"/>
+      <c r="AJE85"/>
+      <c r="AJF85"/>
+      <c r="AJG85"/>
+      <c r="AJH85"/>
+      <c r="AJI85"/>
+      <c r="AJJ85"/>
+      <c r="AJK85"/>
+      <c r="AJL85"/>
+      <c r="AJM85"/>
+      <c r="AJN85"/>
+      <c r="AJO85"/>
+      <c r="AJP85"/>
+      <c r="AJQ85"/>
+      <c r="AJR85"/>
+      <c r="AJS85"/>
+      <c r="AJT85"/>
+      <c r="AJU85"/>
+      <c r="AJV85"/>
+      <c r="AJW85"/>
+      <c r="AJX85"/>
+      <c r="AJY85"/>
+      <c r="AJZ85"/>
+      <c r="AKA85"/>
+      <c r="AKB85"/>
+      <c r="AKC85"/>
+      <c r="AKD85"/>
+      <c r="AKE85"/>
+      <c r="AKF85"/>
+      <c r="AKG85"/>
+      <c r="AKH85"/>
+      <c r="AKI85"/>
+      <c r="AKJ85"/>
+      <c r="AKK85"/>
+      <c r="AKL85"/>
+      <c r="AKM85"/>
+      <c r="AKN85"/>
+      <c r="AKO85"/>
+      <c r="AKP85"/>
+      <c r="AKQ85"/>
+      <c r="AKR85"/>
+      <c r="AKS85"/>
+      <c r="AKT85"/>
+      <c r="AKU85"/>
+      <c r="AKV85"/>
+      <c r="AKW85"/>
+      <c r="AKX85"/>
+      <c r="AKY85"/>
+      <c r="AKZ85"/>
+      <c r="ALA85"/>
+      <c r="ALB85"/>
+      <c r="ALC85"/>
+      <c r="ALD85"/>
+      <c r="ALE85"/>
+      <c r="ALF85"/>
+      <c r="ALG85"/>
+      <c r="ALH85"/>
+      <c r="ALI85"/>
+      <c r="ALJ85"/>
+      <c r="ALK85"/>
+      <c r="ALL85"/>
+      <c r="ALM85"/>
+      <c r="ALN85"/>
+      <c r="ALO85"/>
+      <c r="ALP85"/>
+      <c r="ALQ85"/>
+      <c r="ALR85"/>
+      <c r="ALS85"/>
+      <c r="ALT85"/>
+      <c r="ALU85"/>
+      <c r="ALV85"/>
+      <c r="ALW85"/>
+      <c r="ALX85"/>
+      <c r="ALY85"/>
+      <c r="ALZ85"/>
+      <c r="AMA85"/>
+      <c r="AMB85"/>
+      <c r="AMC85"/>
+      <c r="AMD85"/>
+      <c r="AME85"/>
+      <c r="AMF85"/>
+      <c r="AMG85"/>
+    </row>
+    <row r="86" spans="28:1021" x14ac:dyDescent="0.25">
+      <c r="AB86" s="1"/>
+      <c r="AJA86"/>
+      <c r="AJB86"/>
+      <c r="AJC86"/>
+      <c r="AJD86"/>
+      <c r="AJE86"/>
+      <c r="AJF86"/>
+      <c r="AJG86"/>
+      <c r="AJH86"/>
+      <c r="AJI86"/>
+      <c r="AJJ86"/>
+      <c r="AJK86"/>
+      <c r="AJL86"/>
+      <c r="AJM86"/>
+      <c r="AJN86"/>
+      <c r="AJO86"/>
+      <c r="AJP86"/>
+      <c r="AJQ86"/>
+      <c r="AJR86"/>
+      <c r="AJS86"/>
+      <c r="AJT86"/>
+      <c r="AJU86"/>
+      <c r="AJV86"/>
+      <c r="AJW86"/>
+      <c r="AJX86"/>
+      <c r="AJY86"/>
+      <c r="AJZ86"/>
+      <c r="AKA86"/>
+      <c r="AKB86"/>
+      <c r="AKC86"/>
+      <c r="AKD86"/>
+      <c r="AKE86"/>
+      <c r="AKF86"/>
+      <c r="AKG86"/>
+      <c r="AKH86"/>
+      <c r="AKI86"/>
+      <c r="AKJ86"/>
+      <c r="AKK86"/>
+      <c r="AKL86"/>
+      <c r="AKM86"/>
+      <c r="AKN86"/>
+      <c r="AKO86"/>
+      <c r="AKP86"/>
+      <c r="AKQ86"/>
+      <c r="AKR86"/>
+      <c r="AKS86"/>
+      <c r="AKT86"/>
+      <c r="AKU86"/>
+      <c r="AKV86"/>
+      <c r="AKW86"/>
+      <c r="AKX86"/>
+      <c r="AKY86"/>
+      <c r="AKZ86"/>
+      <c r="ALA86"/>
+      <c r="ALB86"/>
+      <c r="ALC86"/>
+      <c r="ALD86"/>
+      <c r="ALE86"/>
+      <c r="ALF86"/>
+      <c r="ALG86"/>
+      <c r="ALH86"/>
+      <c r="ALI86"/>
+      <c r="ALJ86"/>
+      <c r="ALK86"/>
+      <c r="ALL86"/>
+      <c r="ALM86"/>
+      <c r="ALN86"/>
+      <c r="ALO86"/>
+      <c r="ALP86"/>
+      <c r="ALQ86"/>
+      <c r="ALR86"/>
+      <c r="ALS86"/>
+      <c r="ALT86"/>
+      <c r="ALU86"/>
+      <c r="ALV86"/>
+      <c r="ALW86"/>
+      <c r="ALX86"/>
+      <c r="ALY86"/>
+      <c r="ALZ86"/>
+      <c r="AMA86"/>
+      <c r="AMB86"/>
+      <c r="AMC86"/>
+      <c r="AMD86"/>
+      <c r="AME86"/>
+      <c r="AMF86"/>
+      <c r="AMG86"/>
+    </row>
+    <row r="87" spans="28:1021" x14ac:dyDescent="0.25">
+      <c r="AB87" s="1"/>
+      <c r="AJA87"/>
+      <c r="AJB87"/>
+      <c r="AJC87"/>
+      <c r="AJD87"/>
+      <c r="AJE87"/>
+      <c r="AJF87"/>
+      <c r="AJG87"/>
+      <c r="AJH87"/>
+      <c r="AJI87"/>
+      <c r="AJJ87"/>
+      <c r="AJK87"/>
+      <c r="AJL87"/>
+      <c r="AJM87"/>
+      <c r="AJN87"/>
+      <c r="AJO87"/>
+      <c r="AJP87"/>
+      <c r="AJQ87"/>
+      <c r="AJR87"/>
+      <c r="AJS87"/>
+      <c r="AJT87"/>
+      <c r="AJU87"/>
+      <c r="AJV87"/>
+      <c r="AJW87"/>
+      <c r="AJX87"/>
+      <c r="AJY87"/>
+      <c r="AJZ87"/>
+      <c r="AKA87"/>
+      <c r="AKB87"/>
+      <c r="AKC87"/>
+      <c r="AKD87"/>
+      <c r="AKE87"/>
+      <c r="AKF87"/>
+      <c r="AKG87"/>
+      <c r="AKH87"/>
+      <c r="AKI87"/>
+      <c r="AKJ87"/>
+      <c r="AKK87"/>
+      <c r="AKL87"/>
+      <c r="AKM87"/>
+      <c r="AKN87"/>
+      <c r="AKO87"/>
+      <c r="AKP87"/>
+      <c r="AKQ87"/>
+      <c r="AKR87"/>
+      <c r="AKS87"/>
+      <c r="AKT87"/>
+      <c r="AKU87"/>
+      <c r="AKV87"/>
+      <c r="AKW87"/>
+      <c r="AKX87"/>
+      <c r="AKY87"/>
+      <c r="AKZ87"/>
+      <c r="ALA87"/>
+      <c r="ALB87"/>
+      <c r="ALC87"/>
+      <c r="ALD87"/>
+      <c r="ALE87"/>
+      <c r="ALF87"/>
+      <c r="ALG87"/>
+      <c r="ALH87"/>
+      <c r="ALI87"/>
+      <c r="ALJ87"/>
+      <c r="ALK87"/>
+      <c r="ALL87"/>
+      <c r="ALM87"/>
+      <c r="ALN87"/>
+      <c r="ALO87"/>
+      <c r="ALP87"/>
+      <c r="ALQ87"/>
+      <c r="ALR87"/>
+      <c r="ALS87"/>
+      <c r="ALT87"/>
+      <c r="ALU87"/>
+      <c r="ALV87"/>
+      <c r="ALW87"/>
+      <c r="ALX87"/>
+      <c r="ALY87"/>
+      <c r="ALZ87"/>
+      <c r="AMA87"/>
+      <c r="AMB87"/>
+      <c r="AMC87"/>
+      <c r="AMD87"/>
+      <c r="AME87"/>
+      <c r="AMF87"/>
+      <c r="AMG87"/>
+    </row>
+    <row r="88" spans="28:1021" x14ac:dyDescent="0.25">
+      <c r="AB88" s="1"/>
+      <c r="AJA88"/>
+      <c r="AJB88"/>
+      <c r="AJC88"/>
+      <c r="AJD88"/>
+      <c r="AJE88"/>
+      <c r="AJF88"/>
+      <c r="AJG88"/>
+      <c r="AJH88"/>
+      <c r="AJI88"/>
+      <c r="AJJ88"/>
+      <c r="AJK88"/>
+      <c r="AJL88"/>
+      <c r="AJM88"/>
+      <c r="AJN88"/>
+      <c r="AJO88"/>
+      <c r="AJP88"/>
+      <c r="AJQ88"/>
+      <c r="AJR88"/>
+      <c r="AJS88"/>
+      <c r="AJT88"/>
+      <c r="AJU88"/>
+      <c r="AJV88"/>
+      <c r="AJW88"/>
+      <c r="AJX88"/>
+      <c r="AJY88"/>
+      <c r="AJZ88"/>
+      <c r="AKA88"/>
+      <c r="AKB88"/>
+      <c r="AKC88"/>
+      <c r="AKD88"/>
+      <c r="AKE88"/>
+      <c r="AKF88"/>
+      <c r="AKG88"/>
+      <c r="AKH88"/>
+      <c r="AKI88"/>
+      <c r="AKJ88"/>
+      <c r="AKK88"/>
+      <c r="AKL88"/>
+      <c r="AKM88"/>
+      <c r="AKN88"/>
+      <c r="AKO88"/>
+      <c r="AKP88"/>
+      <c r="AKQ88"/>
+      <c r="AKR88"/>
+      <c r="AKS88"/>
+      <c r="AKT88"/>
+      <c r="AKU88"/>
+      <c r="AKV88"/>
+      <c r="AKW88"/>
+      <c r="AKX88"/>
+      <c r="AKY88"/>
+      <c r="AKZ88"/>
+      <c r="ALA88"/>
+      <c r="ALB88"/>
+      <c r="ALC88"/>
+      <c r="ALD88"/>
+      <c r="ALE88"/>
+      <c r="ALF88"/>
+      <c r="ALG88"/>
+      <c r="ALH88"/>
+      <c r="ALI88"/>
+      <c r="ALJ88"/>
+      <c r="ALK88"/>
+      <c r="ALL88"/>
+      <c r="ALM88"/>
+      <c r="ALN88"/>
+      <c r="ALO88"/>
+      <c r="ALP88"/>
+      <c r="ALQ88"/>
+      <c r="ALR88"/>
+      <c r="ALS88"/>
+      <c r="ALT88"/>
+      <c r="ALU88"/>
+      <c r="ALV88"/>
+      <c r="ALW88"/>
+      <c r="ALX88"/>
+      <c r="ALY88"/>
+      <c r="ALZ88"/>
+      <c r="AMA88"/>
+      <c r="AMB88"/>
+      <c r="AMC88"/>
+      <c r="AMD88"/>
+      <c r="AME88"/>
+      <c r="AMF88"/>
+      <c r="AMG88"/>
+    </row>
+    <row r="89" spans="28:1021" x14ac:dyDescent="0.25">
+      <c r="AB89" s="1"/>
+      <c r="AJA89"/>
+      <c r="AJB89"/>
+      <c r="AJC89"/>
+      <c r="AJD89"/>
+      <c r="AJE89"/>
+      <c r="AJF89"/>
+      <c r="AJG89"/>
+      <c r="AJH89"/>
+      <c r="AJI89"/>
+      <c r="AJJ89"/>
+      <c r="AJK89"/>
+      <c r="AJL89"/>
+      <c r="AJM89"/>
+      <c r="AJN89"/>
+      <c r="AJO89"/>
+      <c r="AJP89"/>
+      <c r="AJQ89"/>
+      <c r="AJR89"/>
+      <c r="AJS89"/>
+      <c r="AJT89"/>
+      <c r="AJU89"/>
+      <c r="AJV89"/>
+      <c r="AJW89"/>
+      <c r="AJX89"/>
+      <c r="AJY89"/>
+      <c r="AJZ89"/>
+      <c r="AKA89"/>
+      <c r="AKB89"/>
+      <c r="AKC89"/>
+      <c r="AKD89"/>
+      <c r="AKE89"/>
+      <c r="AKF89"/>
+      <c r="AKG89"/>
+      <c r="AKH89"/>
+      <c r="AKI89"/>
+      <c r="AKJ89"/>
+      <c r="AKK89"/>
+      <c r="AKL89"/>
+      <c r="AKM89"/>
+      <c r="AKN89"/>
+      <c r="AKO89"/>
+      <c r="AKP89"/>
+      <c r="AKQ89"/>
+      <c r="AKR89"/>
+      <c r="AKS89"/>
+      <c r="AKT89"/>
+      <c r="AKU89"/>
+      <c r="AKV89"/>
+      <c r="AKW89"/>
+      <c r="AKX89"/>
+      <c r="AKY89"/>
+      <c r="AKZ89"/>
+      <c r="ALA89"/>
+      <c r="ALB89"/>
+      <c r="ALC89"/>
+      <c r="ALD89"/>
+      <c r="ALE89"/>
+      <c r="ALF89"/>
+      <c r="ALG89"/>
+      <c r="ALH89"/>
+      <c r="ALI89"/>
+      <c r="ALJ89"/>
+      <c r="ALK89"/>
+      <c r="ALL89"/>
+      <c r="ALM89"/>
+      <c r="ALN89"/>
+      <c r="ALO89"/>
+      <c r="ALP89"/>
+      <c r="ALQ89"/>
+      <c r="ALR89"/>
+      <c r="ALS89"/>
+      <c r="ALT89"/>
+      <c r="ALU89"/>
+      <c r="ALV89"/>
+      <c r="ALW89"/>
+      <c r="ALX89"/>
+      <c r="ALY89"/>
+      <c r="ALZ89"/>
+      <c r="AMA89"/>
+      <c r="AMB89"/>
+      <c r="AMC89"/>
+      <c r="AMD89"/>
+      <c r="AME89"/>
+      <c r="AMF89"/>
+      <c r="AMG89"/>
+    </row>
+    <row r="90" spans="28:1021" x14ac:dyDescent="0.25">
+      <c r="AB90" s="1"/>
+      <c r="AJA90"/>
+      <c r="AJB90"/>
+      <c r="AJC90"/>
+      <c r="AJD90"/>
+      <c r="AJE90"/>
+      <c r="AJF90"/>
+      <c r="AJG90"/>
+      <c r="AJH90"/>
+      <c r="AJI90"/>
+      <c r="AJJ90"/>
+      <c r="AJK90"/>
+      <c r="AJL90"/>
+      <c r="AJM90"/>
+      <c r="AJN90"/>
+      <c r="AJO90"/>
+      <c r="AJP90"/>
+      <c r="AJQ90"/>
+      <c r="AJR90"/>
+      <c r="AJS90"/>
+      <c r="AJT90"/>
+      <c r="AJU90"/>
+      <c r="AJV90"/>
+      <c r="AJW90"/>
+      <c r="AJX90"/>
+      <c r="AJY90"/>
+      <c r="AJZ90"/>
+      <c r="AKA90"/>
+      <c r="AKB90"/>
+      <c r="AKC90"/>
+      <c r="AKD90"/>
+      <c r="AKE90"/>
+      <c r="AKF90"/>
+      <c r="AKG90"/>
+      <c r="AKH90"/>
+      <c r="AKI90"/>
+      <c r="AKJ90"/>
+      <c r="AKK90"/>
+      <c r="AKL90"/>
+      <c r="AKM90"/>
+      <c r="AKN90"/>
+      <c r="AKO90"/>
+      <c r="AKP90"/>
+      <c r="AKQ90"/>
+      <c r="AKR90"/>
+      <c r="AKS90"/>
+      <c r="AKT90"/>
+      <c r="AKU90"/>
+      <c r="AKV90"/>
+      <c r="AKW90"/>
+      <c r="AKX90"/>
+      <c r="AKY90"/>
+      <c r="AKZ90"/>
+      <c r="ALA90"/>
+      <c r="ALB90"/>
+      <c r="ALC90"/>
+      <c r="ALD90"/>
+      <c r="ALE90"/>
+      <c r="ALF90"/>
+      <c r="ALG90"/>
+      <c r="ALH90"/>
+      <c r="ALI90"/>
+      <c r="ALJ90"/>
+      <c r="ALK90"/>
+      <c r="ALL90"/>
+      <c r="ALM90"/>
+      <c r="ALN90"/>
+      <c r="ALO90"/>
+      <c r="ALP90"/>
+      <c r="ALQ90"/>
+      <c r="ALR90"/>
+      <c r="ALS90"/>
+      <c r="ALT90"/>
+      <c r="ALU90"/>
+      <c r="ALV90"/>
+      <c r="ALW90"/>
+      <c r="ALX90"/>
+      <c r="ALY90"/>
+      <c r="ALZ90"/>
+      <c r="AMA90"/>
+      <c r="AMB90"/>
+      <c r="AMC90"/>
+      <c r="AMD90"/>
+      <c r="AME90"/>
+      <c r="AMF90"/>
+      <c r="AMG90"/>
+    </row>
+    <row r="91" spans="28:1021" x14ac:dyDescent="0.25">
+      <c r="AB91" s="1"/>
+      <c r="AJA91"/>
+      <c r="AJB91"/>
+      <c r="AJC91"/>
+      <c r="AJD91"/>
+      <c r="AJE91"/>
+      <c r="AJF91"/>
+      <c r="AJG91"/>
+      <c r="AJH91"/>
+      <c r="AJI91"/>
+      <c r="AJJ91"/>
+      <c r="AJK91"/>
+      <c r="AJL91"/>
+      <c r="AJM91"/>
+      <c r="AJN91"/>
+      <c r="AJO91"/>
+      <c r="AJP91"/>
+      <c r="AJQ91"/>
+      <c r="AJR91"/>
+      <c r="AJS91"/>
+      <c r="AJT91"/>
+      <c r="AJU91"/>
+      <c r="AJV91"/>
+      <c r="AJW91"/>
+      <c r="AJX91"/>
+      <c r="AJY91"/>
+      <c r="AJZ91"/>
+      <c r="AKA91"/>
+      <c r="AKB91"/>
+      <c r="AKC91"/>
+      <c r="AKD91"/>
+      <c r="AKE91"/>
+      <c r="AKF91"/>
+      <c r="AKG91"/>
+      <c r="AKH91"/>
+      <c r="AKI91"/>
+      <c r="AKJ91"/>
+      <c r="AKK91"/>
+      <c r="AKL91"/>
+      <c r="AKM91"/>
+      <c r="AKN91"/>
+      <c r="AKO91"/>
+      <c r="AKP91"/>
+      <c r="AKQ91"/>
+      <c r="AKR91"/>
+      <c r="AKS91"/>
+      <c r="AKT91"/>
+      <c r="AKU91"/>
+      <c r="AKV91"/>
+      <c r="AKW91"/>
+      <c r="AKX91"/>
+      <c r="AKY91"/>
+      <c r="AKZ91"/>
+      <c r="ALA91"/>
+      <c r="ALB91"/>
+      <c r="ALC91"/>
+      <c r="ALD91"/>
+      <c r="ALE91"/>
+      <c r="ALF91"/>
+      <c r="ALG91"/>
+      <c r="ALH91"/>
+      <c r="ALI91"/>
+      <c r="ALJ91"/>
+      <c r="ALK91"/>
+      <c r="ALL91"/>
+      <c r="ALM91"/>
+      <c r="ALN91"/>
+      <c r="ALO91"/>
+      <c r="ALP91"/>
+      <c r="ALQ91"/>
+      <c r="ALR91"/>
+      <c r="ALS91"/>
+      <c r="ALT91"/>
+      <c r="ALU91"/>
+      <c r="ALV91"/>
+      <c r="ALW91"/>
+      <c r="ALX91"/>
+      <c r="ALY91"/>
+      <c r="ALZ91"/>
+      <c r="AMA91"/>
+      <c r="AMB91"/>
+      <c r="AMC91"/>
+      <c r="AMD91"/>
+      <c r="AME91"/>
+      <c r="AMF91"/>
+      <c r="AMG91"/>
+    </row>
+    <row r="92" spans="28:1021" x14ac:dyDescent="0.25">
+      <c r="AB92" s="1"/>
+      <c r="AJA92"/>
+      <c r="AJB92"/>
+      <c r="AJC92"/>
+      <c r="AJD92"/>
+      <c r="AJE92"/>
+      <c r="AJF92"/>
+      <c r="AJG92"/>
+      <c r="AJH92"/>
+      <c r="AJI92"/>
+      <c r="AJJ92"/>
+      <c r="AJK92"/>
+      <c r="AJL92"/>
+      <c r="AJM92"/>
+      <c r="AJN92"/>
+      <c r="AJO92"/>
+      <c r="AJP92"/>
+      <c r="AJQ92"/>
+      <c r="AJR92"/>
+      <c r="AJS92"/>
+      <c r="AJT92"/>
+      <c r="AJU92"/>
+      <c r="AJV92"/>
+      <c r="AJW92"/>
+      <c r="AJX92"/>
+      <c r="AJY92"/>
+      <c r="AJZ92"/>
+      <c r="AKA92"/>
+      <c r="AKB92"/>
+      <c r="AKC92"/>
+      <c r="AKD92"/>
+      <c r="AKE92"/>
+      <c r="AKF92"/>
+      <c r="AKG92"/>
+      <c r="AKH92"/>
+      <c r="AKI92"/>
+      <c r="AKJ92"/>
+      <c r="AKK92"/>
+      <c r="AKL92"/>
+      <c r="AKM92"/>
+      <c r="AKN92"/>
+      <c r="AKO92"/>
+      <c r="AKP92"/>
+      <c r="AKQ92"/>
+      <c r="AKR92"/>
+      <c r="AKS92"/>
+      <c r="AKT92"/>
+      <c r="AKU92"/>
+      <c r="AKV92"/>
+      <c r="AKW92"/>
+      <c r="AKX92"/>
+      <c r="AKY92"/>
+      <c r="AKZ92"/>
+      <c r="ALA92"/>
+      <c r="ALB92"/>
+      <c r="ALC92"/>
+      <c r="ALD92"/>
+      <c r="ALE92"/>
+      <c r="ALF92"/>
+      <c r="ALG92"/>
+      <c r="ALH92"/>
+      <c r="ALI92"/>
+      <c r="ALJ92"/>
+      <c r="ALK92"/>
+      <c r="ALL92"/>
+      <c r="ALM92"/>
+      <c r="ALN92"/>
+      <c r="ALO92"/>
+      <c r="ALP92"/>
+      <c r="ALQ92"/>
+      <c r="ALR92"/>
+      <c r="ALS92"/>
+      <c r="ALT92"/>
+      <c r="ALU92"/>
+      <c r="ALV92"/>
+      <c r="ALW92"/>
+      <c r="ALX92"/>
+      <c r="ALY92"/>
+      <c r="ALZ92"/>
+      <c r="AMA92"/>
+      <c r="AMB92"/>
+      <c r="AMC92"/>
+      <c r="AMD92"/>
+      <c r="AME92"/>
+      <c r="AMF92"/>
+      <c r="AMG92"/>
+    </row>
+    <row r="93" spans="28:1021" x14ac:dyDescent="0.25">
+      <c r="AB93" s="1"/>
+      <c r="AJA93"/>
+      <c r="AJB93"/>
+      <c r="AJC93"/>
+      <c r="AJD93"/>
+      <c r="AJE93"/>
+      <c r="AJF93"/>
+      <c r="AJG93"/>
+      <c r="AJH93"/>
+      <c r="AJI93"/>
+      <c r="AJJ93"/>
+      <c r="AJK93"/>
+      <c r="AJL93"/>
+      <c r="AJM93"/>
+      <c r="AJN93"/>
+      <c r="AJO93"/>
+      <c r="AJP93"/>
+      <c r="AJQ93"/>
+      <c r="AJR93"/>
+      <c r="AJS93"/>
+      <c r="AJT93"/>
+      <c r="AJU93"/>
+      <c r="AJV93"/>
+      <c r="AJW93"/>
+      <c r="AJX93"/>
+      <c r="AJY93"/>
+      <c r="AJZ93"/>
+      <c r="AKA93"/>
+      <c r="AKB93"/>
+      <c r="AKC93"/>
+      <c r="AKD93"/>
+      <c r="AKE93"/>
+      <c r="AKF93"/>
+      <c r="AKG93"/>
+      <c r="AKH93"/>
+      <c r="AKI93"/>
+      <c r="AKJ93"/>
+      <c r="AKK93"/>
+      <c r="AKL93"/>
+      <c r="AKM93"/>
+      <c r="AKN93"/>
+      <c r="AKO93"/>
+      <c r="AKP93"/>
+      <c r="AKQ93"/>
+      <c r="AKR93"/>
+      <c r="AKS93"/>
+      <c r="AKT93"/>
+      <c r="AKU93"/>
+      <c r="AKV93"/>
+      <c r="AKW93"/>
+      <c r="AKX93"/>
+      <c r="AKY93"/>
+      <c r="AKZ93"/>
+      <c r="ALA93"/>
+      <c r="ALB93"/>
+      <c r="ALC93"/>
+      <c r="ALD93"/>
+      <c r="ALE93"/>
+      <c r="ALF93"/>
+      <c r="ALG93"/>
+      <c r="ALH93"/>
+      <c r="ALI93"/>
+      <c r="ALJ93"/>
+      <c r="ALK93"/>
+      <c r="ALL93"/>
+      <c r="ALM93"/>
+      <c r="ALN93"/>
+      <c r="ALO93"/>
+      <c r="ALP93"/>
+      <c r="ALQ93"/>
+      <c r="ALR93"/>
+      <c r="ALS93"/>
+      <c r="ALT93"/>
+      <c r="ALU93"/>
+      <c r="ALV93"/>
+      <c r="ALW93"/>
+      <c r="ALX93"/>
+      <c r="ALY93"/>
+      <c r="ALZ93"/>
+      <c r="AMA93"/>
+      <c r="AMB93"/>
+      <c r="AMC93"/>
+      <c r="AMD93"/>
+      <c r="AME93"/>
+      <c r="AMF93"/>
+      <c r="AMG93"/>
+    </row>
+    <row r="94" spans="28:1021" x14ac:dyDescent="0.25">
+      <c r="AB94" s="1"/>
+      <c r="AJA94"/>
+      <c r="AJB94"/>
+      <c r="AJC94"/>
+      <c r="AJD94"/>
+      <c r="AJE94"/>
+      <c r="AJF94"/>
+      <c r="AJG94"/>
+      <c r="AJH94"/>
+      <c r="AJI94"/>
+      <c r="AJJ94"/>
+      <c r="AJK94"/>
+      <c r="AJL94"/>
+      <c r="AJM94"/>
+      <c r="AJN94"/>
+      <c r="AJO94"/>
+      <c r="AJP94"/>
+      <c r="AJQ94"/>
+      <c r="AJR94"/>
+      <c r="AJS94"/>
+      <c r="AJT94"/>
+      <c r="AJU94"/>
+      <c r="AJV94"/>
+      <c r="AJW94"/>
+      <c r="AJX94"/>
+      <c r="AJY94"/>
+      <c r="AJZ94"/>
+      <c r="AKA94"/>
+      <c r="AKB94"/>
+      <c r="AKC94"/>
+      <c r="AKD94"/>
+      <c r="AKE94"/>
+      <c r="AKF94"/>
+      <c r="AKG94"/>
+      <c r="AKH94"/>
+      <c r="AKI94"/>
+      <c r="AKJ94"/>
+      <c r="AKK94"/>
+      <c r="AKL94"/>
+      <c r="AKM94"/>
+      <c r="AKN94"/>
+      <c r="AKO94"/>
+      <c r="AKP94"/>
+      <c r="AKQ94"/>
+      <c r="AKR94"/>
+      <c r="AKS94"/>
+      <c r="AKT94"/>
+      <c r="AKU94"/>
+      <c r="AKV94"/>
+      <c r="AKW94"/>
+      <c r="AKX94"/>
+      <c r="AKY94"/>
+      <c r="AKZ94"/>
+      <c r="ALA94"/>
+      <c r="ALB94"/>
+      <c r="ALC94"/>
+      <c r="ALD94"/>
+      <c r="ALE94"/>
+      <c r="ALF94"/>
+      <c r="ALG94"/>
+      <c r="ALH94"/>
+      <c r="ALI94"/>
+      <c r="ALJ94"/>
+      <c r="ALK94"/>
+      <c r="ALL94"/>
+      <c r="ALM94"/>
+      <c r="ALN94"/>
+      <c r="ALO94"/>
+      <c r="ALP94"/>
+      <c r="ALQ94"/>
+      <c r="ALR94"/>
+      <c r="ALS94"/>
+      <c r="ALT94"/>
+      <c r="ALU94"/>
+      <c r="ALV94"/>
+      <c r="ALW94"/>
+      <c r="ALX94"/>
+      <c r="ALY94"/>
+      <c r="ALZ94"/>
+      <c r="AMA94"/>
+      <c r="AMB94"/>
+      <c r="AMC94"/>
+      <c r="AMD94"/>
+      <c r="AME94"/>
+      <c r="AMF94"/>
+      <c r="AMG94"/>
+    </row>
+    <row r="95" spans="28:1021" x14ac:dyDescent="0.25">
+      <c r="AB95" s="1"/>
+      <c r="AJA95"/>
+      <c r="AJB95"/>
+      <c r="AJC95"/>
+      <c r="AJD95"/>
+      <c r="AJE95"/>
+      <c r="AJF95"/>
+      <c r="AJG95"/>
+      <c r="AJH95"/>
+      <c r="AJI95"/>
+      <c r="AJJ95"/>
+      <c r="AJK95"/>
+      <c r="AJL95"/>
+      <c r="AJM95"/>
+      <c r="AJN95"/>
+      <c r="AJO95"/>
+      <c r="AJP95"/>
+      <c r="AJQ95"/>
+      <c r="AJR95"/>
+      <c r="AJS95"/>
+      <c r="AJT95"/>
+      <c r="AJU95"/>
+      <c r="AJV95"/>
+      <c r="AJW95"/>
+      <c r="AJX95"/>
+      <c r="AJY95"/>
+      <c r="AJZ95"/>
+      <c r="AKA95"/>
+      <c r="AKB95"/>
+      <c r="AKC95"/>
+      <c r="AKD95"/>
+      <c r="AKE95"/>
+      <c r="AKF95"/>
+      <c r="AKG95"/>
+      <c r="AKH95"/>
+      <c r="AKI95"/>
+      <c r="AKJ95"/>
+      <c r="AKK95"/>
+      <c r="AKL95"/>
+      <c r="AKM95"/>
+      <c r="AKN95"/>
+      <c r="AKO95"/>
+      <c r="AKP95"/>
+      <c r="AKQ95"/>
+      <c r="AKR95"/>
+      <c r="AKS95"/>
+      <c r="AKT95"/>
+      <c r="AKU95"/>
+      <c r="AKV95"/>
+      <c r="AKW95"/>
+      <c r="AKX95"/>
+      <c r="AKY95"/>
+      <c r="AKZ95"/>
+      <c r="ALA95"/>
+      <c r="ALB95"/>
+      <c r="ALC95"/>
+      <c r="ALD95"/>
+      <c r="ALE95"/>
+      <c r="ALF95"/>
+      <c r="ALG95"/>
+      <c r="ALH95"/>
+      <c r="ALI95"/>
+      <c r="ALJ95"/>
+      <c r="ALK95"/>
+      <c r="ALL95"/>
+      <c r="ALM95"/>
+      <c r="ALN95"/>
+      <c r="ALO95"/>
+      <c r="ALP95"/>
+      <c r="ALQ95"/>
+      <c r="ALR95"/>
+      <c r="ALS95"/>
+      <c r="ALT95"/>
+      <c r="ALU95"/>
+      <c r="ALV95"/>
+      <c r="ALW95"/>
+      <c r="ALX95"/>
+      <c r="ALY95"/>
+      <c r="ALZ95"/>
+      <c r="AMA95"/>
+      <c r="AMB95"/>
+      <c r="AMC95"/>
+      <c r="AMD95"/>
+      <c r="AME95"/>
+      <c r="AMF95"/>
+      <c r="AMG95"/>
+    </row>
+    <row r="96" spans="28:1021" x14ac:dyDescent="0.25">
+      <c r="AB96" s="1"/>
+      <c r="AJA96"/>
+      <c r="AJB96"/>
+      <c r="AJC96"/>
+      <c r="AJD96"/>
+      <c r="AJE96"/>
+      <c r="AJF96"/>
+      <c r="AJG96"/>
+      <c r="AJH96"/>
+      <c r="AJI96"/>
+      <c r="AJJ96"/>
+      <c r="AJK96"/>
+      <c r="AJL96"/>
+      <c r="AJM96"/>
+      <c r="AJN96"/>
+      <c r="AJO96"/>
+      <c r="AJP96"/>
+      <c r="AJQ96"/>
+      <c r="AJR96"/>
+      <c r="AJS96"/>
+      <c r="AJT96"/>
+      <c r="AJU96"/>
+      <c r="AJV96"/>
+      <c r="AJW96"/>
+      <c r="AJX96"/>
+      <c r="AJY96"/>
+      <c r="AJZ96"/>
+      <c r="AKA96"/>
+      <c r="AKB96"/>
+      <c r="AKC96"/>
+      <c r="AKD96"/>
+      <c r="AKE96"/>
+      <c r="AKF96"/>
+      <c r="AKG96"/>
+      <c r="AKH96"/>
+      <c r="AKI96"/>
+      <c r="AKJ96"/>
+      <c r="AKK96"/>
+      <c r="AKL96"/>
+      <c r="AKM96"/>
+      <c r="AKN96"/>
+      <c r="AKO96"/>
+      <c r="AKP96"/>
+      <c r="AKQ96"/>
+      <c r="AKR96"/>
+      <c r="AKS96"/>
+      <c r="AKT96"/>
+      <c r="AKU96"/>
+      <c r="AKV96"/>
+      <c r="AKW96"/>
+      <c r="AKX96"/>
+      <c r="AKY96"/>
+      <c r="AKZ96"/>
+      <c r="ALA96"/>
+      <c r="ALB96"/>
+      <c r="ALC96"/>
+      <c r="ALD96"/>
+      <c r="ALE96"/>
+      <c r="ALF96"/>
+      <c r="ALG96"/>
+      <c r="ALH96"/>
+      <c r="ALI96"/>
+      <c r="ALJ96"/>
+      <c r="ALK96"/>
+      <c r="ALL96"/>
+      <c r="ALM96"/>
+      <c r="ALN96"/>
+      <c r="ALO96"/>
+      <c r="ALP96"/>
+      <c r="ALQ96"/>
+      <c r="ALR96"/>
+      <c r="ALS96"/>
+      <c r="ALT96"/>
+      <c r="ALU96"/>
+      <c r="ALV96"/>
+      <c r="ALW96"/>
+      <c r="ALX96"/>
+      <c r="ALY96"/>
+      <c r="ALZ96"/>
+      <c r="AMA96"/>
+      <c r="AMB96"/>
+      <c r="AMC96"/>
+      <c r="AMD96"/>
+      <c r="AME96"/>
+      <c r="AMF96"/>
+      <c r="AMG96"/>
+    </row>
+    <row r="97" spans="28:1021" x14ac:dyDescent="0.25">
+      <c r="AB97" s="1"/>
+      <c r="AJA97"/>
+      <c r="AJB97"/>
+      <c r="AJC97"/>
+      <c r="AJD97"/>
+      <c r="AJE97"/>
+      <c r="AJF97"/>
+      <c r="AJG97"/>
+      <c r="AJH97"/>
+      <c r="AJI97"/>
+      <c r="AJJ97"/>
+      <c r="AJK97"/>
+      <c r="AJL97"/>
+      <c r="AJM97"/>
+      <c r="AJN97"/>
+      <c r="AJO97"/>
+      <c r="AJP97"/>
+      <c r="AJQ97"/>
+      <c r="AJR97"/>
+      <c r="AJS97"/>
+      <c r="AJT97"/>
+      <c r="AJU97"/>
+      <c r="AJV97"/>
+      <c r="AJW97"/>
+      <c r="AJX97"/>
+      <c r="AJY97"/>
+      <c r="AJZ97"/>
+      <c r="AKA97"/>
+      <c r="AKB97"/>
+      <c r="AKC97"/>
+      <c r="AKD97"/>
+      <c r="AKE97"/>
+      <c r="AKF97"/>
+      <c r="AKG97"/>
+      <c r="AKH97"/>
+      <c r="AKI97"/>
+      <c r="AKJ97"/>
+      <c r="AKK97"/>
+      <c r="AKL97"/>
+      <c r="AKM97"/>
+      <c r="AKN97"/>
+      <c r="AKO97"/>
+      <c r="AKP97"/>
+      <c r="AKQ97"/>
+      <c r="AKR97"/>
+      <c r="AKS97"/>
+      <c r="AKT97"/>
+      <c r="AKU97"/>
+      <c r="AKV97"/>
+      <c r="AKW97"/>
+      <c r="AKX97"/>
+      <c r="AKY97"/>
+      <c r="AKZ97"/>
+      <c r="ALA97"/>
+      <c r="ALB97"/>
+      <c r="ALC97"/>
+      <c r="ALD97"/>
+      <c r="ALE97"/>
+      <c r="ALF97"/>
+      <c r="ALG97"/>
+      <c r="ALH97"/>
+      <c r="ALI97"/>
+      <c r="ALJ97"/>
+      <c r="ALK97"/>
+      <c r="ALL97"/>
+      <c r="ALM97"/>
+      <c r="ALN97"/>
+      <c r="ALO97"/>
+      <c r="ALP97"/>
+      <c r="ALQ97"/>
+      <c r="ALR97"/>
+      <c r="ALS97"/>
+      <c r="ALT97"/>
+      <c r="ALU97"/>
+      <c r="ALV97"/>
+      <c r="ALW97"/>
+      <c r="ALX97"/>
+      <c r="ALY97"/>
+      <c r="ALZ97"/>
+      <c r="AMA97"/>
+      <c r="AMB97"/>
+      <c r="AMC97"/>
+      <c r="AMD97"/>
+      <c r="AME97"/>
+      <c r="AMF97"/>
+      <c r="AMG97"/>
+    </row>
+    <row r="98" spans="28:1021" x14ac:dyDescent="0.25">
+      <c r="AB98" s="1"/>
+      <c r="AJA98"/>
+      <c r="AJB98"/>
+      <c r="AJC98"/>
+      <c r="AJD98"/>
+      <c r="AJE98"/>
+      <c r="AJF98"/>
+      <c r="AJG98"/>
+      <c r="AJH98"/>
+      <c r="AJI98"/>
+      <c r="AJJ98"/>
+      <c r="AJK98"/>
+      <c r="AJL98"/>
+      <c r="AJM98"/>
+      <c r="AJN98"/>
+      <c r="AJO98"/>
+      <c r="AJP98"/>
+      <c r="AJQ98"/>
+      <c r="AJR98"/>
+      <c r="AJS98"/>
+      <c r="AJT98"/>
+      <c r="AJU98"/>
+      <c r="AJV98"/>
+      <c r="AJW98"/>
+      <c r="AJX98"/>
+      <c r="AJY98"/>
+      <c r="AJZ98"/>
+      <c r="AKA98"/>
+      <c r="AKB98"/>
+      <c r="AKC98"/>
+      <c r="AKD98"/>
+      <c r="AKE98"/>
+      <c r="AKF98"/>
+      <c r="AKG98"/>
+      <c r="AKH98"/>
+      <c r="AKI98"/>
+      <c r="AKJ98"/>
+      <c r="AKK98"/>
+      <c r="AKL98"/>
+      <c r="AKM98"/>
+      <c r="AKN98"/>
+      <c r="AKO98"/>
+      <c r="AKP98"/>
+      <c r="AKQ98"/>
+      <c r="AKR98"/>
+      <c r="AKS98"/>
+      <c r="AKT98"/>
+      <c r="AKU98"/>
+      <c r="AKV98"/>
+      <c r="AKW98"/>
+      <c r="AKX98"/>
+      <c r="AKY98"/>
+      <c r="AKZ98"/>
+      <c r="ALA98"/>
+      <c r="ALB98"/>
+      <c r="ALC98"/>
+      <c r="ALD98"/>
+      <c r="ALE98"/>
+      <c r="ALF98"/>
+      <c r="ALG98"/>
+      <c r="ALH98"/>
+      <c r="ALI98"/>
+      <c r="ALJ98"/>
+      <c r="ALK98"/>
+      <c r="ALL98"/>
+      <c r="ALM98"/>
+      <c r="ALN98"/>
+      <c r="ALO98"/>
+      <c r="ALP98"/>
+      <c r="ALQ98"/>
+      <c r="ALR98"/>
+      <c r="ALS98"/>
+      <c r="ALT98"/>
+      <c r="ALU98"/>
+      <c r="ALV98"/>
+      <c r="ALW98"/>
+      <c r="ALX98"/>
+      <c r="ALY98"/>
+      <c r="ALZ98"/>
+      <c r="AMA98"/>
+      <c r="AMB98"/>
+      <c r="AMC98"/>
+      <c r="AMD98"/>
+      <c r="AME98"/>
+      <c r="AMF98"/>
+      <c r="AMG98"/>
+    </row>
+    <row r="99" spans="28:1021" x14ac:dyDescent="0.25">
+      <c r="AB99" s="1"/>
+      <c r="AJA99"/>
+      <c r="AJB99"/>
+      <c r="AJC99"/>
+      <c r="AJD99"/>
+      <c r="AJE99"/>
+      <c r="AJF99"/>
+      <c r="AJG99"/>
+      <c r="AJH99"/>
+      <c r="AJI99"/>
+      <c r="AJJ99"/>
+      <c r="AJK99"/>
+      <c r="AJL99"/>
+      <c r="AJM99"/>
+      <c r="AJN99"/>
+      <c r="AJO99"/>
+      <c r="AJP99"/>
+      <c r="AJQ99"/>
+      <c r="AJR99"/>
+      <c r="AJS99"/>
+      <c r="AJT99"/>
+      <c r="AJU99"/>
+      <c r="AJV99"/>
+      <c r="AJW99"/>
+      <c r="AJX99"/>
+      <c r="AJY99"/>
+      <c r="AJZ99"/>
+      <c r="AKA99"/>
+      <c r="AKB99"/>
+      <c r="AKC99"/>
+      <c r="AKD99"/>
+      <c r="AKE99"/>
+      <c r="AKF99"/>
+      <c r="AKG99"/>
+      <c r="AKH99"/>
+      <c r="AKI99"/>
+      <c r="AKJ99"/>
+      <c r="AKK99"/>
+      <c r="AKL99"/>
+      <c r="AKM99"/>
+      <c r="AKN99"/>
+      <c r="AKO99"/>
+      <c r="AKP99"/>
+      <c r="AKQ99"/>
+      <c r="AKR99"/>
+      <c r="AKS99"/>
+      <c r="AKT99"/>
+      <c r="AKU99"/>
+      <c r="AKV99"/>
+      <c r="AKW99"/>
+      <c r="AKX99"/>
+      <c r="AKY99"/>
+      <c r="AKZ99"/>
+      <c r="ALA99"/>
+      <c r="ALB99"/>
+      <c r="ALC99"/>
+      <c r="ALD99"/>
+      <c r="ALE99"/>
+      <c r="ALF99"/>
+      <c r="ALG99"/>
+      <c r="ALH99"/>
+      <c r="ALI99"/>
+      <c r="ALJ99"/>
+      <c r="ALK99"/>
+      <c r="ALL99"/>
+      <c r="ALM99"/>
+      <c r="ALN99"/>
+      <c r="ALO99"/>
+      <c r="ALP99"/>
+      <c r="ALQ99"/>
+      <c r="ALR99"/>
+      <c r="ALS99"/>
+      <c r="ALT99"/>
+      <c r="ALU99"/>
+      <c r="ALV99"/>
+      <c r="ALW99"/>
+      <c r="ALX99"/>
+      <c r="ALY99"/>
+      <c r="ALZ99"/>
+      <c r="AMA99"/>
+      <c r="AMB99"/>
+      <c r="AMC99"/>
+      <c r="AMD99"/>
+      <c r="AME99"/>
+      <c r="AMF99"/>
+      <c r="AMG99"/>
+    </row>
+    <row r="100" spans="28:1021" x14ac:dyDescent="0.25">
+      <c r="AB100" s="1"/>
+      <c r="AJA100"/>
+      <c r="AJB100"/>
+      <c r="AJC100"/>
+      <c r="AJD100"/>
+      <c r="AJE100"/>
+      <c r="AJF100"/>
+      <c r="AJG100"/>
+      <c r="AJH100"/>
+      <c r="AJI100"/>
+      <c r="AJJ100"/>
+      <c r="AJK100"/>
+      <c r="AJL100"/>
+      <c r="AJM100"/>
+      <c r="AJN100"/>
+      <c r="AJO100"/>
+      <c r="AJP100"/>
+      <c r="AJQ100"/>
+      <c r="AJR100"/>
+      <c r="AJS100"/>
+      <c r="AJT100"/>
+      <c r="AJU100"/>
+      <c r="AJV100"/>
+      <c r="AJW100"/>
+      <c r="AJX100"/>
+      <c r="AJY100"/>
+      <c r="AJZ100"/>
+      <c r="AKA100"/>
+      <c r="AKB100"/>
+      <c r="AKC100"/>
+      <c r="AKD100"/>
+      <c r="AKE100"/>
+      <c r="AKF100"/>
+      <c r="AKG100"/>
+      <c r="AKH100"/>
+      <c r="AKI100"/>
+      <c r="AKJ100"/>
+      <c r="AKK100"/>
+      <c r="AKL100"/>
+      <c r="AKM100"/>
+      <c r="AKN100"/>
+      <c r="AKO100"/>
+      <c r="AKP100"/>
+      <c r="AKQ100"/>
+      <c r="AKR100"/>
+      <c r="AKS100"/>
+      <c r="AKT100"/>
+      <c r="AKU100"/>
+      <c r="AKV100"/>
+      <c r="AKW100"/>
+      <c r="AKX100"/>
+      <c r="AKY100"/>
+      <c r="AKZ100"/>
+      <c r="ALA100"/>
+      <c r="ALB100"/>
+      <c r="ALC100"/>
+      <c r="ALD100"/>
+      <c r="ALE100"/>
+      <c r="ALF100"/>
+      <c r="ALG100"/>
+      <c r="ALH100"/>
+      <c r="ALI100"/>
+      <c r="ALJ100"/>
+      <c r="ALK100"/>
+      <c r="ALL100"/>
+      <c r="ALM100"/>
+      <c r="ALN100"/>
+      <c r="ALO100"/>
+      <c r="ALP100"/>
+      <c r="ALQ100"/>
+      <c r="ALR100"/>
+      <c r="ALS100"/>
+      <c r="ALT100"/>
+      <c r="ALU100"/>
+      <c r="ALV100"/>
+      <c r="ALW100"/>
+      <c r="ALX100"/>
+      <c r="ALY100"/>
+      <c r="ALZ100"/>
+      <c r="AMA100"/>
+      <c r="AMB100"/>
+      <c r="AMC100"/>
+      <c r="AMD100"/>
+      <c r="AME100"/>
+      <c r="AMF100"/>
+      <c r="AMG100"/>
+    </row>
+    <row r="101" spans="28:1021" x14ac:dyDescent="0.25">
+      <c r="AB101" s="1"/>
+      <c r="AJA101"/>
+      <c r="AJB101"/>
+      <c r="AJC101"/>
+      <c r="AJD101"/>
+      <c r="AJE101"/>
+      <c r="AJF101"/>
+      <c r="AJG101"/>
+      <c r="AJH101"/>
+      <c r="AJI101"/>
+      <c r="AJJ101"/>
+      <c r="AJK101"/>
+      <c r="AJL101"/>
+      <c r="AJM101"/>
+      <c r="AJN101"/>
+      <c r="AJO101"/>
+      <c r="AJP101"/>
+      <c r="AJQ101"/>
+      <c r="AJR101"/>
+      <c r="AJS101"/>
+      <c r="AJT101"/>
+      <c r="AJU101"/>
+      <c r="AJV101"/>
+      <c r="AJW101"/>
+      <c r="AJX101"/>
+      <c r="AJY101"/>
+      <c r="AJZ101"/>
+      <c r="AKA101"/>
+      <c r="AKB101"/>
+      <c r="AKC101"/>
+      <c r="AKD101"/>
+      <c r="AKE101"/>
+      <c r="AKF101"/>
+      <c r="AKG101"/>
+      <c r="AKH101"/>
+      <c r="AKI101"/>
+      <c r="AKJ101"/>
+      <c r="AKK101"/>
+      <c r="AKL101"/>
+      <c r="AKM101"/>
+      <c r="AKN101"/>
+      <c r="AKO101"/>
+      <c r="AKP101"/>
+      <c r="AKQ101"/>
+      <c r="AKR101"/>
+      <c r="AKS101"/>
+      <c r="AKT101"/>
+      <c r="AKU101"/>
+      <c r="AKV101"/>
+      <c r="AKW101"/>
+      <c r="AKX101"/>
+      <c r="AKY101"/>
+      <c r="AKZ101"/>
+      <c r="ALA101"/>
+      <c r="ALB101"/>
+      <c r="ALC101"/>
+      <c r="ALD101"/>
+      <c r="ALE101"/>
+      <c r="ALF101"/>
+      <c r="ALG101"/>
+      <c r="ALH101"/>
+      <c r="ALI101"/>
+      <c r="ALJ101"/>
+      <c r="ALK101"/>
+      <c r="ALL101"/>
+      <c r="ALM101"/>
+      <c r="ALN101"/>
+      <c r="ALO101"/>
+      <c r="ALP101"/>
+      <c r="ALQ101"/>
+      <c r="ALR101"/>
+      <c r="ALS101"/>
+      <c r="ALT101"/>
+      <c r="ALU101"/>
+      <c r="ALV101"/>
+      <c r="ALW101"/>
+      <c r="ALX101"/>
+      <c r="ALY101"/>
+      <c r="ALZ101"/>
+      <c r="AMA101"/>
+      <c r="AMB101"/>
+      <c r="AMC101"/>
+      <c r="AMD101"/>
+      <c r="AME101"/>
+      <c r="AMF101"/>
+      <c r="AMG101"/>
+    </row>
+    <row r="102" spans="28:1021" x14ac:dyDescent="0.25">
+      <c r="AB102" s="1"/>
+      <c r="AJA102"/>
+      <c r="AJB102"/>
+      <c r="AJC102"/>
+      <c r="AJD102"/>
+      <c r="AJE102"/>
+      <c r="AJF102"/>
+      <c r="AJG102"/>
+      <c r="AJH102"/>
+      <c r="AJI102"/>
+      <c r="AJJ102"/>
+      <c r="AJK102"/>
+      <c r="AJL102"/>
+      <c r="AJM102"/>
+      <c r="AJN102"/>
+      <c r="AJO102"/>
+      <c r="AJP102"/>
+      <c r="AJQ102"/>
+      <c r="AJR102"/>
+      <c r="AJS102"/>
+      <c r="AJT102"/>
+      <c r="AJU102"/>
+      <c r="AJV102"/>
+      <c r="AJW102"/>
+      <c r="AJX102"/>
+      <c r="AJY102"/>
+      <c r="AJZ102"/>
+      <c r="AKA102"/>
+      <c r="AKB102"/>
+      <c r="AKC102"/>
+      <c r="AKD102"/>
+      <c r="AKE102"/>
+      <c r="AKF102"/>
+      <c r="AKG102"/>
+      <c r="AKH102"/>
+      <c r="AKI102"/>
+      <c r="AKJ102"/>
+      <c r="AKK102"/>
+      <c r="AKL102"/>
+      <c r="AKM102"/>
+      <c r="AKN102"/>
+      <c r="AKO102"/>
+      <c r="AKP102"/>
+      <c r="AKQ102"/>
+      <c r="AKR102"/>
+      <c r="AKS102"/>
+      <c r="AKT102"/>
+      <c r="AKU102"/>
+      <c r="AKV102"/>
+      <c r="AKW102"/>
+      <c r="AKX102"/>
+      <c r="AKY102"/>
+      <c r="AKZ102"/>
+      <c r="ALA102"/>
+      <c r="ALB102"/>
+      <c r="ALC102"/>
+      <c r="ALD102"/>
+      <c r="ALE102"/>
+      <c r="ALF102"/>
+      <c r="ALG102"/>
+      <c r="ALH102"/>
+      <c r="ALI102"/>
+      <c r="ALJ102"/>
+      <c r="ALK102"/>
+      <c r="ALL102"/>
+      <c r="ALM102"/>
+      <c r="ALN102"/>
+      <c r="ALO102"/>
+      <c r="ALP102"/>
+      <c r="ALQ102"/>
+      <c r="ALR102"/>
+      <c r="ALS102"/>
+      <c r="ALT102"/>
+      <c r="ALU102"/>
+      <c r="ALV102"/>
+      <c r="ALW102"/>
+      <c r="ALX102"/>
+      <c r="ALY102"/>
+      <c r="ALZ102"/>
+      <c r="AMA102"/>
+      <c r="AMB102"/>
+      <c r="AMC102"/>
+      <c r="AMD102"/>
+      <c r="AME102"/>
+      <c r="AMF102"/>
+      <c r="AMG102"/>
+    </row>
+    <row r="103" spans="28:1021" x14ac:dyDescent="0.25">
+      <c r="AB103" s="1"/>
+      <c r="AJA103"/>
+      <c r="AJB103"/>
+      <c r="AJC103"/>
+      <c r="AJD103"/>
+      <c r="AJE103"/>
+      <c r="AJF103"/>
+      <c r="AJG103"/>
+      <c r="AJH103"/>
+      <c r="AJI103"/>
+      <c r="AJJ103"/>
+      <c r="AJK103"/>
+      <c r="AJL103"/>
+      <c r="AJM103"/>
+      <c r="AJN103"/>
+      <c r="AJO103"/>
+      <c r="AJP103"/>
+      <c r="AJQ103"/>
+      <c r="AJR103"/>
+      <c r="AJS103"/>
+      <c r="AJT103"/>
+      <c r="AJU103"/>
+      <c r="AJV103"/>
+      <c r="AJW103"/>
+      <c r="AJX103"/>
+      <c r="AJY103"/>
+      <c r="AJZ103"/>
+      <c r="AKA103"/>
+      <c r="AKB103"/>
+      <c r="AKC103"/>
+      <c r="AKD103"/>
+      <c r="AKE103"/>
+      <c r="AKF103"/>
+      <c r="AKG103"/>
+      <c r="AKH103"/>
+      <c r="AKI103"/>
+      <c r="AKJ103"/>
+      <c r="AKK103"/>
+      <c r="AKL103"/>
+      <c r="AKM103"/>
+      <c r="AKN103"/>
+      <c r="AKO103"/>
+      <c r="AKP103"/>
+      <c r="AKQ103"/>
+      <c r="AKR103"/>
+      <c r="AKS103"/>
+      <c r="AKT103"/>
+      <c r="AKU103"/>
+      <c r="AKV103"/>
+      <c r="AKW103"/>
+      <c r="AKX103"/>
+      <c r="AKY103"/>
+      <c r="AKZ103"/>
+      <c r="ALA103"/>
+      <c r="ALB103"/>
+      <c r="ALC103"/>
+      <c r="ALD103"/>
+      <c r="ALE103"/>
+      <c r="ALF103"/>
+      <c r="ALG103"/>
+      <c r="ALH103"/>
+      <c r="ALI103"/>
+      <c r="ALJ103"/>
+      <c r="ALK103"/>
+      <c r="ALL103"/>
+      <c r="ALM103"/>
+      <c r="ALN103"/>
+      <c r="ALO103"/>
+      <c r="ALP103"/>
+      <c r="ALQ103"/>
+      <c r="ALR103"/>
+      <c r="ALS103"/>
+      <c r="ALT103"/>
+      <c r="ALU103"/>
+      <c r="ALV103"/>
+      <c r="ALW103"/>
+      <c r="ALX103"/>
+      <c r="ALY103"/>
+      <c r="ALZ103"/>
+      <c r="AMA103"/>
+      <c r="AMB103"/>
+      <c r="AMC103"/>
+      <c r="AMD103"/>
+      <c r="AME103"/>
+      <c r="AMF103"/>
+      <c r="AMG103"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
